--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,121 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6916300</v>
+        <v>6055200</v>
       </c>
       <c r="E8" s="3">
-        <v>7471900</v>
+        <v>6139400</v>
       </c>
       <c r="F8" s="3">
-        <v>7139200</v>
+        <v>6976800</v>
       </c>
       <c r="G8" s="3">
-        <v>7019500</v>
+        <v>7537200</v>
       </c>
       <c r="H8" s="3">
-        <v>6578100</v>
+        <v>7202700</v>
       </c>
       <c r="I8" s="3">
+        <v>6657800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6720900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7042600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6582500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5961100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6681500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7024800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7056900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7657900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -810,8 +822,14 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -854,8 +872,14 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -872,8 +896,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -916,8 +942,14 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -960,8 +992,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1004,8 +1042,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1048,8 +1092,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1063,96 +1113,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3337900</v>
+        <v>3014900</v>
       </c>
       <c r="E17" s="3">
-        <v>3661800</v>
+        <v>2666000</v>
       </c>
       <c r="F17" s="3">
-        <v>3666200</v>
+        <v>3367100</v>
       </c>
       <c r="G17" s="3">
-        <v>3577300</v>
+        <v>3693800</v>
       </c>
       <c r="H17" s="3">
-        <v>2954700</v>
+        <v>3640700</v>
       </c>
       <c r="I17" s="3">
+        <v>3066900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>3102400</v>
+      </c>
+      <c r="K17" s="3">
         <v>3343400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3438900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2729800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3263900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3657700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3624700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4049600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3578400</v>
+        <v>3040400</v>
       </c>
       <c r="E18" s="3">
-        <v>3810100</v>
+        <v>3473400</v>
       </c>
       <c r="F18" s="3">
-        <v>3473000</v>
+        <v>3609700</v>
       </c>
       <c r="G18" s="3">
-        <v>3442200</v>
+        <v>3843400</v>
       </c>
       <c r="H18" s="3">
-        <v>3623400</v>
+        <v>3562000</v>
       </c>
       <c r="I18" s="3">
+        <v>3590800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3618500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3699200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>3143600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3231300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>3417600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3367100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3432200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3608300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1169,52 +1233,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4332700</v>
+        <v>-2812200</v>
       </c>
       <c r="E20" s="3">
-        <v>-4848800</v>
+        <v>-4905600</v>
       </c>
       <c r="F20" s="3">
-        <v>-3152400</v>
+        <v>-4370600</v>
       </c>
       <c r="G20" s="3">
-        <v>-3792500</v>
+        <v>-4891200</v>
       </c>
       <c r="H20" s="3">
-        <v>-3067800</v>
+        <v>-3237500</v>
       </c>
       <c r="I20" s="3">
+        <v>-3945300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-3058100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1227,38 +1299,44 @@
       <c r="F21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="3">
-        <v>304100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1241800</v>
+      <c r="G21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3">
+        <v>305700</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1252700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1717300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>822400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-843700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1413700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1466400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1845200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-225400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1301,96 +1379,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-754300</v>
+        <v>228200</v>
       </c>
       <c r="E23" s="3">
-        <v>-1038700</v>
+        <v>-1432100</v>
       </c>
       <c r="F23" s="3">
-        <v>320600</v>
+        <v>-760900</v>
       </c>
       <c r="G23" s="3">
-        <v>-350300</v>
+        <v>-1047800</v>
       </c>
       <c r="H23" s="3">
-        <v>555600</v>
+        <v>324500</v>
       </c>
       <c r="I23" s="3">
+        <v>-354400</v>
+      </c>
+      <c r="J23" s="3">
+        <v>560400</v>
+      </c>
+      <c r="K23" s="3">
         <v>780700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>474300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1046800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>922300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1030600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>159200</v>
+        <v>156200</v>
       </c>
       <c r="E24" s="3">
-        <v>2420000</v>
+        <v>210400</v>
       </c>
       <c r="F24" s="3">
-        <v>99900</v>
+        <v>160600</v>
       </c>
       <c r="G24" s="3">
-        <v>98800</v>
+        <v>2441200</v>
       </c>
       <c r="H24" s="3">
-        <v>304100</v>
+        <v>100800</v>
       </c>
       <c r="I24" s="3">
+        <v>98600</v>
+      </c>
+      <c r="J24" s="3">
+        <v>306800</v>
+      </c>
+      <c r="K24" s="3">
         <v>340400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>342600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>1143300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>318600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>400600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>355700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-616300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1433,96 +1529,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-913500</v>
+        <v>72000</v>
       </c>
       <c r="E26" s="3">
-        <v>-3458700</v>
+        <v>-1642600</v>
       </c>
       <c r="F26" s="3">
-        <v>220700</v>
+        <v>-921500</v>
       </c>
       <c r="G26" s="3">
-        <v>-449100</v>
+        <v>-3488900</v>
       </c>
       <c r="H26" s="3">
-        <v>251400</v>
+        <v>223700</v>
       </c>
       <c r="I26" s="3">
+        <v>-453000</v>
+      </c>
+      <c r="J26" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K26" s="3">
         <v>440300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>131800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>728200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>521700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>674900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1034300</v>
+        <v>-47600</v>
       </c>
       <c r="E27" s="3">
-        <v>-3592700</v>
+        <v>-1774400</v>
       </c>
       <c r="F27" s="3">
-        <v>106500</v>
+        <v>-1043400</v>
       </c>
       <c r="G27" s="3">
-        <v>-556700</v>
+        <v>-3624100</v>
       </c>
       <c r="H27" s="3">
-        <v>142700</v>
+        <v>108500</v>
       </c>
       <c r="I27" s="3">
+        <v>-470700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K27" s="3">
         <v>310700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>47200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>725900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>178400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>670200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1565,8 +1679,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1591,15 +1711,15 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1609,8 +1729,14 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1653,8 +1779,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1697,96 +1829,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4332700</v>
+        <v>2812200</v>
       </c>
       <c r="E32" s="3">
-        <v>4848800</v>
+        <v>4905600</v>
       </c>
       <c r="F32" s="3">
-        <v>3152400</v>
+        <v>4370600</v>
       </c>
       <c r="G32" s="3">
-        <v>3792500</v>
+        <v>4891200</v>
       </c>
       <c r="H32" s="3">
-        <v>3067800</v>
+        <v>3237500</v>
       </c>
       <c r="I32" s="3">
+        <v>3945300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>3058100</v>
+      </c>
+      <c r="K32" s="3">
         <v>2918500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2669200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4807700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2370800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2444800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2401600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>6444200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1034300</v>
+        <v>-47600</v>
       </c>
       <c r="E33" s="3">
-        <v>-3592700</v>
+        <v>-1774400</v>
       </c>
       <c r="F33" s="3">
-        <v>106500</v>
+        <v>-1043400</v>
       </c>
       <c r="G33" s="3">
-        <v>-556700</v>
+        <v>-3624100</v>
       </c>
       <c r="H33" s="3">
-        <v>142700</v>
+        <v>108500</v>
       </c>
       <c r="I33" s="3">
+        <v>-470700</v>
+      </c>
+      <c r="J33" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K33" s="3">
         <v>310700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>47200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>725900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>178400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>670200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1829,101 +1979,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1034300</v>
+        <v>-47600</v>
       </c>
       <c r="E35" s="3">
-        <v>-3592700</v>
+        <v>-1774400</v>
       </c>
       <c r="F35" s="3">
-        <v>106500</v>
+        <v>-1043400</v>
       </c>
       <c r="G35" s="3">
-        <v>-556700</v>
+        <v>-3624100</v>
       </c>
       <c r="H35" s="3">
-        <v>142700</v>
+        <v>108500</v>
       </c>
       <c r="I35" s="3">
+        <v>-470700</v>
+      </c>
+      <c r="J35" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K35" s="3">
         <v>310700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>47200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>725900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>178400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>670200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,8 +2108,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1958,96 +2128,110 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>184291600</v>
+        <v>134999800</v>
       </c>
       <c r="E41" s="3">
-        <v>176758200</v>
+        <v>152396900</v>
       </c>
       <c r="F41" s="3">
-        <v>205670800</v>
+        <v>185902900</v>
       </c>
       <c r="G41" s="3">
-        <v>207226600</v>
+        <v>178303700</v>
       </c>
       <c r="H41" s="3">
-        <v>220906600</v>
+        <v>207469000</v>
       </c>
       <c r="I41" s="3">
+        <v>209038500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>222838000</v>
+      </c>
+      <c r="K41" s="3">
         <v>228478400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>248938600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>253182700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>229323500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>255268400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>210653100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>212886900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>756844800</v>
+        <v>731325000</v>
       </c>
       <c r="E42" s="3">
-        <v>713630800</v>
+        <v>614250600</v>
       </c>
       <c r="F42" s="3">
-        <v>692215400</v>
+        <v>763462000</v>
       </c>
       <c r="G42" s="3">
-        <v>658936200</v>
+        <v>719870200</v>
       </c>
       <c r="H42" s="3">
-        <v>656621600</v>
+        <v>698267600</v>
       </c>
       <c r="I42" s="3">
+        <v>664697300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>662362500</v>
+      </c>
+      <c r="K42" s="3">
         <v>684587600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>720950100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>857440500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>785621900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>805357700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>892835100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>929369900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2090,8 +2274,14 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,8 +2324,14 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2178,8 +2374,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2222,140 +2424,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1002500</v>
+        <v>1014600</v>
       </c>
       <c r="E47" s="3">
-        <v>1009100</v>
+        <v>1029000</v>
       </c>
       <c r="F47" s="3">
-        <v>1011300</v>
+        <v>1011200</v>
       </c>
       <c r="G47" s="3">
-        <v>965100</v>
+        <v>1017900</v>
       </c>
       <c r="H47" s="3">
-        <v>932200</v>
+        <v>1020100</v>
       </c>
       <c r="I47" s="3">
+        <v>973600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>940400</v>
+      </c>
+      <c r="K47" s="3">
         <v>934400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>986000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>971600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1026600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1063600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1150300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1205500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5644800</v>
+        <v>5318700</v>
       </c>
       <c r="E48" s="3">
-        <v>5856700</v>
+        <v>5460500</v>
       </c>
       <c r="F48" s="3">
-        <v>5972000</v>
+        <v>5694200</v>
       </c>
       <c r="G48" s="3">
-        <v>2658300</v>
+        <v>5907900</v>
       </c>
       <c r="H48" s="3">
-        <v>2751600</v>
+        <v>6024200</v>
       </c>
       <c r="I48" s="3">
+        <v>2681500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2775600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2788900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2693400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2987900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3110200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3081000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3324200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3291400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8399700</v>
+        <v>7749900</v>
       </c>
       <c r="E49" s="3">
-        <v>8463400</v>
+        <v>7785300</v>
       </c>
       <c r="F49" s="3">
-        <v>10082900</v>
+        <v>8473100</v>
       </c>
       <c r="G49" s="3">
-        <v>10036800</v>
+        <v>8537400</v>
       </c>
       <c r="H49" s="3">
-        <v>9943500</v>
+        <v>10171100</v>
       </c>
       <c r="I49" s="3">
+        <v>10124600</v>
+      </c>
+      <c r="J49" s="3">
+        <v>10030400</v>
+      </c>
+      <c r="K49" s="3">
         <v>9862200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9608600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>9917300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9843200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9911700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10610100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10543200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2398,8 +2624,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2442,52 +2674,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6627500</v>
+        <v>6510500</v>
       </c>
       <c r="E52" s="3">
-        <v>6097200</v>
+        <v>6630100</v>
       </c>
       <c r="F52" s="3">
-        <v>8139500</v>
+        <v>6685500</v>
       </c>
       <c r="G52" s="3">
-        <v>10880100</v>
+        <v>6150500</v>
       </c>
       <c r="H52" s="3">
-        <v>15784800</v>
+        <v>8210600</v>
       </c>
       <c r="I52" s="3">
+        <v>10975200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>15922900</v>
+      </c>
+      <c r="K52" s="3">
         <v>10640700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>10177400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>7678900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>9295700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>9479700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>10552600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>10833100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2530,52 +2774,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1648012400</v>
+        <v>1651656400</v>
       </c>
       <c r="E54" s="3">
-        <v>1576833400</v>
+        <v>1437303700</v>
       </c>
       <c r="F54" s="3">
-        <v>1578022500</v>
+        <v>1662421200</v>
       </c>
       <c r="G54" s="3">
-        <v>1480254400</v>
+        <v>1590619900</v>
       </c>
       <c r="H54" s="3">
-        <v>1515220200</v>
+        <v>1591819500</v>
       </c>
       <c r="I54" s="3">
+        <v>1493196500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1528468100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2592,8 +2848,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2610,8 +2868,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2624,38 +2884,44 @@
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>2729600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2501200</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I57" s="3">
+        <v>2753500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2523100</v>
+      </c>
+      <c r="K57" s="3">
         <v>2478200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2882300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2943000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2793800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3097800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3379400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3183400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,52 +2964,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>763100</v>
+        <v>722200</v>
       </c>
       <c r="E59" s="3">
-        <v>1996200</v>
+        <v>721000</v>
       </c>
       <c r="F59" s="3">
-        <v>976100</v>
+        <v>769800</v>
       </c>
       <c r="G59" s="3">
-        <v>1036500</v>
+        <v>2013600</v>
       </c>
       <c r="H59" s="3">
-        <v>977200</v>
+        <v>984700</v>
       </c>
       <c r="I59" s="3">
+        <v>1045600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>985800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1012400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1213300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1123100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1205000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1212900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1304100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1560000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2786,96 +3064,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>229176800</v>
+        <v>221144500</v>
       </c>
       <c r="E61" s="3">
-        <v>222582200</v>
+        <v>209134800</v>
       </c>
       <c r="F61" s="3">
-        <v>245993700</v>
+        <v>231180500</v>
       </c>
       <c r="G61" s="3">
-        <v>176623200</v>
+        <v>224528200</v>
       </c>
       <c r="H61" s="3">
-        <v>177736600</v>
+        <v>248144500</v>
       </c>
       <c r="I61" s="3">
+        <v>178167400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>179290500</v>
+      </c>
+      <c r="K61" s="3">
         <v>183304500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>188645200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>192592900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>192494200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>199071300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>218534100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>217392000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3507000</v>
+        <v>3766900</v>
       </c>
       <c r="E62" s="3">
-        <v>3501500</v>
+        <v>3507800</v>
       </c>
       <c r="F62" s="3">
-        <v>3816600</v>
+        <v>3537700</v>
       </c>
       <c r="G62" s="3">
-        <v>4902600</v>
+        <v>3532100</v>
       </c>
       <c r="H62" s="3">
-        <v>9374700</v>
+        <v>3850000</v>
       </c>
       <c r="I62" s="3">
+        <v>4945400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9456700</v>
+      </c>
+      <c r="K62" s="3">
         <v>7174300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9655800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>5071400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>6957500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7417500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>9514900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>14273500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2918,8 +3214,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3264,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3006,52 +3314,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1578815300</v>
+        <v>1583289800</v>
       </c>
       <c r="E66" s="3">
-        <v>1507201500</v>
+        <v>1370269600</v>
       </c>
       <c r="F66" s="3">
-        <v>1503809800</v>
+        <v>1592619100</v>
       </c>
       <c r="G66" s="3">
-        <v>1406502900</v>
+        <v>1520379300</v>
       </c>
       <c r="H66" s="3">
-        <v>1441376400</v>
+        <v>1516957900</v>
       </c>
       <c r="I66" s="3">
+        <v>1418800200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1453978600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3068,8 +3388,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3112,8 +3434,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3156,8 +3484,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3200,8 +3534,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3244,52 +3584,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12657700</v>
+        <v>10843400</v>
       </c>
       <c r="E72" s="3">
-        <v>13861200</v>
+        <v>10681700</v>
       </c>
       <c r="F72" s="3">
-        <v>18212500</v>
+        <v>12768400</v>
       </c>
       <c r="G72" s="3">
-        <v>18352000</v>
+        <v>13982300</v>
       </c>
       <c r="H72" s="3">
-        <v>18843900</v>
+        <v>18371800</v>
       </c>
       <c r="I72" s="3">
+        <v>18512400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>19008600</v>
+      </c>
+      <c r="K72" s="3">
         <v>18649500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>18846100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>19583200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>22200800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>21747500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>22878700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>22287100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3332,8 +3684,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3376,8 +3734,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3420,52 +3784,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69197100</v>
+        <v>68366600</v>
       </c>
       <c r="E76" s="3">
-        <v>69631900</v>
+        <v>67034200</v>
       </c>
       <c r="F76" s="3">
-        <v>74212700</v>
+        <v>69802100</v>
       </c>
       <c r="G76" s="3">
-        <v>73751600</v>
+        <v>70240700</v>
       </c>
       <c r="H76" s="3">
-        <v>73843800</v>
+        <v>74861600</v>
       </c>
       <c r="I76" s="3">
+        <v>74396400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>74489400</v>
+      </c>
+      <c r="K76" s="3">
         <v>73930500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>73143300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>76125900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>78925300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>79585000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>75781200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>75714300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3508,101 +3884,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1034300</v>
+        <v>-47600</v>
       </c>
       <c r="E81" s="3">
-        <v>-3592700</v>
+        <v>-1774400</v>
       </c>
       <c r="F81" s="3">
-        <v>106500</v>
+        <v>-1043400</v>
       </c>
       <c r="G81" s="3">
-        <v>-556700</v>
+        <v>-3624100</v>
       </c>
       <c r="H81" s="3">
-        <v>142700</v>
+        <v>108500</v>
       </c>
       <c r="I81" s="3">
+        <v>-470700</v>
+      </c>
+      <c r="J81" s="3">
+        <v>233700</v>
+      </c>
+      <c r="K81" s="3">
         <v>310700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>47200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>725900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>178400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>670200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3619,8 +4013,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3633,38 +4029,44 @@
       <c r="F83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G83" s="3">
-        <v>654400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>686300</v>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I83" s="3">
+        <v>660100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>692300</v>
+      </c>
+      <c r="K83" s="3">
         <v>936600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>348100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>732700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>366900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>544200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>814600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>2610600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3707,8 +4109,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3751,8 +4159,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3795,8 +4209,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3839,8 +4259,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3883,8 +4309,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3897,38 +4329,44 @@
       <c r="F89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G89" s="3">
-        <v>-13684400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-7635500</v>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3">
+        <v>-13804000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-7702300</v>
+      </c>
+      <c r="K89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>22428600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>49922900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>72411200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3945,8 +4383,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3959,38 +4399,44 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
-        <v>-142700</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-152600</v>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I91" s="3">
+        <v>-144000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-109800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-105400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-71800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-170500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-139100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-340400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-340400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4033,8 +4479,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4077,8 +4529,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4091,38 +4549,44 @@
       <c r="F94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="3">
-        <v>-973900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1670100</v>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3">
+        <v>-865000</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1684700</v>
+      </c>
+      <c r="K94" s="3">
         <v>5880900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>5028800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>1605600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>1331800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-448800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>252400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>11937600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4139,8 +4603,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4172,19 +4638,25 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-439800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4227,8 +4699,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4271,8 +4749,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4315,8 +4799,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4329,38 +4819,44 @@
       <c r="F100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G100" s="3">
-        <v>-123000</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-329400</v>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3">
+        <v>-124100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-332300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-793900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>911100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-371400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>7601500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-138500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-59900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4373,38 +4869,44 @@
       <c r="F101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G101" s="3">
-        <v>1033200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>867400</v>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3">
+        <v>1042300</v>
+      </c>
+      <c r="J101" s="3">
+        <v>875000</v>
+      </c>
+      <c r="K101" s="3">
         <v>1412000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-693700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>430800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4417,34 +4919,40 @@
       <c r="F102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G102" s="3">
-        <v>-13748100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-8767500</v>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3">
+        <v>-13868300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-8844200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>23560700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>55083000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>84719700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,127 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6055200</v>
+        <v>5311200</v>
       </c>
       <c r="E8" s="3">
-        <v>6139400</v>
+        <v>6466900</v>
       </c>
       <c r="F8" s="3">
-        <v>6976800</v>
+        <v>6556800</v>
       </c>
       <c r="G8" s="3">
-        <v>7537200</v>
+        <v>7451100</v>
       </c>
       <c r="H8" s="3">
-        <v>7202700</v>
+        <v>8118200</v>
       </c>
       <c r="I8" s="3">
-        <v>6657800</v>
+        <v>7692400</v>
       </c>
       <c r="J8" s="3">
+        <v>7110400</v>
+      </c>
+      <c r="K8" s="3">
         <v>6720900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7042600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6582500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5961100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6681500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7024800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7056900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7657900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -878,8 +887,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -898,8 +910,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -948,8 +961,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -998,8 +1014,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1048,8 +1067,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3014900</v>
+        <v>2552700</v>
       </c>
       <c r="E17" s="3">
-        <v>2666000</v>
+        <v>3219900</v>
       </c>
       <c r="F17" s="3">
-        <v>3367100</v>
+        <v>2847200</v>
       </c>
       <c r="G17" s="3">
-        <v>3693800</v>
+        <v>3596000</v>
       </c>
       <c r="H17" s="3">
-        <v>3640700</v>
+        <v>3963900</v>
       </c>
       <c r="I17" s="3">
-        <v>3066900</v>
+        <v>3888200</v>
       </c>
       <c r="J17" s="3">
+        <v>3275500</v>
+      </c>
+      <c r="K17" s="3">
         <v>3102400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3343400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3438900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2729800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3263900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3657700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3624700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4049600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3040400</v>
+        <v>2758500</v>
       </c>
       <c r="E18" s="3">
-        <v>3473400</v>
+        <v>3247100</v>
       </c>
       <c r="F18" s="3">
-        <v>3609700</v>
+        <v>3709600</v>
       </c>
       <c r="G18" s="3">
-        <v>3843400</v>
+        <v>3855100</v>
       </c>
       <c r="H18" s="3">
-        <v>3562000</v>
+        <v>4154300</v>
       </c>
       <c r="I18" s="3">
-        <v>3590800</v>
+        <v>3804200</v>
       </c>
       <c r="J18" s="3">
+        <v>3835000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3618500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3699200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3143600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3231300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3417600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3367100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3432200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3608300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1235,58 +1267,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2812200</v>
+        <v>-2571600</v>
       </c>
       <c r="E20" s="3">
-        <v>-4905600</v>
+        <v>-3003400</v>
       </c>
       <c r="F20" s="3">
-        <v>-4370600</v>
+        <v>-5239100</v>
       </c>
       <c r="G20" s="3">
-        <v>-4891200</v>
+        <v>-4667700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3237500</v>
+        <v>-5273400</v>
       </c>
       <c r="I20" s="3">
-        <v>-3945300</v>
+        <v>-3457600</v>
       </c>
       <c r="J20" s="3">
+        <v>-4213500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,38 +1341,41 @@
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I21" s="3">
-        <v>305700</v>
+      <c r="I21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J21" s="3">
+        <v>326500</v>
+      </c>
+      <c r="K21" s="3">
         <v>1252700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1717300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>822400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-843700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1413700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1466400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1845200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-225400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1385,108 +1424,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>228200</v>
+        <v>186900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1432100</v>
+        <v>243700</v>
       </c>
       <c r="F23" s="3">
-        <v>-760900</v>
+        <v>-1529500</v>
       </c>
       <c r="G23" s="3">
-        <v>-1047800</v>
+        <v>-812700</v>
       </c>
       <c r="H23" s="3">
-        <v>324500</v>
+        <v>-1119000</v>
       </c>
       <c r="I23" s="3">
-        <v>-354400</v>
+        <v>346600</v>
       </c>
       <c r="J23" s="3">
+        <v>-378500</v>
+      </c>
+      <c r="K23" s="3">
         <v>560400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>780700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>474300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1046800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>922300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1030600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>156200</v>
+        <v>114700</v>
       </c>
       <c r="E24" s="3">
-        <v>210400</v>
+        <v>166800</v>
       </c>
       <c r="F24" s="3">
-        <v>160600</v>
+        <v>224800</v>
       </c>
       <c r="G24" s="3">
-        <v>2441200</v>
+        <v>171500</v>
       </c>
       <c r="H24" s="3">
-        <v>100800</v>
+        <v>2607100</v>
       </c>
       <c r="I24" s="3">
-        <v>98600</v>
+        <v>107600</v>
       </c>
       <c r="J24" s="3">
+        <v>105300</v>
+      </c>
+      <c r="K24" s="3">
         <v>306800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>340400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>342600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1143300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>318600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>355700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-616300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72000</v>
+        <v>72200</v>
       </c>
       <c r="E26" s="3">
-        <v>-1642600</v>
+        <v>76900</v>
       </c>
       <c r="F26" s="3">
-        <v>-921500</v>
+        <v>-1754200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3488900</v>
+        <v>-984200</v>
       </c>
       <c r="H26" s="3">
-        <v>223700</v>
+        <v>-3726100</v>
       </c>
       <c r="I26" s="3">
-        <v>-453000</v>
+        <v>238900</v>
       </c>
       <c r="J26" s="3">
+        <v>-483800</v>
+      </c>
+      <c r="K26" s="3">
         <v>253600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>440300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>131800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>728200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>521700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>674900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-47600</v>
+        <v>-91100</v>
       </c>
       <c r="E27" s="3">
-        <v>-1774400</v>
+        <v>-50900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1043400</v>
+        <v>-1895000</v>
       </c>
       <c r="G27" s="3">
-        <v>-3624100</v>
+        <v>-1114300</v>
       </c>
       <c r="H27" s="3">
-        <v>108500</v>
+        <v>-3870400</v>
       </c>
       <c r="I27" s="3">
-        <v>-470700</v>
+        <v>115900</v>
       </c>
       <c r="J27" s="3">
+        <v>-502700</v>
+      </c>
+      <c r="K27" s="3">
         <v>233700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>310700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>47200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>725900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>178400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>670200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1717,12 +1777,12 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1735,8 +1795,11 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2812200</v>
+        <v>2571600</v>
       </c>
       <c r="E32" s="3">
-        <v>4905600</v>
+        <v>3003400</v>
       </c>
       <c r="F32" s="3">
-        <v>4370600</v>
+        <v>5239100</v>
       </c>
       <c r="G32" s="3">
-        <v>4891200</v>
+        <v>4667700</v>
       </c>
       <c r="H32" s="3">
-        <v>3237500</v>
+        <v>5273400</v>
       </c>
       <c r="I32" s="3">
-        <v>3945300</v>
+        <v>3457600</v>
       </c>
       <c r="J32" s="3">
+        <v>4213500</v>
+      </c>
+      <c r="K32" s="3">
         <v>3058100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2918500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2669200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4807700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2370800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2444800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2401600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6444200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-47600</v>
+        <v>-91100</v>
       </c>
       <c r="E33" s="3">
-        <v>-1774400</v>
+        <v>-50900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1043400</v>
+        <v>-1895000</v>
       </c>
       <c r="G33" s="3">
-        <v>-3624100</v>
+        <v>-1114300</v>
       </c>
       <c r="H33" s="3">
-        <v>108500</v>
+        <v>-3870400</v>
       </c>
       <c r="I33" s="3">
-        <v>-470700</v>
+        <v>115900</v>
       </c>
       <c r="J33" s="3">
+        <v>-502700</v>
+      </c>
+      <c r="K33" s="3">
         <v>233700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>310700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>47200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>725900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>178400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>670200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-47600</v>
+        <v>-91100</v>
       </c>
       <c r="E35" s="3">
-        <v>-1774400</v>
+        <v>-50900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1043400</v>
+        <v>-1895000</v>
       </c>
       <c r="G35" s="3">
-        <v>-3624100</v>
+        <v>-1114300</v>
       </c>
       <c r="H35" s="3">
-        <v>108500</v>
+        <v>-3870400</v>
       </c>
       <c r="I35" s="3">
-        <v>-470700</v>
+        <v>115900</v>
       </c>
       <c r="J35" s="3">
+        <v>-502700</v>
+      </c>
+      <c r="K35" s="3">
         <v>233700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>310700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>47200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>725900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>178400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>670200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,108 +2215,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>134999800</v>
+        <v>196635800</v>
       </c>
       <c r="E41" s="3">
-        <v>152396900</v>
+        <v>144177800</v>
       </c>
       <c r="F41" s="3">
-        <v>185902900</v>
+        <v>162757600</v>
       </c>
       <c r="G41" s="3">
-        <v>178303700</v>
+        <v>198541500</v>
       </c>
       <c r="H41" s="3">
-        <v>207469000</v>
+        <v>190425600</v>
       </c>
       <c r="I41" s="3">
-        <v>209038500</v>
+        <v>221573700</v>
       </c>
       <c r="J41" s="3">
+        <v>223249900</v>
+      </c>
+      <c r="K41" s="3">
         <v>222838000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228478400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>248938600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>253182700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>229323500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>255268400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>210653100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>212886900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>731325000</v>
+        <v>697492300</v>
       </c>
       <c r="E42" s="3">
-        <v>614250600</v>
+        <v>781044000</v>
       </c>
       <c r="F42" s="3">
-        <v>763462000</v>
+        <v>656010300</v>
       </c>
       <c r="G42" s="3">
-        <v>719870200</v>
+        <v>815365900</v>
       </c>
       <c r="H42" s="3">
-        <v>698267600</v>
+        <v>768810500</v>
       </c>
       <c r="I42" s="3">
-        <v>664697300</v>
+        <v>745739200</v>
       </c>
       <c r="J42" s="3">
+        <v>709886700</v>
+      </c>
+      <c r="K42" s="3">
         <v>662362500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>684587600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>720950100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>857440500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>785621900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>805357700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>892835100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>929369900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2280,8 +2372,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2330,8 +2425,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2380,8 +2478,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2430,158 +2531,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1014600</v>
+        <v>1122600</v>
       </c>
       <c r="E47" s="3">
-        <v>1029000</v>
+        <v>1083500</v>
       </c>
       <c r="F47" s="3">
-        <v>1011200</v>
+        <v>1098900</v>
       </c>
       <c r="G47" s="3">
-        <v>1017900</v>
+        <v>1080000</v>
       </c>
       <c r="H47" s="3">
-        <v>1020100</v>
+        <v>1087100</v>
       </c>
       <c r="I47" s="3">
-        <v>973600</v>
+        <v>1089500</v>
       </c>
       <c r="J47" s="3">
+        <v>1039800</v>
+      </c>
+      <c r="K47" s="3">
         <v>940400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>934400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>986000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>971600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1026600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1063600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1150300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1205500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5318700</v>
+        <v>5696800</v>
       </c>
       <c r="E48" s="3">
-        <v>5460500</v>
+        <v>5680300</v>
       </c>
       <c r="F48" s="3">
-        <v>5694200</v>
+        <v>5831700</v>
       </c>
       <c r="G48" s="3">
-        <v>5907900</v>
+        <v>6081300</v>
       </c>
       <c r="H48" s="3">
-        <v>6024200</v>
+        <v>6309600</v>
       </c>
       <c r="I48" s="3">
-        <v>2681500</v>
+        <v>6433800</v>
       </c>
       <c r="J48" s="3">
+        <v>2863800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2775600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2788900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2693400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2987900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3110200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3081000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3324200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3291400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7749900</v>
+        <v>8162000</v>
       </c>
       <c r="E49" s="3">
-        <v>7785300</v>
+        <v>8276800</v>
       </c>
       <c r="F49" s="3">
-        <v>8473100</v>
+        <v>8314600</v>
       </c>
       <c r="G49" s="3">
-        <v>8537400</v>
+        <v>9049200</v>
       </c>
       <c r="H49" s="3">
-        <v>10171100</v>
+        <v>9117800</v>
       </c>
       <c r="I49" s="3">
-        <v>10124600</v>
+        <v>10862600</v>
       </c>
       <c r="J49" s="3">
+        <v>10812900</v>
+      </c>
+      <c r="K49" s="3">
         <v>10030400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9862200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9608600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9917300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9843200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9911700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10610100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10543200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6510500</v>
+        <v>7057200</v>
       </c>
       <c r="E52" s="3">
-        <v>6630100</v>
+        <v>6953100</v>
       </c>
       <c r="F52" s="3">
-        <v>6685500</v>
+        <v>7080800</v>
       </c>
       <c r="G52" s="3">
-        <v>6150500</v>
+        <v>7140000</v>
       </c>
       <c r="H52" s="3">
-        <v>8210600</v>
+        <v>6568600</v>
       </c>
       <c r="I52" s="3">
-        <v>10975200</v>
+        <v>8768800</v>
       </c>
       <c r="J52" s="3">
+        <v>11721400</v>
+      </c>
+      <c r="K52" s="3">
         <v>15922900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10640700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10177400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>7678900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>9295700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9479700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10552600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10833100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1651656400</v>
+        <v>1664690400</v>
       </c>
       <c r="E54" s="3">
-        <v>1437303700</v>
+        <v>1763944000</v>
       </c>
       <c r="F54" s="3">
-        <v>1662421200</v>
+        <v>1535018600</v>
       </c>
       <c r="G54" s="3">
-        <v>1590619900</v>
+        <v>1775440600</v>
       </c>
       <c r="H54" s="3">
-        <v>1591819500</v>
+        <v>1698758000</v>
       </c>
       <c r="I54" s="3">
-        <v>1493196500</v>
+        <v>1700039000</v>
       </c>
       <c r="J54" s="3">
+        <v>1594711300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,8 +2999,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2890,38 +3020,41 @@
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>2753500</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J57" s="3">
+        <v>2940700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2523100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2478200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2882300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2943000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2793800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3097800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3379400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3183400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2970,58 +3103,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>722200</v>
+        <v>907300</v>
       </c>
       <c r="E59" s="3">
-        <v>721000</v>
+        <v>771300</v>
       </c>
       <c r="F59" s="3">
-        <v>769800</v>
+        <v>770100</v>
       </c>
       <c r="G59" s="3">
-        <v>2013600</v>
+        <v>822100</v>
       </c>
       <c r="H59" s="3">
-        <v>984700</v>
+        <v>2150500</v>
       </c>
       <c r="I59" s="3">
-        <v>1045600</v>
+        <v>1051600</v>
       </c>
       <c r="J59" s="3">
+        <v>1116700</v>
+      </c>
+      <c r="K59" s="3">
         <v>985800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1012400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1213300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1123100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1205000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1212900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1304100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1560000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3070,108 +3209,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>221144500</v>
+        <v>246620500</v>
       </c>
       <c r="E61" s="3">
-        <v>209134800</v>
+        <v>236179000</v>
       </c>
       <c r="F61" s="3">
-        <v>231180500</v>
+        <v>223352800</v>
       </c>
       <c r="G61" s="3">
-        <v>224528200</v>
+        <v>246897300</v>
       </c>
       <c r="H61" s="3">
-        <v>248144500</v>
+        <v>239792800</v>
       </c>
       <c r="I61" s="3">
-        <v>178167400</v>
+        <v>265014600</v>
       </c>
       <c r="J61" s="3">
+        <v>190280100</v>
+      </c>
+      <c r="K61" s="3">
         <v>179290500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>183304500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>188645200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>192592900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>192494200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>199071300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>218534100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>217392000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3766900</v>
+        <v>3792400</v>
       </c>
       <c r="E62" s="3">
-        <v>3507800</v>
+        <v>4023000</v>
       </c>
       <c r="F62" s="3">
-        <v>3537700</v>
+        <v>3746200</v>
       </c>
       <c r="G62" s="3">
-        <v>3532100</v>
+        <v>3778200</v>
       </c>
       <c r="H62" s="3">
-        <v>3850000</v>
+        <v>3772300</v>
       </c>
       <c r="I62" s="3">
-        <v>4945400</v>
+        <v>4111800</v>
       </c>
       <c r="J62" s="3">
+        <v>5281600</v>
+      </c>
+      <c r="K62" s="3">
         <v>9456700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7174300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9655800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5071400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6957500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7417500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9514900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14273500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1583289800</v>
+        <v>1592333600</v>
       </c>
       <c r="E66" s="3">
-        <v>1370269600</v>
+        <v>1690929500</v>
       </c>
       <c r="F66" s="3">
-        <v>1592619100</v>
+        <v>1463427100</v>
       </c>
       <c r="G66" s="3">
-        <v>1520379300</v>
+        <v>1700893100</v>
       </c>
       <c r="H66" s="3">
-        <v>1516957900</v>
+        <v>1623742000</v>
       </c>
       <c r="I66" s="3">
-        <v>1418800200</v>
+        <v>1620088000</v>
       </c>
       <c r="J66" s="3">
+        <v>1515257000</v>
+      </c>
+      <c r="K66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10843400</v>
+        <v>11206800</v>
       </c>
       <c r="E72" s="3">
-        <v>10681700</v>
+        <v>11580600</v>
       </c>
       <c r="F72" s="3">
-        <v>12768400</v>
+        <v>11407900</v>
       </c>
       <c r="G72" s="3">
-        <v>13982300</v>
+        <v>13636500</v>
       </c>
       <c r="H72" s="3">
-        <v>18371800</v>
+        <v>14932900</v>
       </c>
       <c r="I72" s="3">
-        <v>18512400</v>
+        <v>19620800</v>
       </c>
       <c r="J72" s="3">
+        <v>19771000</v>
+      </c>
+      <c r="K72" s="3">
         <v>19008600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>18649500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18846100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19583200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>22200800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>21747500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22878700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22287100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>68366600</v>
+        <v>72356800</v>
       </c>
       <c r="E76" s="3">
-        <v>67034200</v>
+        <v>73014500</v>
       </c>
       <c r="F76" s="3">
-        <v>69802100</v>
+        <v>71591500</v>
       </c>
       <c r="G76" s="3">
-        <v>70240700</v>
+        <v>74547500</v>
       </c>
       <c r="H76" s="3">
-        <v>74861600</v>
+        <v>75016000</v>
       </c>
       <c r="I76" s="3">
-        <v>74396400</v>
+        <v>79951000</v>
       </c>
       <c r="J76" s="3">
+        <v>79454200</v>
+      </c>
+      <c r="K76" s="3">
         <v>74489400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>73930500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73143300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>76125900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>78925300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>79585000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>75781200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75714300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-47600</v>
+        <v>-91100</v>
       </c>
       <c r="E81" s="3">
-        <v>-1774400</v>
+        <v>-50900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1043400</v>
+        <v>-1895000</v>
       </c>
       <c r="G81" s="3">
-        <v>-3624100</v>
+        <v>-1114300</v>
       </c>
       <c r="H81" s="3">
-        <v>108500</v>
+        <v>-3870400</v>
       </c>
       <c r="I81" s="3">
-        <v>-470700</v>
+        <v>115900</v>
       </c>
       <c r="J81" s="3">
+        <v>-502700</v>
+      </c>
+      <c r="K81" s="3">
         <v>233700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>310700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>47200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>725900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>178400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>670200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,8 +4212,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,38 +4233,41 @@
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
-        <v>660100</v>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J83" s="3">
+        <v>705000</v>
+      </c>
+      <c r="K83" s="3">
         <v>692300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>936600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>348100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>732700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>366900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>544200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>814600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>2610600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,8 +4528,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4335,38 +4551,41 @@
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
-        <v>-13804000</v>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J89" s="3">
+        <v>-14742500</v>
+      </c>
+      <c r="K89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22428600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>49922900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>72411200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,8 +4604,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,38 +4625,41 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
-        <v>-144000</v>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J91" s="3">
+        <v>-153800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-154000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-109800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-105400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-71800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-170500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-340400</v>
       </c>
       <c r="Q91" s="3">
         <v>-340400</v>
       </c>
       <c r="R91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="S91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,8 +4761,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4555,38 +4784,41 @@
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
-        <v>-865000</v>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J94" s="3">
+        <v>-923800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>5880900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5028800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>1605600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1331800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-448800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>252400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>11937600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4644,19 +4877,22 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-439800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,8 +5047,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,38 +5070,41 @@
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
-        <v>-124100</v>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J100" s="3">
+        <v>-132500</v>
+      </c>
+      <c r="K100" s="3">
         <v>-332300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-793900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>911100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-371400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7601500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-138500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-59900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,38 +5123,41 @@
       <c r="H101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I101" s="3">
-        <v>1042300</v>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J101" s="3">
+        <v>1113100</v>
+      </c>
+      <c r="K101" s="3">
         <v>875000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1412000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-693700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>430800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4925,34 +5176,37 @@
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
-        <v>-13868300</v>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="J102" s="3">
+        <v>-14811100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23560700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>55083000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>84719700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,133 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5311200</v>
+        <v>4775200</v>
       </c>
       <c r="E8" s="3">
-        <v>6466900</v>
+        <v>5370900</v>
       </c>
       <c r="F8" s="3">
-        <v>6556800</v>
+        <v>6539600</v>
       </c>
       <c r="G8" s="3">
-        <v>7451100</v>
+        <v>6597000</v>
       </c>
       <c r="H8" s="3">
-        <v>8118200</v>
+        <v>7569600</v>
       </c>
       <c r="I8" s="3">
-        <v>7692400</v>
+        <v>8209500</v>
       </c>
       <c r="J8" s="3">
+        <v>7778900</v>
+      </c>
+      <c r="K8" s="3">
         <v>7110400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6720900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7042600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6582500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5961100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6681500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7024800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7056900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7657900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +843,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -890,8 +899,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -911,8 +923,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -964,8 +977,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1017,8 +1033,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1070,8 +1089,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1123,8 +1145,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2552700</v>
+        <v>1966600</v>
       </c>
       <c r="E17" s="3">
-        <v>3219900</v>
+        <v>2581400</v>
       </c>
       <c r="F17" s="3">
-        <v>2847200</v>
+        <v>3256100</v>
       </c>
       <c r="G17" s="3">
-        <v>3596000</v>
+        <v>2984500</v>
       </c>
       <c r="H17" s="3">
-        <v>3963900</v>
+        <v>3646000</v>
       </c>
       <c r="I17" s="3">
-        <v>3888200</v>
+        <v>4008500</v>
       </c>
       <c r="J17" s="3">
+        <v>3931900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3275500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3102400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3343400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3438900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2729800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3263900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3657700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3624700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4049600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2758500</v>
+        <v>2808700</v>
       </c>
       <c r="E18" s="3">
-        <v>3247100</v>
+        <v>2789500</v>
       </c>
       <c r="F18" s="3">
-        <v>3709600</v>
+        <v>3283600</v>
       </c>
       <c r="G18" s="3">
-        <v>3855100</v>
+        <v>3612500</v>
       </c>
       <c r="H18" s="3">
-        <v>4154300</v>
+        <v>3923500</v>
       </c>
       <c r="I18" s="3">
-        <v>3804200</v>
+        <v>4201100</v>
       </c>
       <c r="J18" s="3">
+        <v>3847000</v>
+      </c>
+      <c r="K18" s="3">
         <v>3835000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3618500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3699200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3143600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3231300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3417600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3367100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3432200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3608300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1268,61 +1300,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2571600</v>
+        <v>-2232100</v>
       </c>
       <c r="E20" s="3">
-        <v>-3003400</v>
+        <v>-2600500</v>
       </c>
       <c r="F20" s="3">
-        <v>-5239100</v>
+        <v>-3037200</v>
       </c>
       <c r="G20" s="3">
-        <v>-4667700</v>
+        <v>-5159200</v>
       </c>
       <c r="H20" s="3">
-        <v>-5273400</v>
+        <v>-4745300</v>
       </c>
       <c r="I20" s="3">
-        <v>-3457600</v>
+        <v>-5332700</v>
       </c>
       <c r="J20" s="3">
+        <v>-3496500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,38 +1380,41 @@
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3">
         <v>326500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1252700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1717300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>822400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-843700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1413700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1466400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1845200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-225400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1427,114 +1466,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>186900</v>
+        <v>576600</v>
       </c>
       <c r="E23" s="3">
-        <v>243700</v>
+        <v>189000</v>
       </c>
       <c r="F23" s="3">
-        <v>-1529500</v>
+        <v>246400</v>
       </c>
       <c r="G23" s="3">
-        <v>-812700</v>
+        <v>-1546700</v>
       </c>
       <c r="H23" s="3">
-        <v>-1119000</v>
+        <v>-821800</v>
       </c>
       <c r="I23" s="3">
-        <v>346600</v>
+        <v>-1131600</v>
       </c>
       <c r="J23" s="3">
+        <v>350500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-378500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>560400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>780700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>474300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1046800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>922300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1030600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>114700</v>
+        <v>206900</v>
       </c>
       <c r="E24" s="3">
-        <v>166800</v>
+        <v>116000</v>
       </c>
       <c r="F24" s="3">
-        <v>224800</v>
+        <v>168700</v>
       </c>
       <c r="G24" s="3">
-        <v>171500</v>
+        <v>228500</v>
       </c>
       <c r="H24" s="3">
-        <v>2607100</v>
+        <v>173400</v>
       </c>
       <c r="I24" s="3">
-        <v>107600</v>
+        <v>2636400</v>
       </c>
       <c r="J24" s="3">
+        <v>108900</v>
+      </c>
+      <c r="K24" s="3">
         <v>105300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>306800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>340400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>342600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1143300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>318600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>355700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-616300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>72200</v>
+        <v>369600</v>
       </c>
       <c r="E26" s="3">
-        <v>76900</v>
+        <v>73000</v>
       </c>
       <c r="F26" s="3">
-        <v>-1754200</v>
+        <v>77800</v>
       </c>
       <c r="G26" s="3">
-        <v>-984200</v>
+        <v>-1775200</v>
       </c>
       <c r="H26" s="3">
-        <v>-3726100</v>
+        <v>-995200</v>
       </c>
       <c r="I26" s="3">
-        <v>238900</v>
+        <v>-3768000</v>
       </c>
       <c r="J26" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-483800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>253600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>440300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>131800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>728200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>521700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>674900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-91100</v>
+        <v>217700</v>
       </c>
       <c r="E27" s="3">
-        <v>-50900</v>
+        <v>-92100</v>
       </c>
       <c r="F27" s="3">
-        <v>-1895000</v>
+        <v>-51400</v>
       </c>
       <c r="G27" s="3">
-        <v>-1114300</v>
+        <v>-1916300</v>
       </c>
       <c r="H27" s="3">
-        <v>-3870400</v>
+        <v>-1126800</v>
       </c>
       <c r="I27" s="3">
-        <v>115900</v>
+        <v>-3914000</v>
       </c>
       <c r="J27" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-502700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>233700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>310700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>47200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>725900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>178400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>670200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1745,8 +1802,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1780,12 +1840,12 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1798,8 +1858,11 @@
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2571600</v>
+        <v>2232100</v>
       </c>
       <c r="E32" s="3">
-        <v>3003400</v>
+        <v>2600500</v>
       </c>
       <c r="F32" s="3">
-        <v>5239100</v>
+        <v>3037200</v>
       </c>
       <c r="G32" s="3">
-        <v>4667700</v>
+        <v>5159200</v>
       </c>
       <c r="H32" s="3">
-        <v>5273400</v>
+        <v>4745300</v>
       </c>
       <c r="I32" s="3">
-        <v>3457600</v>
+        <v>5332700</v>
       </c>
       <c r="J32" s="3">
+        <v>3496500</v>
+      </c>
+      <c r="K32" s="3">
         <v>4213500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3058100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2918500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2669200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4807700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2370800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2444800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2401600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>6444200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-91100</v>
+        <v>217700</v>
       </c>
       <c r="E33" s="3">
-        <v>-50900</v>
+        <v>-92100</v>
       </c>
       <c r="F33" s="3">
-        <v>-1895000</v>
+        <v>-51400</v>
       </c>
       <c r="G33" s="3">
-        <v>-1114300</v>
+        <v>-1916300</v>
       </c>
       <c r="H33" s="3">
-        <v>-3870400</v>
+        <v>-1126800</v>
       </c>
       <c r="I33" s="3">
-        <v>115900</v>
+        <v>-3914000</v>
       </c>
       <c r="J33" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-502700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>233700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>310700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>47200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>725900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>178400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>670200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-91100</v>
+        <v>217700</v>
       </c>
       <c r="E35" s="3">
-        <v>-50900</v>
+        <v>-92100</v>
       </c>
       <c r="F35" s="3">
-        <v>-1895000</v>
+        <v>-51400</v>
       </c>
       <c r="G35" s="3">
-        <v>-1114300</v>
+        <v>-1916300</v>
       </c>
       <c r="H35" s="3">
-        <v>-3870400</v>
+        <v>-1126800</v>
       </c>
       <c r="I35" s="3">
-        <v>115900</v>
+        <v>-3914000</v>
       </c>
       <c r="J35" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-502700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>233700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>310700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>47200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>725900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>178400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>670200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,114 +2301,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>196635800</v>
+        <v>211954700</v>
       </c>
       <c r="E41" s="3">
-        <v>144177800</v>
+        <v>198846700</v>
       </c>
       <c r="F41" s="3">
-        <v>162757600</v>
+        <v>145798800</v>
       </c>
       <c r="G41" s="3">
-        <v>198541500</v>
+        <v>164587600</v>
       </c>
       <c r="H41" s="3">
-        <v>190425600</v>
+        <v>200773800</v>
       </c>
       <c r="I41" s="3">
-        <v>221573700</v>
+        <v>192566700</v>
       </c>
       <c r="J41" s="3">
+        <v>224065000</v>
+      </c>
+      <c r="K41" s="3">
         <v>223249900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>222838000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>228478400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>248938600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>253182700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>229323500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>255268400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>210653100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>212886900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>697492300</v>
+        <v>672117300</v>
       </c>
       <c r="E42" s="3">
-        <v>781044000</v>
+        <v>705334500</v>
       </c>
       <c r="F42" s="3">
-        <v>656010300</v>
+        <v>789825700</v>
       </c>
       <c r="G42" s="3">
-        <v>815365900</v>
+        <v>663386200</v>
       </c>
       <c r="H42" s="3">
-        <v>768810500</v>
+        <v>824533500</v>
       </c>
       <c r="I42" s="3">
-        <v>745739200</v>
+        <v>777454600</v>
       </c>
       <c r="J42" s="3">
+        <v>754124000</v>
+      </c>
+      <c r="K42" s="3">
         <v>709886700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>662362500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>684587600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>720950100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>857440500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>785621900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>805357700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>892835100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>929369900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2375,8 +2467,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2428,8 +2523,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2481,8 +2579,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2534,167 +2635,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1122600</v>
+        <v>1101700</v>
       </c>
       <c r="E47" s="3">
-        <v>1083500</v>
+        <v>1135200</v>
       </c>
       <c r="F47" s="3">
-        <v>1098900</v>
+        <v>1095700</v>
       </c>
       <c r="G47" s="3">
-        <v>1080000</v>
+        <v>1111300</v>
       </c>
       <c r="H47" s="3">
-        <v>1087100</v>
+        <v>1092100</v>
       </c>
       <c r="I47" s="3">
-        <v>1089500</v>
+        <v>1099300</v>
       </c>
       <c r="J47" s="3">
+        <v>1101700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1039800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>940400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>934400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>986000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>971600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1026600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1063600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1150300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1205500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5696800</v>
+        <v>6891300</v>
       </c>
       <c r="E48" s="3">
-        <v>5680300</v>
+        <v>5760900</v>
       </c>
       <c r="F48" s="3">
-        <v>5831700</v>
+        <v>5744200</v>
       </c>
       <c r="G48" s="3">
-        <v>6081300</v>
+        <v>5897300</v>
       </c>
       <c r="H48" s="3">
-        <v>6309600</v>
+        <v>6149700</v>
       </c>
       <c r="I48" s="3">
-        <v>6433800</v>
+        <v>6380500</v>
       </c>
       <c r="J48" s="3">
+        <v>6506100</v>
+      </c>
+      <c r="K48" s="3">
         <v>2863800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2775600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2788900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2693400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2987900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3110200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3081000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3324200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3291400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8162000</v>
+        <v>8073200</v>
       </c>
       <c r="E49" s="3">
-        <v>8276800</v>
+        <v>8253800</v>
       </c>
       <c r="F49" s="3">
-        <v>8314600</v>
+        <v>8369800</v>
       </c>
       <c r="G49" s="3">
-        <v>9049200</v>
+        <v>8408100</v>
       </c>
       <c r="H49" s="3">
-        <v>9117800</v>
+        <v>9150900</v>
       </c>
       <c r="I49" s="3">
-        <v>10862600</v>
+        <v>9220300</v>
       </c>
       <c r="J49" s="3">
+        <v>10984700</v>
+      </c>
+      <c r="K49" s="3">
         <v>10812900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10030400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9862200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9608600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9917300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9843200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9911700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10610100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10543200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7057200</v>
+        <v>7308800</v>
       </c>
       <c r="E52" s="3">
-        <v>6953100</v>
+        <v>7136500</v>
       </c>
       <c r="F52" s="3">
-        <v>7080800</v>
+        <v>7031300</v>
       </c>
       <c r="G52" s="3">
-        <v>7140000</v>
+        <v>7160500</v>
       </c>
       <c r="H52" s="3">
-        <v>6568600</v>
+        <v>7220300</v>
       </c>
       <c r="I52" s="3">
-        <v>8768800</v>
+        <v>6642500</v>
       </c>
       <c r="J52" s="3">
+        <v>8867400</v>
+      </c>
+      <c r="K52" s="3">
         <v>11721400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15922900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>10640700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10177400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7678900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>9295700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9479700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10552600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10833100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1664690400</v>
+        <v>1660075600</v>
       </c>
       <c r="E54" s="3">
-        <v>1763944000</v>
+        <v>1683407500</v>
       </c>
       <c r="F54" s="3">
-        <v>1535018600</v>
+        <v>1783777000</v>
       </c>
       <c r="G54" s="3">
-        <v>1775440600</v>
+        <v>1552277600</v>
       </c>
       <c r="H54" s="3">
-        <v>1698758000</v>
+        <v>1795402900</v>
       </c>
       <c r="I54" s="3">
-        <v>1700039000</v>
+        <v>1717858000</v>
       </c>
       <c r="J54" s="3">
+        <v>1719153500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,8 +3129,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3023,38 +3153,41 @@
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>2940700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2523100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2478200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2882300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2943000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2793800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3097800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3379400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3183400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3106,61 +3239,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>907300</v>
+        <v>823000</v>
       </c>
       <c r="E59" s="3">
-        <v>771300</v>
+        <v>917500</v>
       </c>
       <c r="F59" s="3">
-        <v>770100</v>
+        <v>779900</v>
       </c>
       <c r="G59" s="3">
-        <v>822100</v>
+        <v>778700</v>
       </c>
       <c r="H59" s="3">
-        <v>2150500</v>
+        <v>831400</v>
       </c>
       <c r="I59" s="3">
-        <v>1051600</v>
+        <v>2174700</v>
       </c>
       <c r="J59" s="3">
+        <v>1063400</v>
+      </c>
+      <c r="K59" s="3">
         <v>1116700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>985800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1012400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1213300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1123100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1205000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1212900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1304100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1560000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3212,114 +3351,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>246620500</v>
+        <v>249607500</v>
       </c>
       <c r="E61" s="3">
-        <v>236179000</v>
+        <v>249393300</v>
       </c>
       <c r="F61" s="3">
-        <v>223352800</v>
+        <v>238834500</v>
       </c>
       <c r="G61" s="3">
-        <v>246897300</v>
+        <v>225864100</v>
       </c>
       <c r="H61" s="3">
-        <v>239792800</v>
+        <v>249673300</v>
       </c>
       <c r="I61" s="3">
-        <v>265014600</v>
+        <v>242488900</v>
       </c>
       <c r="J61" s="3">
+        <v>267994300</v>
+      </c>
+      <c r="K61" s="3">
         <v>190280100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>179290500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>183304500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>188645200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>192592900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>192494200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>199071300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>218534100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>217392000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3792400</v>
+        <v>3757300</v>
       </c>
       <c r="E62" s="3">
-        <v>4023000</v>
+        <v>3835000</v>
       </c>
       <c r="F62" s="3">
-        <v>3746200</v>
+        <v>4068300</v>
       </c>
       <c r="G62" s="3">
-        <v>3778200</v>
+        <v>3788400</v>
       </c>
       <c r="H62" s="3">
-        <v>3772300</v>
+        <v>3820700</v>
       </c>
       <c r="I62" s="3">
-        <v>4111800</v>
+        <v>3814700</v>
       </c>
       <c r="J62" s="3">
+        <v>4158000</v>
+      </c>
+      <c r="K62" s="3">
         <v>5281600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9456700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7174300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9655800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5071400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6957500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7417500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9514900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>14273500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1592333600</v>
+        <v>1587595400</v>
       </c>
       <c r="E66" s="3">
-        <v>1690929500</v>
+        <v>1610237100</v>
       </c>
       <c r="F66" s="3">
-        <v>1463427100</v>
+        <v>1709941600</v>
       </c>
       <c r="G66" s="3">
-        <v>1700893100</v>
+        <v>1479881200</v>
       </c>
       <c r="H66" s="3">
-        <v>1623742000</v>
+        <v>1720017200</v>
       </c>
       <c r="I66" s="3">
-        <v>1620088000</v>
+        <v>1641998600</v>
       </c>
       <c r="J66" s="3">
+        <v>1638303600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11206800</v>
+        <v>11478700</v>
       </c>
       <c r="E72" s="3">
-        <v>11580600</v>
+        <v>11332800</v>
       </c>
       <c r="F72" s="3">
-        <v>11407900</v>
+        <v>11710800</v>
       </c>
       <c r="G72" s="3">
-        <v>13636500</v>
+        <v>11536200</v>
       </c>
       <c r="H72" s="3">
-        <v>14932900</v>
+        <v>13789800</v>
       </c>
       <c r="I72" s="3">
-        <v>19620800</v>
+        <v>15100800</v>
       </c>
       <c r="J72" s="3">
+        <v>19841400</v>
+      </c>
+      <c r="K72" s="3">
         <v>19771000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19008600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>18649500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18846100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19583200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>22200800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>21747500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22878700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22287100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72356800</v>
+        <v>72480200</v>
       </c>
       <c r="E76" s="3">
-        <v>73014500</v>
+        <v>73170400</v>
       </c>
       <c r="F76" s="3">
-        <v>71591500</v>
+        <v>73835400</v>
       </c>
       <c r="G76" s="3">
-        <v>74547500</v>
+        <v>72396400</v>
       </c>
       <c r="H76" s="3">
-        <v>75016000</v>
+        <v>75385700</v>
       </c>
       <c r="I76" s="3">
-        <v>79951000</v>
+        <v>75859400</v>
       </c>
       <c r="J76" s="3">
+        <v>80850000</v>
+      </c>
+      <c r="K76" s="3">
         <v>79454200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74489400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>73930500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>73143300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>76125900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>78925300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>79585000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>75781200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>75714300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-91100</v>
+        <v>217700</v>
       </c>
       <c r="E81" s="3">
-        <v>-50900</v>
+        <v>-92100</v>
       </c>
       <c r="F81" s="3">
-        <v>-1895000</v>
+        <v>-51400</v>
       </c>
       <c r="G81" s="3">
-        <v>-1114300</v>
+        <v>-1916300</v>
       </c>
       <c r="H81" s="3">
-        <v>-3870400</v>
+        <v>-1126800</v>
       </c>
       <c r="I81" s="3">
-        <v>115900</v>
+        <v>-3914000</v>
       </c>
       <c r="J81" s="3">
+        <v>117200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-502700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>233700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>310700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>47200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>725900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>178400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>670200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,8 +4410,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,38 +4434,41 @@
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>705000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>692300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>936600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>348100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>732700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>366900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>544200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>814600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>2610600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,8 +4744,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4554,38 +4770,41 @@
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22428600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>49922900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>72411200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,8 +4824,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4628,38 +4848,41 @@
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-153800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-154000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-109800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-105400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-71800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-170500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-340400</v>
       </c>
       <c r="R91" s="3">
         <v>-340400</v>
       </c>
       <c r="S91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="T91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,8 +4990,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4787,38 +5016,41 @@
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-923800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>5880900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5028800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>1605600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1331800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-448800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>252400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>11937600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4880,19 +5113,22 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-439800</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,8 +5292,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5073,38 +5318,41 @@
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-132500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-332300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-793900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>911100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-371400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7601500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-138500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-59900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5126,38 +5374,41 @@
       <c r="I101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J101" s="3">
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
         <v>1113100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>875000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1412000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-693700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>430800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5179,34 +5430,37 @@
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23560700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>55083000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>84719700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,139 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4775200</v>
+        <v>4536200</v>
       </c>
       <c r="E8" s="3">
-        <v>5370900</v>
+        <v>4696200</v>
       </c>
       <c r="F8" s="3">
-        <v>6539600</v>
+        <v>5282000</v>
       </c>
       <c r="G8" s="3">
-        <v>6597000</v>
+        <v>6431400</v>
       </c>
       <c r="H8" s="3">
-        <v>7569600</v>
+        <v>6487800</v>
       </c>
       <c r="I8" s="3">
-        <v>8209500</v>
+        <v>7444300</v>
       </c>
       <c r="J8" s="3">
+        <v>8073600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7778900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7110400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6720900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7042600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6582500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5961100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6681500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7024800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7056900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7657900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -846,8 +852,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -924,8 +936,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -980,8 +993,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1036,8 +1052,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,8 +1111,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1148,8 +1170,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1966600</v>
+        <v>1815200</v>
       </c>
       <c r="E17" s="3">
-        <v>2581400</v>
+        <v>1934000</v>
       </c>
       <c r="F17" s="3">
-        <v>3256100</v>
+        <v>2538700</v>
       </c>
       <c r="G17" s="3">
-        <v>2984500</v>
+        <v>3202200</v>
       </c>
       <c r="H17" s="3">
-        <v>3646000</v>
+        <v>2935100</v>
       </c>
       <c r="I17" s="3">
-        <v>4008500</v>
+        <v>3585700</v>
       </c>
       <c r="J17" s="3">
+        <v>3942100</v>
+      </c>
+      <c r="K17" s="3">
         <v>3931900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3275500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3102400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3343400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3438900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2729800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3263900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3657700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3624700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4049600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2808700</v>
+        <v>2721000</v>
       </c>
       <c r="E18" s="3">
-        <v>2789500</v>
+        <v>2762200</v>
       </c>
       <c r="F18" s="3">
-        <v>3283600</v>
+        <v>2743400</v>
       </c>
       <c r="G18" s="3">
-        <v>3612500</v>
+        <v>3229200</v>
       </c>
       <c r="H18" s="3">
-        <v>3923500</v>
+        <v>3552700</v>
       </c>
       <c r="I18" s="3">
-        <v>4201100</v>
+        <v>3858600</v>
       </c>
       <c r="J18" s="3">
+        <v>4131500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3847000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3835000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3618500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3699200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3143600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3231300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3417600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3367100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3432200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3608300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1301,64 +1333,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2232100</v>
+        <v>-2515100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2600500</v>
+        <v>-2195200</v>
       </c>
       <c r="F20" s="3">
-        <v>-3037200</v>
+        <v>-2557500</v>
       </c>
       <c r="G20" s="3">
-        <v>-5159200</v>
+        <v>-2986900</v>
       </c>
       <c r="H20" s="3">
-        <v>-4745300</v>
+        <v>-5073800</v>
       </c>
       <c r="I20" s="3">
-        <v>-5332700</v>
+        <v>-4666800</v>
       </c>
       <c r="J20" s="3">
+        <v>-5244400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1383,38 +1419,41 @@
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>326500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1252700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1717300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>822400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-843700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1413700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1466400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1845200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-225400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1469,120 +1508,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>576600</v>
+        <v>205900</v>
       </c>
       <c r="E23" s="3">
-        <v>189000</v>
+        <v>567000</v>
       </c>
       <c r="F23" s="3">
-        <v>246400</v>
+        <v>185900</v>
       </c>
       <c r="G23" s="3">
-        <v>-1546700</v>
+        <v>242300</v>
       </c>
       <c r="H23" s="3">
-        <v>-821800</v>
+        <v>-1521100</v>
       </c>
       <c r="I23" s="3">
-        <v>-1131600</v>
+        <v>-808200</v>
       </c>
       <c r="J23" s="3">
+        <v>-1112900</v>
+      </c>
+      <c r="K23" s="3">
         <v>350500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-378500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>560400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>780700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>474300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1046800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>922300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1030600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>206900</v>
+        <v>-16500</v>
       </c>
       <c r="E24" s="3">
-        <v>116000</v>
+        <v>203500</v>
       </c>
       <c r="F24" s="3">
-        <v>168700</v>
+        <v>114100</v>
       </c>
       <c r="G24" s="3">
-        <v>228500</v>
+        <v>165900</v>
       </c>
       <c r="H24" s="3">
-        <v>173400</v>
+        <v>224700</v>
       </c>
       <c r="I24" s="3">
-        <v>2636400</v>
+        <v>170600</v>
       </c>
       <c r="J24" s="3">
+        <v>2592800</v>
+      </c>
+      <c r="K24" s="3">
         <v>108900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>105300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>306800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>340400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>342600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1143300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>318600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>355700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-616300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>369600</v>
+        <v>222300</v>
       </c>
       <c r="E26" s="3">
-        <v>73000</v>
+        <v>363500</v>
       </c>
       <c r="F26" s="3">
-        <v>77800</v>
+        <v>71800</v>
       </c>
       <c r="G26" s="3">
-        <v>-1775200</v>
+        <v>76500</v>
       </c>
       <c r="H26" s="3">
-        <v>-995200</v>
+        <v>-1745800</v>
       </c>
       <c r="I26" s="3">
-        <v>-3768000</v>
+        <v>-978800</v>
       </c>
       <c r="J26" s="3">
+        <v>-3705700</v>
+      </c>
+      <c r="K26" s="3">
         <v>241600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-483800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>253600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>440300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>131800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>728200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>521700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>674900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>217700</v>
+        <v>98800</v>
       </c>
       <c r="E27" s="3">
-        <v>-92100</v>
+        <v>214100</v>
       </c>
       <c r="F27" s="3">
-        <v>-51400</v>
+        <v>-90600</v>
       </c>
       <c r="G27" s="3">
-        <v>-1916300</v>
+        <v>-50600</v>
       </c>
       <c r="H27" s="3">
-        <v>-1126800</v>
+        <v>-1884600</v>
       </c>
       <c r="I27" s="3">
-        <v>-3914000</v>
+        <v>-1108200</v>
       </c>
       <c r="J27" s="3">
+        <v>-3849200</v>
+      </c>
+      <c r="K27" s="3">
         <v>117200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-502700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>233700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>310700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>47200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>725900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>178400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>670200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1805,8 +1862,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,12 +1903,12 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1861,8 +1921,11 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2232100</v>
+        <v>2515100</v>
       </c>
       <c r="E32" s="3">
-        <v>2600500</v>
+        <v>2195200</v>
       </c>
       <c r="F32" s="3">
-        <v>3037200</v>
+        <v>2557500</v>
       </c>
       <c r="G32" s="3">
-        <v>5159200</v>
+        <v>2986900</v>
       </c>
       <c r="H32" s="3">
-        <v>4745300</v>
+        <v>5073800</v>
       </c>
       <c r="I32" s="3">
-        <v>5332700</v>
+        <v>4666800</v>
       </c>
       <c r="J32" s="3">
+        <v>5244400</v>
+      </c>
+      <c r="K32" s="3">
         <v>3496500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4213500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3058100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2918500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2669200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4807700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2370800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2444800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2401600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6444200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>217700</v>
+        <v>98800</v>
       </c>
       <c r="E33" s="3">
-        <v>-92100</v>
+        <v>214100</v>
       </c>
       <c r="F33" s="3">
-        <v>-51400</v>
+        <v>-90600</v>
       </c>
       <c r="G33" s="3">
-        <v>-1916300</v>
+        <v>-50600</v>
       </c>
       <c r="H33" s="3">
-        <v>-1126800</v>
+        <v>-1884600</v>
       </c>
       <c r="I33" s="3">
-        <v>-3914000</v>
+        <v>-1108200</v>
       </c>
       <c r="J33" s="3">
+        <v>-3849200</v>
+      </c>
+      <c r="K33" s="3">
         <v>117200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-502700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>233700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>310700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>47200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>725900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>178400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>670200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>217700</v>
+        <v>98800</v>
       </c>
       <c r="E35" s="3">
-        <v>-92100</v>
+        <v>214100</v>
       </c>
       <c r="F35" s="3">
-        <v>-51400</v>
+        <v>-90600</v>
       </c>
       <c r="G35" s="3">
-        <v>-1916300</v>
+        <v>-50600</v>
       </c>
       <c r="H35" s="3">
-        <v>-1126800</v>
+        <v>-1884600</v>
       </c>
       <c r="I35" s="3">
-        <v>-3914000</v>
+        <v>-1108200</v>
       </c>
       <c r="J35" s="3">
+        <v>-3849200</v>
+      </c>
+      <c r="K35" s="3">
         <v>117200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-502700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>233700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>310700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>47200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>725900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>178400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>670200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,120 +2387,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>211954700</v>
+        <v>195527100</v>
       </c>
       <c r="E41" s="3">
-        <v>198846700</v>
+        <v>208446300</v>
       </c>
       <c r="F41" s="3">
-        <v>145798800</v>
+        <v>195555300</v>
       </c>
       <c r="G41" s="3">
-        <v>164587600</v>
+        <v>143385500</v>
       </c>
       <c r="H41" s="3">
-        <v>200773800</v>
+        <v>161863200</v>
       </c>
       <c r="I41" s="3">
-        <v>192566700</v>
+        <v>197450500</v>
       </c>
       <c r="J41" s="3">
+        <v>189379200</v>
+      </c>
+      <c r="K41" s="3">
         <v>224065000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>223249900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>222838000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>228478400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>248938600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>253182700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>229323500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>255268400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>210653100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>212886900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>672117300</v>
+        <v>658471100</v>
       </c>
       <c r="E42" s="3">
-        <v>705334500</v>
+        <v>660992100</v>
       </c>
       <c r="F42" s="3">
-        <v>789825700</v>
+        <v>693659600</v>
       </c>
       <c r="G42" s="3">
-        <v>663386200</v>
+        <v>776752200</v>
       </c>
       <c r="H42" s="3">
-        <v>824533500</v>
+        <v>652405600</v>
       </c>
       <c r="I42" s="3">
-        <v>777454600</v>
+        <v>810885500</v>
       </c>
       <c r="J42" s="3">
+        <v>764585900</v>
+      </c>
+      <c r="K42" s="3">
         <v>754124000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>709886700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>662362500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>684587600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>720950100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>857440500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>785621900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>805357700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>892835100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>929369900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2470,8 +2562,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2526,8 +2621,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2582,8 +2680,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2638,176 +2739,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>1059900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1083500</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1116400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1077600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1092900</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1074100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1081100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1101700</v>
       </c>
-      <c r="E47" s="3">
-        <v>1135200</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1095700</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1111300</v>
-      </c>
-      <c r="H47" s="3">
-        <v>1092100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>1099300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>1101700</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1039800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>940400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>934400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>986000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>971600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1026600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1063600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1150300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1205500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6891300</v>
+        <v>6527800</v>
       </c>
       <c r="E48" s="3">
-        <v>5760900</v>
+        <v>6777200</v>
       </c>
       <c r="F48" s="3">
-        <v>5744200</v>
+        <v>5665500</v>
       </c>
       <c r="G48" s="3">
-        <v>5897300</v>
+        <v>5649100</v>
       </c>
       <c r="H48" s="3">
-        <v>6149700</v>
+        <v>5799700</v>
       </c>
       <c r="I48" s="3">
-        <v>6380500</v>
+        <v>6047900</v>
       </c>
       <c r="J48" s="3">
+        <v>6274900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6506100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2863800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2775600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2788900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2693400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2987900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3110200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3081000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3324200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3291400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8073200</v>
+        <v>7911300</v>
       </c>
       <c r="E49" s="3">
-        <v>8253800</v>
+        <v>7939500</v>
       </c>
       <c r="F49" s="3">
-        <v>8369800</v>
+        <v>8117200</v>
       </c>
       <c r="G49" s="3">
-        <v>8408100</v>
+        <v>8231300</v>
       </c>
       <c r="H49" s="3">
-        <v>9150900</v>
+        <v>8268900</v>
       </c>
       <c r="I49" s="3">
-        <v>9220300</v>
+        <v>8999500</v>
       </c>
       <c r="J49" s="3">
+        <v>9067700</v>
+      </c>
+      <c r="K49" s="3">
         <v>10984700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10812900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10030400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9862200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9608600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9917300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9843200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9911700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10610100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10543200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7308800</v>
+        <v>14299100</v>
       </c>
       <c r="E52" s="3">
-        <v>7136500</v>
+        <v>7187800</v>
       </c>
       <c r="F52" s="3">
-        <v>7031300</v>
+        <v>7018400</v>
       </c>
       <c r="G52" s="3">
-        <v>7160500</v>
+        <v>6914900</v>
       </c>
       <c r="H52" s="3">
-        <v>7220300</v>
+        <v>7041900</v>
       </c>
       <c r="I52" s="3">
-        <v>6642500</v>
+        <v>7100800</v>
       </c>
       <c r="J52" s="3">
+        <v>6532500</v>
+      </c>
+      <c r="K52" s="3">
         <v>8867400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>11721400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15922900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>10640700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10177400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7678900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9295700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9479700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>10552600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10833100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1660075600</v>
+        <v>1559034700</v>
       </c>
       <c r="E54" s="3">
-        <v>1683407500</v>
+        <v>1632597300</v>
       </c>
       <c r="F54" s="3">
-        <v>1783777000</v>
+        <v>1655543000</v>
       </c>
       <c r="G54" s="3">
-        <v>1552277600</v>
+        <v>1754251200</v>
       </c>
       <c r="H54" s="3">
-        <v>1795402900</v>
+        <v>1526583700</v>
       </c>
       <c r="I54" s="3">
-        <v>1717858000</v>
+        <v>1765684600</v>
       </c>
       <c r="J54" s="3">
+        <v>1689423300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,13 +3259,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3">
+        <v>2046900</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>5</v>
@@ -3156,38 +3286,41 @@
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3">
         <v>2940700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2523100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2478200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2882300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2943000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2793800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3097800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3379400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3183400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3242,64 +3375,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>823000</v>
+        <v>675300</v>
       </c>
       <c r="E59" s="3">
-        <v>917500</v>
+        <v>809400</v>
       </c>
       <c r="F59" s="3">
-        <v>779900</v>
+        <v>902300</v>
       </c>
       <c r="G59" s="3">
-        <v>778700</v>
+        <v>767000</v>
       </c>
       <c r="H59" s="3">
-        <v>831400</v>
+        <v>765800</v>
       </c>
       <c r="I59" s="3">
-        <v>2174700</v>
+        <v>817600</v>
       </c>
       <c r="J59" s="3">
+        <v>2138700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1063400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1116700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>985800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1012400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1213300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1123100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1205000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1212900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1304100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1560000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3354,120 +3493,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>249607500</v>
+        <v>231828400</v>
       </c>
       <c r="E61" s="3">
-        <v>249393300</v>
+        <v>245475900</v>
       </c>
       <c r="F61" s="3">
-        <v>238834500</v>
+        <v>245265300</v>
       </c>
       <c r="G61" s="3">
-        <v>225864100</v>
+        <v>234881200</v>
       </c>
       <c r="H61" s="3">
-        <v>249673300</v>
+        <v>222125500</v>
       </c>
       <c r="I61" s="3">
-        <v>242488900</v>
+        <v>245540600</v>
       </c>
       <c r="J61" s="3">
+        <v>238475100</v>
+      </c>
+      <c r="K61" s="3">
         <v>267994300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>190280100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>179290500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>183304500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>188645200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>192592900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>192494200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>199071300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>218534100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>217392000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3757300</v>
+        <v>15106200</v>
       </c>
       <c r="E62" s="3">
-        <v>3835000</v>
+        <v>3695100</v>
       </c>
       <c r="F62" s="3">
-        <v>4068300</v>
+        <v>3771500</v>
       </c>
       <c r="G62" s="3">
-        <v>3788400</v>
+        <v>4000900</v>
       </c>
       <c r="H62" s="3">
-        <v>3820700</v>
+        <v>3725700</v>
       </c>
       <c r="I62" s="3">
-        <v>3814700</v>
+        <v>3757400</v>
       </c>
       <c r="J62" s="3">
+        <v>3751500</v>
+      </c>
+      <c r="K62" s="3">
         <v>4158000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>5281600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9456700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7174300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9655800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5071400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6957500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7417500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9514900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>14273500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1587595400</v>
+        <v>1487734300</v>
       </c>
       <c r="E66" s="3">
-        <v>1610237100</v>
+        <v>1561316900</v>
       </c>
       <c r="F66" s="3">
-        <v>1709941600</v>
+        <v>1583583800</v>
       </c>
       <c r="G66" s="3">
-        <v>1479881200</v>
+        <v>1681637900</v>
       </c>
       <c r="H66" s="3">
-        <v>1720017200</v>
+        <v>1455385600</v>
       </c>
       <c r="I66" s="3">
-        <v>1641998600</v>
+        <v>1691546700</v>
       </c>
       <c r="J66" s="3">
+        <v>1614819600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11478700</v>
+        <v>11780500</v>
       </c>
       <c r="E72" s="3">
-        <v>11332800</v>
+        <v>11288700</v>
       </c>
       <c r="F72" s="3">
-        <v>11710800</v>
+        <v>11145200</v>
       </c>
       <c r="G72" s="3">
-        <v>11536200</v>
+        <v>11517000</v>
       </c>
       <c r="H72" s="3">
-        <v>13789800</v>
+        <v>11345200</v>
       </c>
       <c r="I72" s="3">
-        <v>15100800</v>
+        <v>13561500</v>
       </c>
       <c r="J72" s="3">
+        <v>14850900</v>
+      </c>
+      <c r="K72" s="3">
         <v>19841400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19771000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19008600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>18649500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18846100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19583200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>22200800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>21747500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22878700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22287100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72480200</v>
+        <v>71300400</v>
       </c>
       <c r="E76" s="3">
-        <v>73170400</v>
+        <v>71280400</v>
       </c>
       <c r="F76" s="3">
-        <v>73835400</v>
+        <v>71959200</v>
       </c>
       <c r="G76" s="3">
-        <v>72396400</v>
+        <v>72613300</v>
       </c>
       <c r="H76" s="3">
-        <v>75385700</v>
+        <v>71198100</v>
       </c>
       <c r="I76" s="3">
-        <v>75859400</v>
+        <v>74137900</v>
       </c>
       <c r="J76" s="3">
+        <v>74603800</v>
+      </c>
+      <c r="K76" s="3">
         <v>80850000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>79454200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74489400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>73930500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73143300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>76125900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>78925300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79585000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>75781200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>75714300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>217700</v>
+        <v>98800</v>
       </c>
       <c r="E81" s="3">
-        <v>-92100</v>
+        <v>214100</v>
       </c>
       <c r="F81" s="3">
-        <v>-51400</v>
+        <v>-90600</v>
       </c>
       <c r="G81" s="3">
-        <v>-1916300</v>
+        <v>-50600</v>
       </c>
       <c r="H81" s="3">
-        <v>-1126800</v>
+        <v>-1884600</v>
       </c>
       <c r="I81" s="3">
-        <v>-3914000</v>
+        <v>-1108200</v>
       </c>
       <c r="J81" s="3">
+        <v>-3849200</v>
+      </c>
+      <c r="K81" s="3">
         <v>117200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-502700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>233700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>310700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>47200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>725900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>178400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>670200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K83" s="3">
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>705000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>692300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>936600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>348100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>732700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>366900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>544200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>814600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>2610600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22428600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>49922900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>72411200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-153800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-154000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-109800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-105400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-71800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-170500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-340400</v>
       </c>
       <c r="S91" s="3">
         <v>-340400</v>
       </c>
       <c r="T91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="U91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-923800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>5880900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5028800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1605600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1331800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-448800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>252400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>11937600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5116,19 +5349,22 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-439800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-132500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-332300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-793900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>911100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-371400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7601500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-138500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-59900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
         <v>1113100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>875000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1412000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-693700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>430800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23560700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>55083000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>84719700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4536200</v>
+        <v>5186600</v>
       </c>
       <c r="E8" s="3">
-        <v>4696200</v>
+        <v>4723600</v>
       </c>
       <c r="F8" s="3">
-        <v>5282000</v>
+        <v>4890200</v>
       </c>
       <c r="G8" s="3">
-        <v>6431400</v>
+        <v>5500200</v>
       </c>
       <c r="H8" s="3">
-        <v>6487800</v>
+        <v>6697000</v>
       </c>
       <c r="I8" s="3">
-        <v>7444300</v>
+        <v>6755800</v>
       </c>
       <c r="J8" s="3">
+        <v>7751700</v>
+      </c>
+      <c r="K8" s="3">
         <v>8073600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7778900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7110400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6720900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7042600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6582500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5961100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6681500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7024800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7056900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7657900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,8 +861,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +949,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -996,8 +1009,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1055,8 +1071,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,8 +1133,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1173,8 +1195,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1815200</v>
+        <v>1839900</v>
       </c>
       <c r="E17" s="3">
-        <v>1934000</v>
+        <v>1890200</v>
       </c>
       <c r="F17" s="3">
-        <v>2538700</v>
+        <v>2013900</v>
       </c>
       <c r="G17" s="3">
-        <v>3202200</v>
+        <v>2643500</v>
       </c>
       <c r="H17" s="3">
-        <v>2935100</v>
+        <v>3334400</v>
       </c>
       <c r="I17" s="3">
-        <v>3585700</v>
+        <v>3056400</v>
       </c>
       <c r="J17" s="3">
+        <v>3733800</v>
+      </c>
+      <c r="K17" s="3">
         <v>3942100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3931900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3275500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3102400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3343400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3438900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2729800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3263900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3657700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3624700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4049600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2721000</v>
+        <v>3346700</v>
       </c>
       <c r="E18" s="3">
-        <v>2762200</v>
+        <v>2833400</v>
       </c>
       <c r="F18" s="3">
-        <v>2743400</v>
+        <v>2876300</v>
       </c>
       <c r="G18" s="3">
-        <v>3229200</v>
+        <v>2856700</v>
       </c>
       <c r="H18" s="3">
-        <v>3552700</v>
+        <v>3362600</v>
       </c>
       <c r="I18" s="3">
-        <v>3858600</v>
+        <v>3699500</v>
       </c>
       <c r="J18" s="3">
+        <v>4018000</v>
+      </c>
+      <c r="K18" s="3">
         <v>4131500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3847000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3835000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3618500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3699200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3143600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3231300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3417600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3367100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3432200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3608300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1334,67 +1366,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2515100</v>
+        <v>-1400200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2195200</v>
+        <v>-2619000</v>
       </c>
       <c r="F20" s="3">
-        <v>-2557500</v>
+        <v>-2285800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2986900</v>
+        <v>-2663100</v>
       </c>
       <c r="H20" s="3">
-        <v>-5073800</v>
+        <v>-3110200</v>
       </c>
       <c r="I20" s="3">
-        <v>-4666800</v>
+        <v>-5283400</v>
       </c>
       <c r="J20" s="3">
+        <v>-4859500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,38 +1458,41 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>326500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1252700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1717300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>822400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-843700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1413700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1466400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1845200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-225400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1511,126 +1550,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>205900</v>
+        <v>1946500</v>
       </c>
       <c r="E23" s="3">
-        <v>567000</v>
+        <v>214400</v>
       </c>
       <c r="F23" s="3">
-        <v>185900</v>
+        <v>590400</v>
       </c>
       <c r="G23" s="3">
-        <v>242300</v>
+        <v>193500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1521100</v>
+        <v>252300</v>
       </c>
       <c r="I23" s="3">
-        <v>-808200</v>
+        <v>-1583900</v>
       </c>
       <c r="J23" s="3">
+        <v>-841600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>350500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-378500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>560400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>780700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>474300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1046800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>922300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1030600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-16500</v>
+        <v>676200</v>
       </c>
       <c r="E24" s="3">
-        <v>203500</v>
+        <v>-17100</v>
       </c>
       <c r="F24" s="3">
-        <v>114100</v>
+        <v>211900</v>
       </c>
       <c r="G24" s="3">
-        <v>165900</v>
+        <v>118800</v>
       </c>
       <c r="H24" s="3">
-        <v>224700</v>
+        <v>172700</v>
       </c>
       <c r="I24" s="3">
-        <v>170600</v>
+        <v>234000</v>
       </c>
       <c r="J24" s="3">
+        <v>177600</v>
+      </c>
+      <c r="K24" s="3">
         <v>2592800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>108900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>105300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>306800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>340400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>342600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1143300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>318600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>355700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-616300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>222300</v>
+        <v>1270300</v>
       </c>
       <c r="E26" s="3">
-        <v>363500</v>
+        <v>231500</v>
       </c>
       <c r="F26" s="3">
-        <v>71800</v>
+        <v>378500</v>
       </c>
       <c r="G26" s="3">
-        <v>76500</v>
+        <v>74700</v>
       </c>
       <c r="H26" s="3">
-        <v>-1745800</v>
+        <v>79600</v>
       </c>
       <c r="I26" s="3">
-        <v>-978800</v>
+        <v>-1817900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1019200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>241600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-483800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>253600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>440300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>131800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>728200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>521700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>674900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>98800</v>
+        <v>1112300</v>
       </c>
       <c r="E27" s="3">
-        <v>214100</v>
+        <v>102900</v>
       </c>
       <c r="F27" s="3">
-        <v>-90600</v>
+        <v>222900</v>
       </c>
       <c r="G27" s="3">
-        <v>-50600</v>
+        <v>-94300</v>
       </c>
       <c r="H27" s="3">
-        <v>-1884600</v>
+        <v>-52700</v>
       </c>
       <c r="I27" s="3">
-        <v>-1108200</v>
+        <v>-1962400</v>
       </c>
       <c r="J27" s="3">
+        <v>-1153900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>117200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-502700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>233700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>310700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>47200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>725900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>178400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>670200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1865,31 +1922,34 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1906,12 +1966,12 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1924,8 +1984,11 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2515100</v>
+        <v>1400200</v>
       </c>
       <c r="E32" s="3">
-        <v>2195200</v>
+        <v>2619000</v>
       </c>
       <c r="F32" s="3">
-        <v>2557500</v>
+        <v>2285800</v>
       </c>
       <c r="G32" s="3">
-        <v>2986900</v>
+        <v>2663100</v>
       </c>
       <c r="H32" s="3">
-        <v>5073800</v>
+        <v>3110200</v>
       </c>
       <c r="I32" s="3">
-        <v>4666800</v>
+        <v>5283400</v>
       </c>
       <c r="J32" s="3">
+        <v>4859500</v>
+      </c>
+      <c r="K32" s="3">
         <v>5244400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3496500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4213500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3058100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2918500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2669200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4807700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2370800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2444800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2401600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6444200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>98800</v>
+        <v>1112300</v>
       </c>
       <c r="E33" s="3">
-        <v>214100</v>
+        <v>102900</v>
       </c>
       <c r="F33" s="3">
-        <v>-90600</v>
+        <v>222900</v>
       </c>
       <c r="G33" s="3">
-        <v>-50600</v>
+        <v>-94300</v>
       </c>
       <c r="H33" s="3">
-        <v>-1884600</v>
+        <v>-52700</v>
       </c>
       <c r="I33" s="3">
-        <v>-1108200</v>
+        <v>-1962400</v>
       </c>
       <c r="J33" s="3">
+        <v>-1153900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>117200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-502700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>233700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>310700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>47200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>725900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>178400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>670200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>98800</v>
+        <v>1112300</v>
       </c>
       <c r="E35" s="3">
-        <v>214100</v>
+        <v>102900</v>
       </c>
       <c r="F35" s="3">
-        <v>-90600</v>
+        <v>222900</v>
       </c>
       <c r="G35" s="3">
-        <v>-50600</v>
+        <v>-94300</v>
       </c>
       <c r="H35" s="3">
-        <v>-1884600</v>
+        <v>-52700</v>
       </c>
       <c r="I35" s="3">
-        <v>-1108200</v>
+        <v>-1962400</v>
       </c>
       <c r="J35" s="3">
+        <v>-1153900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>117200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-502700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>233700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>310700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>47200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>725900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>178400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>670200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,126 +2473,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>195527100</v>
+        <v>220474900</v>
       </c>
       <c r="E41" s="3">
-        <v>208446300</v>
+        <v>203603100</v>
       </c>
       <c r="F41" s="3">
-        <v>195555300</v>
+        <v>217056000</v>
       </c>
       <c r="G41" s="3">
-        <v>143385500</v>
+        <v>203632500</v>
       </c>
       <c r="H41" s="3">
-        <v>161863200</v>
+        <v>149307900</v>
       </c>
       <c r="I41" s="3">
-        <v>197450500</v>
+        <v>168548800</v>
       </c>
       <c r="J41" s="3">
+        <v>205606000</v>
+      </c>
+      <c r="K41" s="3">
         <v>189379200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>224065000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>223249900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>222838000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>228478400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>248938600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>253182700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>229323500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>255268400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>210653100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>212886900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>658471100</v>
+        <v>618681200</v>
       </c>
       <c r="E42" s="3">
-        <v>660992100</v>
+        <v>685668600</v>
       </c>
       <c r="F42" s="3">
-        <v>693659600</v>
+        <v>688293700</v>
       </c>
       <c r="G42" s="3">
-        <v>776752200</v>
+        <v>722310500</v>
       </c>
       <c r="H42" s="3">
-        <v>652405600</v>
+        <v>808835200</v>
       </c>
       <c r="I42" s="3">
-        <v>810885500</v>
+        <v>679352500</v>
       </c>
       <c r="J42" s="3">
+        <v>844378300</v>
+      </c>
+      <c r="K42" s="3">
         <v>764585900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>754124000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>709886700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>662362500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>684587600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>720950100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>857440500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>785621900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>805357700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>892835100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>929369900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2565,8 +2657,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2624,8 +2719,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2683,8 +2781,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2742,185 +2843,197 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1059900</v>
+        <v>1300900</v>
       </c>
       <c r="E47" s="3">
-        <v>1083500</v>
+        <v>1103700</v>
       </c>
       <c r="F47" s="3">
-        <v>1116400</v>
+        <v>1128200</v>
       </c>
       <c r="G47" s="3">
-        <v>1077600</v>
+        <v>1162500</v>
       </c>
       <c r="H47" s="3">
-        <v>1092900</v>
+        <v>1122100</v>
       </c>
       <c r="I47" s="3">
-        <v>1074100</v>
+        <v>1138000</v>
       </c>
       <c r="J47" s="3">
+        <v>1118400</v>
+      </c>
+      <c r="K47" s="3">
         <v>1081100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1101700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1039800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>940400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>934400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>986000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>971600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1026600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1063600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1150300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1205500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6527800</v>
+        <v>6684800</v>
       </c>
       <c r="E48" s="3">
-        <v>6777200</v>
+        <v>6797500</v>
       </c>
       <c r="F48" s="3">
-        <v>5665500</v>
+        <v>7057200</v>
       </c>
       <c r="G48" s="3">
-        <v>5649100</v>
+        <v>5899600</v>
       </c>
       <c r="H48" s="3">
-        <v>5799700</v>
+        <v>5882400</v>
       </c>
       <c r="I48" s="3">
-        <v>6047900</v>
+        <v>6039200</v>
       </c>
       <c r="J48" s="3">
+        <v>6297700</v>
+      </c>
+      <c r="K48" s="3">
         <v>6274900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6506100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2863800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2775600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2788900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2693400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2987900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3110200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3081000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3324200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3291400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7911300</v>
+        <v>8393600</v>
       </c>
       <c r="E49" s="3">
-        <v>7939500</v>
+        <v>8238100</v>
       </c>
       <c r="F49" s="3">
-        <v>8117200</v>
+        <v>8267500</v>
       </c>
       <c r="G49" s="3">
-        <v>8231300</v>
+        <v>8452400</v>
       </c>
       <c r="H49" s="3">
-        <v>8268900</v>
+        <v>8571300</v>
       </c>
       <c r="I49" s="3">
-        <v>8999500</v>
+        <v>8610500</v>
       </c>
       <c r="J49" s="3">
+        <v>9371200</v>
+      </c>
+      <c r="K49" s="3">
         <v>9067700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10984700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10812900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10030400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9862200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9608600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9917300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9843200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9911700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10610100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10543200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14299100</v>
+        <v>7269100</v>
       </c>
       <c r="E52" s="3">
-        <v>7187800</v>
+        <v>14889800</v>
       </c>
       <c r="F52" s="3">
-        <v>7018400</v>
+        <v>7484700</v>
       </c>
       <c r="G52" s="3">
-        <v>6914900</v>
+        <v>7308300</v>
       </c>
       <c r="H52" s="3">
-        <v>7041900</v>
+        <v>7200500</v>
       </c>
       <c r="I52" s="3">
-        <v>7100800</v>
+        <v>7332800</v>
       </c>
       <c r="J52" s="3">
+        <v>7394000</v>
+      </c>
+      <c r="K52" s="3">
         <v>6532500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>8867400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>11721400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15922900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10640700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10177400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>7678900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9295700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9479700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10552600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10833100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1559034700</v>
+        <v>1613466200</v>
       </c>
       <c r="E54" s="3">
-        <v>1632597300</v>
+        <v>1623429000</v>
       </c>
       <c r="F54" s="3">
-        <v>1655543000</v>
+        <v>1700030100</v>
       </c>
       <c r="G54" s="3">
-        <v>1754251200</v>
+        <v>1723923500</v>
       </c>
       <c r="H54" s="3">
-        <v>1526583700</v>
+        <v>1826708800</v>
       </c>
       <c r="I54" s="3">
-        <v>1765684600</v>
+        <v>1589637700</v>
       </c>
       <c r="J54" s="3">
+        <v>1838614400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,16 +3389,17 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>2046900</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="D57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2131500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
@@ -3289,38 +3419,41 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>2940700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2523100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2478200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2882300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2943000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2793800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3097800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3379400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3183400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3378,67 +3511,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>675300</v>
+        <v>944500</v>
       </c>
       <c r="E59" s="3">
-        <v>809400</v>
+        <v>703100</v>
       </c>
       <c r="F59" s="3">
-        <v>902300</v>
+        <v>842800</v>
       </c>
       <c r="G59" s="3">
-        <v>767000</v>
+        <v>939600</v>
       </c>
       <c r="H59" s="3">
-        <v>765800</v>
+        <v>798700</v>
       </c>
       <c r="I59" s="3">
-        <v>817600</v>
+        <v>797500</v>
       </c>
       <c r="J59" s="3">
+        <v>851400</v>
+      </c>
+      <c r="K59" s="3">
         <v>2138700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1063400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1116700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>985800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1012400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1213300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1123100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1205000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1212900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1304100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1560000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3496,126 +3635,135 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>231828400</v>
+        <v>243210700</v>
       </c>
       <c r="E61" s="3">
-        <v>245475900</v>
+        <v>241403900</v>
       </c>
       <c r="F61" s="3">
-        <v>245265300</v>
+        <v>255615000</v>
       </c>
       <c r="G61" s="3">
-        <v>234881200</v>
+        <v>255395700</v>
       </c>
       <c r="H61" s="3">
-        <v>222125500</v>
+        <v>244582700</v>
       </c>
       <c r="I61" s="3">
-        <v>245540600</v>
+        <v>231300200</v>
       </c>
       <c r="J61" s="3">
+        <v>255682400</v>
+      </c>
+      <c r="K61" s="3">
         <v>238475100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>267994300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>190280100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>179290500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>183304500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>188645200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>192592900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>192494200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>199071300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>218534100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>217392000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>15106200</v>
+        <v>4035100</v>
       </c>
       <c r="E62" s="3">
-        <v>3695100</v>
+        <v>15730100</v>
       </c>
       <c r="F62" s="3">
-        <v>3771500</v>
+        <v>3847700</v>
       </c>
       <c r="G62" s="3">
-        <v>4000900</v>
+        <v>3927300</v>
       </c>
       <c r="H62" s="3">
-        <v>3725700</v>
+        <v>4166200</v>
       </c>
       <c r="I62" s="3">
-        <v>3757400</v>
+        <v>3879500</v>
       </c>
       <c r="J62" s="3">
+        <v>3912600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3751500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>4158000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>5281600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9456700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7174300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9655800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5071400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6957500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7417500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9514900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14273500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1487734300</v>
+        <v>1537620900</v>
       </c>
       <c r="E66" s="3">
-        <v>1561316900</v>
+        <v>1549183600</v>
       </c>
       <c r="F66" s="3">
-        <v>1583583800</v>
+        <v>1625805500</v>
       </c>
       <c r="G66" s="3">
-        <v>1681637900</v>
+        <v>1648992100</v>
       </c>
       <c r="H66" s="3">
-        <v>1455385600</v>
+        <v>1751096300</v>
       </c>
       <c r="I66" s="3">
-        <v>1691546700</v>
+        <v>1515498800</v>
       </c>
       <c r="J66" s="3">
+        <v>1761414300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11780500</v>
+        <v>13629200</v>
       </c>
       <c r="E72" s="3">
-        <v>11288700</v>
+        <v>12267000</v>
       </c>
       <c r="F72" s="3">
-        <v>11145200</v>
+        <v>11755000</v>
       </c>
       <c r="G72" s="3">
-        <v>11517000</v>
+        <v>11605600</v>
       </c>
       <c r="H72" s="3">
-        <v>11345200</v>
+        <v>11992700</v>
       </c>
       <c r="I72" s="3">
-        <v>13561500</v>
+        <v>11813800</v>
       </c>
       <c r="J72" s="3">
+        <v>14121700</v>
+      </c>
+      <c r="K72" s="3">
         <v>14850900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>19841400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19771000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19008600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>18649500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18846100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19583200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>22200800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>21747500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22878700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22287100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>71300400</v>
+        <v>75845300</v>
       </c>
       <c r="E76" s="3">
-        <v>71280400</v>
+        <v>74245400</v>
       </c>
       <c r="F76" s="3">
-        <v>71959200</v>
+        <v>74224600</v>
       </c>
       <c r="G76" s="3">
-        <v>72613300</v>
+        <v>74931400</v>
       </c>
       <c r="H76" s="3">
-        <v>71198100</v>
+        <v>75612500</v>
       </c>
       <c r="I76" s="3">
-        <v>74137900</v>
+        <v>74138800</v>
       </c>
       <c r="J76" s="3">
+        <v>77200100</v>
+      </c>
+      <c r="K76" s="3">
         <v>74603800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>80850000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>79454200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>74489400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73930500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73143300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>76125900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>78925300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79585000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>75781200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>75714300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>98800</v>
+        <v>1112300</v>
       </c>
       <c r="E81" s="3">
-        <v>214100</v>
+        <v>102900</v>
       </c>
       <c r="F81" s="3">
-        <v>-90600</v>
+        <v>222900</v>
       </c>
       <c r="G81" s="3">
-        <v>-50600</v>
+        <v>-94300</v>
       </c>
       <c r="H81" s="3">
-        <v>-1884600</v>
+        <v>-52700</v>
       </c>
       <c r="I81" s="3">
-        <v>-1108200</v>
+        <v>-1962400</v>
       </c>
       <c r="J81" s="3">
+        <v>-1153900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>117200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-502700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>233700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>310700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>47200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>725900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>178400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>670200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,8 +4806,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4635,41 +4833,44 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>705000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>692300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>936600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>348100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>732700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>366900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>544200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>814600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>2610600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,8 +5176,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4989,41 +5205,44 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22428600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>49922900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>72411200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,8 +5264,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5071,41 +5291,44 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-153800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-154000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-109800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-105400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-71800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-170500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-340400</v>
       </c>
       <c r="T91" s="3">
         <v>-340400</v>
       </c>
       <c r="U91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="V91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,8 +5448,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5248,41 +5477,44 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-923800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>5880900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5028800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1605600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1331800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-448800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>252400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>11937600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5352,19 +5585,22 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-439800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,8 +5782,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5566,41 +5811,44 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-132500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-332300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-793900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>911100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-371400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>7601500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-138500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-59900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5625,41 +5873,44 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
         <v>1113100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>875000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1412000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-693700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>430800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5684,37 +5935,40 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>23560700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>55083000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>84719700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,151 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="23" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5186600</v>
+        <v>4611300</v>
       </c>
       <c r="E8" s="3">
-        <v>4723600</v>
+        <v>4942800</v>
       </c>
       <c r="F8" s="3">
-        <v>4890200</v>
+        <v>4501500</v>
       </c>
       <c r="G8" s="3">
-        <v>5500200</v>
+        <v>4660300</v>
       </c>
       <c r="H8" s="3">
-        <v>6697000</v>
+        <v>5241700</v>
       </c>
       <c r="I8" s="3">
-        <v>6755800</v>
+        <v>6382200</v>
       </c>
       <c r="J8" s="3">
+        <v>6438300</v>
+      </c>
+      <c r="K8" s="3">
         <v>7751700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8073600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7778900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7110400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6720900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7042600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6582500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5961100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6681500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7024800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7056900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7657900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -864,8 +870,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1012,8 +1025,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,8 +1090,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1155,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1198,8 +1220,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1244,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1839900</v>
+        <v>1595800</v>
       </c>
       <c r="E17" s="3">
-        <v>1890200</v>
+        <v>1753400</v>
       </c>
       <c r="F17" s="3">
-        <v>2013900</v>
+        <v>1801300</v>
       </c>
       <c r="G17" s="3">
-        <v>2643500</v>
+        <v>1919200</v>
       </c>
       <c r="H17" s="3">
-        <v>3334400</v>
+        <v>2519300</v>
       </c>
       <c r="I17" s="3">
-        <v>3056400</v>
+        <v>3177700</v>
       </c>
       <c r="J17" s="3">
+        <v>2912700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3733800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3942100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3931900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3275500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3102400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3343400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3438900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2729800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3263900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3657700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3624700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4049600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3346700</v>
+        <v>3015400</v>
       </c>
       <c r="E18" s="3">
-        <v>2833400</v>
+        <v>3189400</v>
       </c>
       <c r="F18" s="3">
-        <v>2876300</v>
+        <v>2700200</v>
       </c>
       <c r="G18" s="3">
-        <v>2856700</v>
+        <v>2741100</v>
       </c>
       <c r="H18" s="3">
-        <v>3362600</v>
+        <v>2722400</v>
       </c>
       <c r="I18" s="3">
-        <v>3699500</v>
+        <v>3204500</v>
       </c>
       <c r="J18" s="3">
+        <v>3525600</v>
+      </c>
+      <c r="K18" s="3">
         <v>4018000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4131500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3847000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3835000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3618500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3699200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3143600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3231300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3417600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3367100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3432200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3608300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1367,70 +1399,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400200</v>
+        <v>-1655400</v>
       </c>
       <c r="E20" s="3">
-        <v>-2619000</v>
+        <v>-1334300</v>
       </c>
       <c r="F20" s="3">
-        <v>-2285800</v>
+        <v>-2495900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2663100</v>
+        <v>-2178400</v>
       </c>
       <c r="H20" s="3">
-        <v>-3110200</v>
+        <v>-2537900</v>
       </c>
       <c r="I20" s="3">
-        <v>-5283400</v>
+        <v>-2964100</v>
       </c>
       <c r="J20" s="3">
+        <v>-5035000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1461,38 +1497,41 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>326500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1252700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1717300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>822400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-843700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1413700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1466400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1845200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-225400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1553,132 +1592,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1946500</v>
+        <v>1360000</v>
       </c>
       <c r="E23" s="3">
-        <v>214400</v>
+        <v>1855000</v>
       </c>
       <c r="F23" s="3">
-        <v>590400</v>
+        <v>204300</v>
       </c>
       <c r="G23" s="3">
-        <v>193500</v>
+        <v>562700</v>
       </c>
       <c r="H23" s="3">
-        <v>252300</v>
+        <v>184500</v>
       </c>
       <c r="I23" s="3">
-        <v>-1583900</v>
+        <v>240500</v>
       </c>
       <c r="J23" s="3">
+        <v>-1509500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-841600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>350500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-378500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>560400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>780700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>474300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1046800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>922300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1030600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>676200</v>
+        <v>394600</v>
       </c>
       <c r="E24" s="3">
-        <v>-17100</v>
+        <v>644400</v>
       </c>
       <c r="F24" s="3">
-        <v>211900</v>
+        <v>-16300</v>
       </c>
       <c r="G24" s="3">
-        <v>118800</v>
+        <v>202000</v>
       </c>
       <c r="H24" s="3">
-        <v>172700</v>
+        <v>113200</v>
       </c>
       <c r="I24" s="3">
-        <v>234000</v>
+        <v>164600</v>
       </c>
       <c r="J24" s="3">
+        <v>223000</v>
+      </c>
+      <c r="K24" s="3">
         <v>177600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2592800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>108900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>105300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>306800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>340400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>342600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1143300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>318600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>355700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-616300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1739,132 +1787,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1270300</v>
+        <v>965400</v>
       </c>
       <c r="E26" s="3">
-        <v>231500</v>
+        <v>1210600</v>
       </c>
       <c r="F26" s="3">
-        <v>378500</v>
+        <v>220600</v>
       </c>
       <c r="G26" s="3">
-        <v>74700</v>
+        <v>360700</v>
       </c>
       <c r="H26" s="3">
-        <v>79600</v>
+        <v>71200</v>
       </c>
       <c r="I26" s="3">
-        <v>-1817900</v>
+        <v>75900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1732400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>241600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-483800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>253600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>440300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>131800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>728200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>521700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>674900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1112300</v>
+        <v>807800</v>
       </c>
       <c r="E27" s="3">
-        <v>102900</v>
+        <v>1060000</v>
       </c>
       <c r="F27" s="3">
-        <v>222900</v>
+        <v>98100</v>
       </c>
       <c r="G27" s="3">
-        <v>-94300</v>
+        <v>212500</v>
       </c>
       <c r="H27" s="3">
-        <v>-52700</v>
+        <v>-89900</v>
       </c>
       <c r="I27" s="3">
-        <v>-1962400</v>
+        <v>-50200</v>
       </c>
       <c r="J27" s="3">
+        <v>-1870200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>117200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-502700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>233700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>310700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>47200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>725900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>178400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>670200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1925,8 +1982,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1951,8 +2011,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1969,12 +2029,12 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1987,8 +2047,11 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2112,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2177,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400200</v>
+        <v>1655400</v>
       </c>
       <c r="E32" s="3">
-        <v>2619000</v>
+        <v>1334300</v>
       </c>
       <c r="F32" s="3">
-        <v>2285800</v>
+        <v>2495900</v>
       </c>
       <c r="G32" s="3">
-        <v>2663100</v>
+        <v>2178400</v>
       </c>
       <c r="H32" s="3">
-        <v>3110200</v>
+        <v>2537900</v>
       </c>
       <c r="I32" s="3">
-        <v>5283400</v>
+        <v>2964100</v>
       </c>
       <c r="J32" s="3">
+        <v>5035000</v>
+      </c>
+      <c r="K32" s="3">
         <v>4859500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5244400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3496500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4213500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3058100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2918500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2669200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4807700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2370800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2444800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2401600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6444200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1112300</v>
+        <v>807800</v>
       </c>
       <c r="E33" s="3">
-        <v>102900</v>
+        <v>1060000</v>
       </c>
       <c r="F33" s="3">
-        <v>222900</v>
+        <v>98100</v>
       </c>
       <c r="G33" s="3">
-        <v>-94300</v>
+        <v>212500</v>
       </c>
       <c r="H33" s="3">
-        <v>-52700</v>
+        <v>-89900</v>
       </c>
       <c r="I33" s="3">
-        <v>-1962400</v>
+        <v>-50200</v>
       </c>
       <c r="J33" s="3">
+        <v>-1870200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>117200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-502700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>233700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>310700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>47200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>725900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>178400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>670200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2372,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1112300</v>
+        <v>807800</v>
       </c>
       <c r="E35" s="3">
-        <v>102900</v>
+        <v>1060000</v>
       </c>
       <c r="F35" s="3">
-        <v>222900</v>
+        <v>98100</v>
       </c>
       <c r="G35" s="3">
-        <v>-94300</v>
+        <v>212500</v>
       </c>
       <c r="H35" s="3">
-        <v>-52700</v>
+        <v>-89900</v>
       </c>
       <c r="I35" s="3">
-        <v>-1962400</v>
+        <v>-50200</v>
       </c>
       <c r="J35" s="3">
+        <v>-1870200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>117200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-502700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>233700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>310700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>47200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>725900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>178400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>670200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2534,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,132 +2559,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>220474900</v>
+        <v>231460000</v>
       </c>
       <c r="E41" s="3">
-        <v>203603100</v>
+        <v>210111600</v>
       </c>
       <c r="F41" s="3">
-        <v>217056000</v>
+        <v>194032900</v>
       </c>
       <c r="G41" s="3">
-        <v>203632500</v>
+        <v>206853400</v>
       </c>
       <c r="H41" s="3">
-        <v>149307900</v>
+        <v>194060900</v>
       </c>
       <c r="I41" s="3">
-        <v>168548800</v>
+        <v>142289800</v>
       </c>
       <c r="J41" s="3">
+        <v>160626300</v>
+      </c>
+      <c r="K41" s="3">
         <v>205606000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>189379200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>224065000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>223249900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>222838000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>228478400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>248938600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>253182700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>229323500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>255268400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>210653100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>212886900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>618681200</v>
+        <v>567838700</v>
       </c>
       <c r="E42" s="3">
-        <v>685668600</v>
+        <v>589600400</v>
       </c>
       <c r="F42" s="3">
-        <v>688293700</v>
+        <v>638744900</v>
       </c>
       <c r="G42" s="3">
-        <v>722310500</v>
+        <v>655940800</v>
       </c>
       <c r="H42" s="3">
-        <v>808835200</v>
+        <v>688358600</v>
       </c>
       <c r="I42" s="3">
-        <v>679352500</v>
+        <v>770816300</v>
       </c>
       <c r="J42" s="3">
+        <v>647419900</v>
+      </c>
+      <c r="K42" s="3">
         <v>844378300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>764585900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>754124000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>709886700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>662362500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>684587600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>720950100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>857440500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>785621900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>805357700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>892835100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>929369900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2660,8 +2752,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2722,8 +2817,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2784,8 +2882,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2846,194 +2947,206 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300900</v>
+        <v>1295800</v>
       </c>
       <c r="E47" s="3">
-        <v>1103700</v>
+        <v>1239800</v>
       </c>
       <c r="F47" s="3">
-        <v>1128200</v>
+        <v>1051800</v>
       </c>
       <c r="G47" s="3">
-        <v>1162500</v>
+        <v>1075200</v>
       </c>
       <c r="H47" s="3">
-        <v>1122100</v>
+        <v>1107900</v>
       </c>
       <c r="I47" s="3">
-        <v>1138000</v>
+        <v>1069300</v>
       </c>
       <c r="J47" s="3">
+        <v>1084500</v>
+      </c>
+      <c r="K47" s="3">
         <v>1118400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1081100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1101700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1039800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>940400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>934400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>986000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>971600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1026600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1063600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1150300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1205500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6684800</v>
+        <v>6278300</v>
       </c>
       <c r="E48" s="3">
-        <v>6797500</v>
+        <v>6370600</v>
       </c>
       <c r="F48" s="3">
-        <v>7057200</v>
+        <v>6478000</v>
       </c>
       <c r="G48" s="3">
-        <v>5899600</v>
+        <v>6725400</v>
       </c>
       <c r="H48" s="3">
-        <v>5882400</v>
+        <v>5622200</v>
       </c>
       <c r="I48" s="3">
-        <v>6039200</v>
+        <v>5605900</v>
       </c>
       <c r="J48" s="3">
+        <v>5755300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6297700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6274900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6506100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2863800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2775600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2788900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2693400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2987900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3110200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3081000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3324200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3291400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8393600</v>
+        <v>7992100</v>
       </c>
       <c r="E49" s="3">
-        <v>8238100</v>
+        <v>7999100</v>
       </c>
       <c r="F49" s="3">
-        <v>8267500</v>
+        <v>7850800</v>
       </c>
       <c r="G49" s="3">
-        <v>8452400</v>
+        <v>7878900</v>
       </c>
       <c r="H49" s="3">
-        <v>8571300</v>
+        <v>8055100</v>
       </c>
       <c r="I49" s="3">
-        <v>8610500</v>
+        <v>8168400</v>
       </c>
       <c r="J49" s="3">
+        <v>8205700</v>
+      </c>
+      <c r="K49" s="3">
         <v>9371200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9067700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>10984700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10812900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10030400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9862200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9608600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9917300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9843200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9911700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10610100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10543200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3207,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3272,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7269100</v>
+        <v>6876000</v>
       </c>
       <c r="E52" s="3">
-        <v>14889800</v>
+        <v>6927400</v>
       </c>
       <c r="F52" s="3">
-        <v>7484700</v>
+        <v>7072200</v>
       </c>
       <c r="G52" s="3">
-        <v>7308300</v>
+        <v>7132900</v>
       </c>
       <c r="H52" s="3">
-        <v>7200500</v>
+        <v>6964800</v>
       </c>
       <c r="I52" s="3">
-        <v>7332800</v>
+        <v>6862000</v>
       </c>
       <c r="J52" s="3">
+        <v>6988100</v>
+      </c>
+      <c r="K52" s="3">
         <v>7394000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6532500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>8867400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>11721400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15922900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10640700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10177400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>7678900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9295700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9479700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10552600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10833100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3402,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1613466200</v>
+        <v>1541429500</v>
       </c>
       <c r="E54" s="3">
-        <v>1623429000</v>
+        <v>1537626100</v>
       </c>
       <c r="F54" s="3">
-        <v>1700030100</v>
+        <v>1547120600</v>
       </c>
       <c r="G54" s="3">
-        <v>1723923500</v>
+        <v>1620121100</v>
       </c>
       <c r="H54" s="3">
-        <v>1826708800</v>
+        <v>1642891400</v>
       </c>
       <c r="I54" s="3">
-        <v>1589637700</v>
+        <v>1740845300</v>
       </c>
       <c r="J54" s="3">
+        <v>1514917600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3494,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,19 +3519,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>2131500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2031300</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -3422,38 +3552,41 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>2940700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2523100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2478200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2882300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2943000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2793800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3097800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3379400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3183400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3514,70 +3647,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>944500</v>
+        <v>1016800</v>
       </c>
       <c r="E59" s="3">
-        <v>703100</v>
+        <v>900100</v>
       </c>
       <c r="F59" s="3">
-        <v>842800</v>
+        <v>670100</v>
       </c>
       <c r="G59" s="3">
-        <v>939600</v>
+        <v>803200</v>
       </c>
       <c r="H59" s="3">
-        <v>798700</v>
+        <v>895400</v>
       </c>
       <c r="I59" s="3">
-        <v>797500</v>
+        <v>761200</v>
       </c>
       <c r="J59" s="3">
+        <v>760000</v>
+      </c>
+      <c r="K59" s="3">
         <v>851400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2138700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1063400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1116700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>985800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1012400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1213300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1123100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1205000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1212900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1304100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1560000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3638,132 +3777,141 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>243210700</v>
+        <v>237105600</v>
       </c>
       <c r="E61" s="3">
-        <v>241403900</v>
+        <v>231778700</v>
       </c>
       <c r="F61" s="3">
-        <v>255615000</v>
+        <v>230056800</v>
       </c>
       <c r="G61" s="3">
-        <v>255395700</v>
+        <v>243599900</v>
       </c>
       <c r="H61" s="3">
-        <v>244582700</v>
+        <v>243391000</v>
       </c>
       <c r="I61" s="3">
-        <v>231300200</v>
+        <v>233086200</v>
       </c>
       <c r="J61" s="3">
+        <v>220428000</v>
+      </c>
+      <c r="K61" s="3">
         <v>255682400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>238475100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>267994300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>190280100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>179290500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>183304500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>188645200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>192592900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>192494200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>199071300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>218534100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>217392000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>4035100</v>
+        <v>3578100</v>
       </c>
       <c r="E62" s="3">
-        <v>15730100</v>
+        <v>3845400</v>
       </c>
       <c r="F62" s="3">
-        <v>3847700</v>
+        <v>14990700</v>
       </c>
       <c r="G62" s="3">
-        <v>3927300</v>
+        <v>3666800</v>
       </c>
       <c r="H62" s="3">
-        <v>4166200</v>
+        <v>3742700</v>
       </c>
       <c r="I62" s="3">
-        <v>3879500</v>
+        <v>3970400</v>
       </c>
       <c r="J62" s="3">
+        <v>3697200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3912600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3751500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>4158000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>5281600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9456700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7174300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9655800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5071400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6957500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7417500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9514900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14273500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +3972,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3886,8 +4037,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4102,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1537620900</v>
+        <v>1467139000</v>
       </c>
       <c r="E66" s="3">
-        <v>1549183600</v>
+        <v>1465345900</v>
       </c>
       <c r="F66" s="3">
-        <v>1625805500</v>
+        <v>1476365100</v>
       </c>
       <c r="G66" s="3">
-        <v>1648992100</v>
+        <v>1549385400</v>
       </c>
       <c r="H66" s="3">
-        <v>1751096300</v>
+        <v>1571482100</v>
       </c>
       <c r="I66" s="3">
-        <v>1515498800</v>
+        <v>1668786900</v>
       </c>
       <c r="J66" s="3">
+        <v>1444263600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4194,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4257,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4322,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4387,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4452,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13629200</v>
+        <v>13775400</v>
       </c>
       <c r="E72" s="3">
-        <v>12267000</v>
+        <v>12988600</v>
       </c>
       <c r="F72" s="3">
-        <v>11755000</v>
+        <v>11690400</v>
       </c>
       <c r="G72" s="3">
-        <v>11605600</v>
+        <v>11202500</v>
       </c>
       <c r="H72" s="3">
-        <v>11992700</v>
+        <v>11060000</v>
       </c>
       <c r="I72" s="3">
-        <v>11813800</v>
+        <v>11428900</v>
       </c>
       <c r="J72" s="3">
+        <v>11258500</v>
+      </c>
+      <c r="K72" s="3">
         <v>14121700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14850900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>19841400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19771000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19008600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>18649500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18846100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19583200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>22200800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>21747500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>22878700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22287100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4582,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4647,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4712,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>75845300</v>
+        <v>74290500</v>
       </c>
       <c r="E76" s="3">
-        <v>74245400</v>
+        <v>72280200</v>
       </c>
       <c r="F76" s="3">
-        <v>74224600</v>
+        <v>70755600</v>
       </c>
       <c r="G76" s="3">
-        <v>74931400</v>
+        <v>70735700</v>
       </c>
       <c r="H76" s="3">
-        <v>75612500</v>
+        <v>71409300</v>
       </c>
       <c r="I76" s="3">
-        <v>74138800</v>
+        <v>72058400</v>
       </c>
       <c r="J76" s="3">
+        <v>70654000</v>
+      </c>
+      <c r="K76" s="3">
         <v>77200100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>74603800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>80850000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>79454200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>74489400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73930500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73143300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>76125900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>78925300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>79585000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>75781200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>75714300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +4842,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1112300</v>
+        <v>807800</v>
       </c>
       <c r="E81" s="3">
-        <v>102900</v>
+        <v>1060000</v>
       </c>
       <c r="F81" s="3">
-        <v>222900</v>
+        <v>98100</v>
       </c>
       <c r="G81" s="3">
-        <v>-94300</v>
+        <v>212500</v>
       </c>
       <c r="H81" s="3">
-        <v>-52700</v>
+        <v>-89900</v>
       </c>
       <c r="I81" s="3">
-        <v>-1962400</v>
+        <v>-50200</v>
       </c>
       <c r="J81" s="3">
+        <v>-1870200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>117200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-502700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>233700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>310700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>47200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>725900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>178400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>670200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,8 +5004,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4836,41 +5034,44 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>705000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>692300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>936600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>348100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>732700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>366900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>544200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>814600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>2610600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5132,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5197,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5262,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5327,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,8 +5392,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5208,41 +5424,44 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22428600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>49922900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>72411200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,8 +5484,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5294,41 +5514,44 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-153800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-154000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-109800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-105400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-71800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-170500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-340400</v>
       </c>
       <c r="U91" s="3">
         <v>-340400</v>
       </c>
       <c r="V91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="W91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5612,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,8 +5677,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5480,41 +5709,44 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-923800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>5880900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5028800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1605600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1331800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-448800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>252400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>11937600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +5769,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5588,19 +5821,22 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-439800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
         <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +5897,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +5962,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,8 +6027,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5814,41 +6059,44 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-132500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-332300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-793900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>911100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-371400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>7601500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-138500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-59900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5876,41 +6124,44 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
         <v>1113100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>875000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1412000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-693700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>430800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5938,37 +6189,40 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>23560700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>55083000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>84719700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,157 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="23" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4611300</v>
+        <v>4683500</v>
       </c>
       <c r="E8" s="3">
-        <v>4942800</v>
+        <v>4459900</v>
       </c>
       <c r="F8" s="3">
-        <v>4501500</v>
+        <v>4780600</v>
       </c>
       <c r="G8" s="3">
-        <v>4660300</v>
+        <v>4353800</v>
       </c>
       <c r="H8" s="3">
-        <v>5241700</v>
+        <v>4507400</v>
       </c>
       <c r="I8" s="3">
-        <v>6382200</v>
+        <v>5069700</v>
       </c>
       <c r="J8" s="3">
+        <v>6172800</v>
+      </c>
+      <c r="K8" s="3">
         <v>6438300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7751700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8073600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7778900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7110400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6720900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7042600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6582500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5961100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6681500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7024800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7056900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7657900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +947,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +975,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1041,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1093,8 +1109,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1158,8 +1177,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1245,138 +1270,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1595800</v>
+        <v>1683500</v>
       </c>
       <c r="E17" s="3">
-        <v>1753400</v>
+        <v>1543500</v>
       </c>
       <c r="F17" s="3">
-        <v>1801300</v>
+        <v>1695900</v>
       </c>
       <c r="G17" s="3">
-        <v>1919200</v>
+        <v>1742200</v>
       </c>
       <c r="H17" s="3">
-        <v>2519300</v>
+        <v>1856200</v>
       </c>
       <c r="I17" s="3">
-        <v>3177700</v>
+        <v>2436600</v>
       </c>
       <c r="J17" s="3">
+        <v>3073400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2912700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3733800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3942100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3931900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3275500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3102400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3343400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3438900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2729800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3263900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3657700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3624700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4049600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3015400</v>
+        <v>3000000</v>
       </c>
       <c r="E18" s="3">
-        <v>3189400</v>
+        <v>2916500</v>
       </c>
       <c r="F18" s="3">
-        <v>2700200</v>
+        <v>3084700</v>
       </c>
       <c r="G18" s="3">
-        <v>2741100</v>
+        <v>2611600</v>
       </c>
       <c r="H18" s="3">
-        <v>2722400</v>
+        <v>2651100</v>
       </c>
       <c r="I18" s="3">
-        <v>3204500</v>
+        <v>2633100</v>
       </c>
       <c r="J18" s="3">
+        <v>3099400</v>
+      </c>
+      <c r="K18" s="3">
         <v>3525600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>4018000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4131500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3847000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3835000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3618500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3699200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3143600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3231300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3417600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3367100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3432200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3608300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1400,73 +1432,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1655400</v>
+        <v>-2373400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1334300</v>
+        <v>-1601100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2495900</v>
+        <v>-1290600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2178400</v>
+        <v>-2414000</v>
       </c>
       <c r="H20" s="3">
-        <v>-2537900</v>
+        <v>-2106900</v>
       </c>
       <c r="I20" s="3">
-        <v>-2964100</v>
+        <v>-2454700</v>
       </c>
       <c r="J20" s="3">
+        <v>-2866800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5035000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1500,38 +1536,41 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>326500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1252700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1717300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>822400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-843700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1413700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1466400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1845200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-225400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1595,138 +1634,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1360000</v>
+        <v>626700</v>
       </c>
       <c r="E23" s="3">
-        <v>1855000</v>
+        <v>1315400</v>
       </c>
       <c r="F23" s="3">
-        <v>204300</v>
+        <v>1794100</v>
       </c>
       <c r="G23" s="3">
-        <v>562700</v>
+        <v>197600</v>
       </c>
       <c r="H23" s="3">
-        <v>184500</v>
+        <v>544200</v>
       </c>
       <c r="I23" s="3">
-        <v>240500</v>
+        <v>178400</v>
       </c>
       <c r="J23" s="3">
+        <v>232600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1509500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-841600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>350500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-378500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>560400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>780700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>474300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1046800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>922300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1030600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>394600</v>
+        <v>254000</v>
       </c>
       <c r="E24" s="3">
-        <v>644400</v>
+        <v>381600</v>
       </c>
       <c r="F24" s="3">
-        <v>-16300</v>
+        <v>623300</v>
       </c>
       <c r="G24" s="3">
-        <v>202000</v>
+        <v>-15800</v>
       </c>
       <c r="H24" s="3">
-        <v>113200</v>
+        <v>195300</v>
       </c>
       <c r="I24" s="3">
-        <v>164600</v>
+        <v>109500</v>
       </c>
       <c r="J24" s="3">
+        <v>159200</v>
+      </c>
+      <c r="K24" s="3">
         <v>223000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>177600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2592800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>108900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>105300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>306800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>340400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>342600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1143300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>318600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>355700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-616300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1790,138 +1838,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>965400</v>
+        <v>372600</v>
       </c>
       <c r="E26" s="3">
-        <v>1210600</v>
+        <v>933800</v>
       </c>
       <c r="F26" s="3">
-        <v>220600</v>
+        <v>1170900</v>
       </c>
       <c r="G26" s="3">
-        <v>360700</v>
+        <v>213400</v>
       </c>
       <c r="H26" s="3">
-        <v>71200</v>
+        <v>348900</v>
       </c>
       <c r="I26" s="3">
-        <v>75900</v>
+        <v>68900</v>
       </c>
       <c r="J26" s="3">
+        <v>73400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1732400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>241600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-483800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>253600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>440300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>131800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>728200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>521700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>674900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>807800</v>
+        <v>220200</v>
       </c>
       <c r="E27" s="3">
-        <v>1060000</v>
+        <v>781300</v>
       </c>
       <c r="F27" s="3">
-        <v>98100</v>
+        <v>1025200</v>
       </c>
       <c r="G27" s="3">
-        <v>212500</v>
+        <v>94800</v>
       </c>
       <c r="H27" s="3">
-        <v>-89900</v>
+        <v>205500</v>
       </c>
       <c r="I27" s="3">
-        <v>-50200</v>
+        <v>-86900</v>
       </c>
       <c r="J27" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1870200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>117200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-502700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>233700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>310700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>47200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>725900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>178400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>670200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1985,8 +2042,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2014,8 +2074,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -2032,12 +2092,12 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2050,8 +2110,11 @@
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2115,8 +2178,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2180,138 +2246,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1655400</v>
+        <v>2373400</v>
       </c>
       <c r="E32" s="3">
-        <v>1334300</v>
+        <v>1601100</v>
       </c>
       <c r="F32" s="3">
-        <v>2495900</v>
+        <v>1290600</v>
       </c>
       <c r="G32" s="3">
-        <v>2178400</v>
+        <v>2414000</v>
       </c>
       <c r="H32" s="3">
-        <v>2537900</v>
+        <v>2106900</v>
       </c>
       <c r="I32" s="3">
-        <v>2964100</v>
+        <v>2454700</v>
       </c>
       <c r="J32" s="3">
+        <v>2866800</v>
+      </c>
+      <c r="K32" s="3">
         <v>5035000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4859500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5244400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3496500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4213500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3058100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2918500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2669200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4807700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2370800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2444800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2401600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6444200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>807800</v>
+        <v>220200</v>
       </c>
       <c r="E33" s="3">
-        <v>1060000</v>
+        <v>781300</v>
       </c>
       <c r="F33" s="3">
-        <v>98100</v>
+        <v>1025200</v>
       </c>
       <c r="G33" s="3">
-        <v>212500</v>
+        <v>94800</v>
       </c>
       <c r="H33" s="3">
-        <v>-89900</v>
+        <v>205500</v>
       </c>
       <c r="I33" s="3">
-        <v>-50200</v>
+        <v>-86900</v>
       </c>
       <c r="J33" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1870200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>117200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-502700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>233700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>310700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>47200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>725900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>178400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>670200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2375,143 +2450,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>807800</v>
+        <v>220200</v>
       </c>
       <c r="E35" s="3">
-        <v>1060000</v>
+        <v>781300</v>
       </c>
       <c r="F35" s="3">
-        <v>98100</v>
+        <v>1025200</v>
       </c>
       <c r="G35" s="3">
-        <v>212500</v>
+        <v>94800</v>
       </c>
       <c r="H35" s="3">
-        <v>-89900</v>
+        <v>205500</v>
       </c>
       <c r="I35" s="3">
-        <v>-50200</v>
+        <v>-86900</v>
       </c>
       <c r="J35" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1870200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>117200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-502700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>233700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>310700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>47200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>725900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>178400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>670200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2535,8 +2619,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2560,138 +2645,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>231460000</v>
+        <v>222310800</v>
       </c>
       <c r="E41" s="3">
-        <v>210111600</v>
+        <v>223864400</v>
       </c>
       <c r="F41" s="3">
-        <v>194032900</v>
+        <v>203216500</v>
       </c>
       <c r="G41" s="3">
-        <v>206853400</v>
+        <v>187665500</v>
       </c>
       <c r="H41" s="3">
-        <v>194060900</v>
+        <v>200065200</v>
       </c>
       <c r="I41" s="3">
-        <v>142289800</v>
+        <v>187692600</v>
       </c>
       <c r="J41" s="3">
+        <v>137620400</v>
+      </c>
+      <c r="K41" s="3">
         <v>160626300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>205606000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>189379200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>224065000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>223249900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>222838000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>228478400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>248938600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>253182700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>229323500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>255268400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>210653100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>212886900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>567838700</v>
+        <v>560057300</v>
       </c>
       <c r="E42" s="3">
-        <v>589600400</v>
+        <v>549204400</v>
       </c>
       <c r="F42" s="3">
-        <v>638744900</v>
+        <v>570252000</v>
       </c>
       <c r="G42" s="3">
-        <v>655940800</v>
+        <v>617783700</v>
       </c>
       <c r="H42" s="3">
-        <v>688358600</v>
+        <v>634415300</v>
       </c>
       <c r="I42" s="3">
-        <v>770816300</v>
+        <v>665769300</v>
       </c>
       <c r="J42" s="3">
+        <v>745521000</v>
+      </c>
+      <c r="K42" s="3">
         <v>647419900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>844378300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>764585900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>754124000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>709886700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>662362500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>684587600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>720950100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>857440500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>785621900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>805357700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>892835100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>929369900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2755,8 +2847,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2820,8 +2915,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2885,8 +2983,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2950,203 +3051,215 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1295800</v>
+        <v>1220600</v>
       </c>
       <c r="E47" s="3">
-        <v>1239800</v>
+        <v>1253300</v>
       </c>
       <c r="F47" s="3">
-        <v>1051800</v>
+        <v>1199100</v>
       </c>
       <c r="G47" s="3">
-        <v>1075200</v>
+        <v>1017300</v>
       </c>
       <c r="H47" s="3">
-        <v>1107900</v>
+        <v>1039900</v>
       </c>
       <c r="I47" s="3">
-        <v>1069300</v>
+        <v>1071500</v>
       </c>
       <c r="J47" s="3">
+        <v>1034300</v>
+      </c>
+      <c r="K47" s="3">
         <v>1084500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1118400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1081100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1101700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1039800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>940400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>934400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>986000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>971600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1026600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1063600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1150300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1205500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6278300</v>
+        <v>6003400</v>
       </c>
       <c r="E48" s="3">
-        <v>6370600</v>
+        <v>6072300</v>
       </c>
       <c r="F48" s="3">
-        <v>6478000</v>
+        <v>6161500</v>
       </c>
       <c r="G48" s="3">
-        <v>6725400</v>
+        <v>6265400</v>
       </c>
       <c r="H48" s="3">
-        <v>5622200</v>
+        <v>6504700</v>
       </c>
       <c r="I48" s="3">
-        <v>5605900</v>
+        <v>5437700</v>
       </c>
       <c r="J48" s="3">
+        <v>5421900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5755300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6297700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6274900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6506100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2863800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2775600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2788900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2693400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2987900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3110200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3081000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3324200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3291400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7992100</v>
+        <v>7593200</v>
       </c>
       <c r="E49" s="3">
-        <v>7999100</v>
+        <v>7729800</v>
       </c>
       <c r="F49" s="3">
-        <v>7850800</v>
+        <v>7736600</v>
       </c>
       <c r="G49" s="3">
-        <v>7878900</v>
+        <v>7593200</v>
       </c>
       <c r="H49" s="3">
-        <v>8055100</v>
+        <v>7620300</v>
       </c>
       <c r="I49" s="3">
-        <v>8168400</v>
+        <v>7790800</v>
       </c>
       <c r="J49" s="3">
+        <v>7900300</v>
+      </c>
+      <c r="K49" s="3">
         <v>8205700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9371200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9067700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>10984700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>10812900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10030400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9862200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9608600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9917300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9843200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9911700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10610100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10543200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3210,8 +3323,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3275,73 +3391,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6876000</v>
+        <v>6639100</v>
       </c>
       <c r="E52" s="3">
-        <v>6927400</v>
+        <v>6650400</v>
       </c>
       <c r="F52" s="3">
-        <v>7072200</v>
+        <v>6700100</v>
       </c>
       <c r="G52" s="3">
-        <v>7132900</v>
+        <v>6840100</v>
       </c>
       <c r="H52" s="3">
-        <v>6964800</v>
+        <v>6898800</v>
       </c>
       <c r="I52" s="3">
-        <v>6862000</v>
+        <v>6736200</v>
       </c>
       <c r="J52" s="3">
+        <v>6636800</v>
+      </c>
+      <c r="K52" s="3">
         <v>6988100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>7394000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6532500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>8867400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>11721400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15922900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10640700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>10177400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7678900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9295700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9479700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10552600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10833100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3405,73 +3527,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1541429500</v>
+        <v>1497252100</v>
       </c>
       <c r="E54" s="3">
-        <v>1537626100</v>
+        <v>1490845600</v>
       </c>
       <c r="F54" s="3">
-        <v>1547120600</v>
+        <v>1487167000</v>
       </c>
       <c r="G54" s="3">
-        <v>1620121100</v>
+        <v>1496349900</v>
       </c>
       <c r="H54" s="3">
-        <v>1642891400</v>
+        <v>1566954800</v>
       </c>
       <c r="I54" s="3">
-        <v>1740845300</v>
+        <v>1588977900</v>
       </c>
       <c r="J54" s="3">
+        <v>1683717300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1514917600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3495,8 +3623,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3520,8 +3649,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3531,11 +3661,11 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>2031300</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1964600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -3555,38 +3685,41 @@
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>2940700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2523100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2478200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2882300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2943000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2793800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3097800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3379400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3183400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3650,73 +3783,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1016800</v>
+        <v>896500</v>
       </c>
       <c r="E59" s="3">
-        <v>900100</v>
+        <v>983400</v>
       </c>
       <c r="F59" s="3">
-        <v>670100</v>
+        <v>870500</v>
       </c>
       <c r="G59" s="3">
-        <v>803200</v>
+        <v>648100</v>
       </c>
       <c r="H59" s="3">
-        <v>895400</v>
+        <v>776800</v>
       </c>
       <c r="I59" s="3">
-        <v>761200</v>
+        <v>866000</v>
       </c>
       <c r="J59" s="3">
+        <v>736200</v>
+      </c>
+      <c r="K59" s="3">
         <v>760000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>851400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2138700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1063400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1116700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>985800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1012400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1213300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1123100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1205000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1212900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1304100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1560000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3780,138 +3919,147 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>237105600</v>
+        <v>235286400</v>
       </c>
       <c r="E61" s="3">
-        <v>231778700</v>
+        <v>229324700</v>
       </c>
       <c r="F61" s="3">
-        <v>230056800</v>
+        <v>224172600</v>
       </c>
       <c r="G61" s="3">
-        <v>243599900</v>
+        <v>222507200</v>
       </c>
       <c r="H61" s="3">
-        <v>243391000</v>
+        <v>235605900</v>
       </c>
       <c r="I61" s="3">
-        <v>233086200</v>
+        <v>235403800</v>
       </c>
       <c r="J61" s="3">
+        <v>225437200</v>
+      </c>
+      <c r="K61" s="3">
         <v>220428000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>255682400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>238475100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>267994300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>190280100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>179290500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>183304500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>188645200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>192592900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>192494200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>199071300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>218534100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>217392000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3578100</v>
+        <v>3424600</v>
       </c>
       <c r="E62" s="3">
-        <v>3845400</v>
+        <v>3460700</v>
       </c>
       <c r="F62" s="3">
-        <v>14990700</v>
+        <v>3719300</v>
       </c>
       <c r="G62" s="3">
-        <v>3666800</v>
+        <v>14498800</v>
       </c>
       <c r="H62" s="3">
-        <v>3742700</v>
+        <v>3546500</v>
       </c>
       <c r="I62" s="3">
-        <v>3970400</v>
+        <v>3619900</v>
       </c>
       <c r="J62" s="3">
+        <v>3840100</v>
+      </c>
+      <c r="K62" s="3">
         <v>3697200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3912600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3751500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>4158000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5281600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9456700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7174300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>9655800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5071400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6957500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7417500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9514900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>14273500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3975,8 +4123,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4040,8 +4191,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4105,73 +4259,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1467139000</v>
+        <v>1424649800</v>
       </c>
       <c r="E66" s="3">
-        <v>1465345900</v>
+        <v>1418993000</v>
       </c>
       <c r="F66" s="3">
-        <v>1476365100</v>
+        <v>1417258700</v>
       </c>
       <c r="G66" s="3">
-        <v>1549385400</v>
+        <v>1427916300</v>
       </c>
       <c r="H66" s="3">
-        <v>1571482100</v>
+        <v>1498540400</v>
       </c>
       <c r="I66" s="3">
-        <v>1668786900</v>
+        <v>1519912000</v>
       </c>
       <c r="J66" s="3">
+        <v>1614023600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1444263600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4195,8 +4355,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4260,8 +4421,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4325,8 +4489,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4390,8 +4557,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4455,73 +4625,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13775400</v>
+        <v>13754700</v>
       </c>
       <c r="E72" s="3">
-        <v>12988600</v>
+        <v>13323400</v>
       </c>
       <c r="F72" s="3">
-        <v>11690400</v>
+        <v>12562400</v>
       </c>
       <c r="G72" s="3">
-        <v>11202500</v>
+        <v>11306800</v>
       </c>
       <c r="H72" s="3">
-        <v>11060000</v>
+        <v>10834800</v>
       </c>
       <c r="I72" s="3">
-        <v>11428900</v>
+        <v>10697100</v>
       </c>
       <c r="J72" s="3">
+        <v>11053900</v>
+      </c>
+      <c r="K72" s="3">
         <v>11258500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>14121700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>14850900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>19841400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>19771000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>19008600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>18649500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>18846100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19583200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>22200800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>21747500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>22878700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22287100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4585,8 +4761,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4650,8 +4829,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4715,73 +4897,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>74290500</v>
+        <v>72602300</v>
       </c>
       <c r="E76" s="3">
-        <v>72280200</v>
+        <v>71852500</v>
       </c>
       <c r="F76" s="3">
-        <v>70755600</v>
+        <v>69908200</v>
       </c>
       <c r="G76" s="3">
-        <v>70735700</v>
+        <v>68433600</v>
       </c>
       <c r="H76" s="3">
-        <v>71409300</v>
+        <v>68414400</v>
       </c>
       <c r="I76" s="3">
-        <v>72058400</v>
+        <v>69065900</v>
       </c>
       <c r="J76" s="3">
+        <v>69693700</v>
+      </c>
+      <c r="K76" s="3">
         <v>70654000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>77200100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>74603800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>80850000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>79454200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74489400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73930500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>73143300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>76125900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>78925300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>79585000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>75781200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>75714300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4845,143 +5033,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>807800</v>
+        <v>220200</v>
       </c>
       <c r="E81" s="3">
-        <v>1060000</v>
+        <v>781300</v>
       </c>
       <c r="F81" s="3">
-        <v>98100</v>
+        <v>1025200</v>
       </c>
       <c r="G81" s="3">
-        <v>212500</v>
+        <v>94800</v>
       </c>
       <c r="H81" s="3">
-        <v>-89900</v>
+        <v>205500</v>
       </c>
       <c r="I81" s="3">
-        <v>-50200</v>
+        <v>-86900</v>
       </c>
       <c r="J81" s="3">
+        <v>-48600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1870200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>117200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-502700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>233700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>310700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>47200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>725900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>178400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>670200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5005,8 +5202,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5037,41 +5235,44 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N83" s="3">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>705000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>692300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>936600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>348100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>732700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>366900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>544200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>814600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>2610600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5135,8 +5336,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5200,8 +5404,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5265,8 +5472,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5330,8 +5540,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5395,8 +5608,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5427,41 +5643,44 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>22428600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>49922900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>72411200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5485,8 +5704,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5517,41 +5737,44 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-153800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-154000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-109800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-105400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-71800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-170500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-340400</v>
       </c>
       <c r="V91" s="3">
         <v>-340400</v>
       </c>
       <c r="W91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="X91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5615,8 +5838,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5680,8 +5906,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5712,41 +5941,44 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-923800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>5880900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>5028800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1605600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1331800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-448800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>252400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>11937600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5770,8 +6002,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5824,19 +6057,22 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-439800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5900,8 +6136,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5965,8 +6204,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6030,8 +6272,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6062,41 +6307,44 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-132500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-332300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-793900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>911100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-371400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>7601500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-138500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-59900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6127,41 +6375,44 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
         <v>1113100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>875000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1412000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-693700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>430800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6192,37 +6443,40 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>23560700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>55083000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>84719700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4683500</v>
+        <v>4525100</v>
       </c>
       <c r="E8" s="3">
-        <v>4459900</v>
+        <v>4309100</v>
       </c>
       <c r="F8" s="3">
-        <v>4780600</v>
+        <v>4618900</v>
       </c>
       <c r="G8" s="3">
-        <v>4353800</v>
+        <v>4206500</v>
       </c>
       <c r="H8" s="3">
-        <v>4507400</v>
+        <v>4354900</v>
       </c>
       <c r="I8" s="3">
-        <v>5069700</v>
+        <v>4898200</v>
       </c>
       <c r="J8" s="3">
-        <v>6172800</v>
+        <v>5964000</v>
       </c>
       <c r="K8" s="3">
         <v>6438300</v>
@@ -1277,25 +1277,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1683500</v>
+        <v>1626500</v>
       </c>
       <c r="E17" s="3">
-        <v>1543500</v>
+        <v>1491300</v>
       </c>
       <c r="F17" s="3">
-        <v>1695900</v>
+        <v>1638500</v>
       </c>
       <c r="G17" s="3">
-        <v>1742200</v>
+        <v>1683300</v>
       </c>
       <c r="H17" s="3">
-        <v>1856200</v>
+        <v>1793500</v>
       </c>
       <c r="I17" s="3">
-        <v>2436600</v>
+        <v>2354200</v>
       </c>
       <c r="J17" s="3">
-        <v>3073400</v>
+        <v>2969500</v>
       </c>
       <c r="K17" s="3">
         <v>2912700</v>
@@ -1345,25 +1345,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3000000</v>
+        <v>2898500</v>
       </c>
       <c r="E18" s="3">
-        <v>2916500</v>
+        <v>2817800</v>
       </c>
       <c r="F18" s="3">
-        <v>3084700</v>
+        <v>2980400</v>
       </c>
       <c r="G18" s="3">
-        <v>2611600</v>
+        <v>2523300</v>
       </c>
       <c r="H18" s="3">
-        <v>2651100</v>
+        <v>2561500</v>
       </c>
       <c r="I18" s="3">
-        <v>2633100</v>
+        <v>2544000</v>
       </c>
       <c r="J18" s="3">
-        <v>3099400</v>
+        <v>2994500</v>
       </c>
       <c r="K18" s="3">
         <v>3525600</v>
@@ -1439,25 +1439,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2373400</v>
+        <v>-2294200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1601100</v>
+        <v>-1546900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1290600</v>
+        <v>-1246900</v>
       </c>
       <c r="G20" s="3">
-        <v>-2414000</v>
+        <v>-2332400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2106900</v>
+        <v>-2035600</v>
       </c>
       <c r="I20" s="3">
-        <v>-2454700</v>
+        <v>-2371600</v>
       </c>
       <c r="J20" s="3">
-        <v>-2866800</v>
+        <v>-2769800</v>
       </c>
       <c r="K20" s="3">
         <v>-5035000</v>
@@ -1643,25 +1643,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>626700</v>
+        <v>604400</v>
       </c>
       <c r="E23" s="3">
-        <v>1315400</v>
+        <v>1270900</v>
       </c>
       <c r="F23" s="3">
-        <v>1794100</v>
+        <v>1733500</v>
       </c>
       <c r="G23" s="3">
-        <v>197600</v>
+        <v>190900</v>
       </c>
       <c r="H23" s="3">
-        <v>544200</v>
+        <v>525800</v>
       </c>
       <c r="I23" s="3">
-        <v>178400</v>
+        <v>172400</v>
       </c>
       <c r="J23" s="3">
-        <v>232600</v>
+        <v>224700</v>
       </c>
       <c r="K23" s="3">
         <v>-1509500</v>
@@ -1711,25 +1711,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>254000</v>
+        <v>245500</v>
       </c>
       <c r="E24" s="3">
-        <v>381600</v>
+        <v>368700</v>
       </c>
       <c r="F24" s="3">
-        <v>623300</v>
+        <v>602200</v>
       </c>
       <c r="G24" s="3">
-        <v>-15800</v>
+        <v>-15300</v>
       </c>
       <c r="H24" s="3">
-        <v>195300</v>
+        <v>188700</v>
       </c>
       <c r="I24" s="3">
-        <v>109500</v>
+        <v>105800</v>
       </c>
       <c r="J24" s="3">
-        <v>159200</v>
+        <v>153800</v>
       </c>
       <c r="K24" s="3">
         <v>223000</v>
@@ -1847,25 +1847,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>372600</v>
+        <v>358900</v>
       </c>
       <c r="E26" s="3">
-        <v>933800</v>
+        <v>902200</v>
       </c>
       <c r="F26" s="3">
-        <v>1170900</v>
+        <v>1131300</v>
       </c>
       <c r="G26" s="3">
-        <v>213400</v>
+        <v>206200</v>
       </c>
       <c r="H26" s="3">
-        <v>348900</v>
+        <v>337100</v>
       </c>
       <c r="I26" s="3">
-        <v>68900</v>
+        <v>66500</v>
       </c>
       <c r="J26" s="3">
-        <v>73400</v>
+        <v>70900</v>
       </c>
       <c r="K26" s="3">
         <v>-1732400</v>
@@ -1915,25 +1915,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>220200</v>
+        <v>211600</v>
       </c>
       <c r="E27" s="3">
-        <v>781300</v>
+        <v>754900</v>
       </c>
       <c r="F27" s="3">
-        <v>1025200</v>
+        <v>990500</v>
       </c>
       <c r="G27" s="3">
-        <v>94800</v>
+        <v>91600</v>
       </c>
       <c r="H27" s="3">
-        <v>205500</v>
+        <v>198500</v>
       </c>
       <c r="I27" s="3">
-        <v>-86900</v>
+        <v>-84000</v>
       </c>
       <c r="J27" s="3">
-        <v>-48600</v>
+        <v>-46900</v>
       </c>
       <c r="K27" s="3">
         <v>-1870200</v>
@@ -2255,25 +2255,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2373400</v>
+        <v>2294200</v>
       </c>
       <c r="E32" s="3">
-        <v>1601100</v>
+        <v>1546900</v>
       </c>
       <c r="F32" s="3">
-        <v>1290600</v>
+        <v>1246900</v>
       </c>
       <c r="G32" s="3">
-        <v>2414000</v>
+        <v>2332400</v>
       </c>
       <c r="H32" s="3">
-        <v>2106900</v>
+        <v>2035600</v>
       </c>
       <c r="I32" s="3">
-        <v>2454700</v>
+        <v>2371600</v>
       </c>
       <c r="J32" s="3">
-        <v>2866800</v>
+        <v>2769800</v>
       </c>
       <c r="K32" s="3">
         <v>5035000</v>
@@ -2323,25 +2323,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>220200</v>
+        <v>211600</v>
       </c>
       <c r="E33" s="3">
-        <v>781300</v>
+        <v>754900</v>
       </c>
       <c r="F33" s="3">
-        <v>1025200</v>
+        <v>990500</v>
       </c>
       <c r="G33" s="3">
-        <v>94800</v>
+        <v>91600</v>
       </c>
       <c r="H33" s="3">
-        <v>205500</v>
+        <v>198500</v>
       </c>
       <c r="I33" s="3">
-        <v>-86900</v>
+        <v>-84000</v>
       </c>
       <c r="J33" s="3">
-        <v>-48600</v>
+        <v>-46900</v>
       </c>
       <c r="K33" s="3">
         <v>-1870200</v>
@@ -2459,25 +2459,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>220200</v>
+        <v>211600</v>
       </c>
       <c r="E35" s="3">
-        <v>781300</v>
+        <v>754900</v>
       </c>
       <c r="F35" s="3">
-        <v>1025200</v>
+        <v>990500</v>
       </c>
       <c r="G35" s="3">
-        <v>94800</v>
+        <v>91600</v>
       </c>
       <c r="H35" s="3">
-        <v>205500</v>
+        <v>198500</v>
       </c>
       <c r="I35" s="3">
-        <v>-86900</v>
+        <v>-84000</v>
       </c>
       <c r="J35" s="3">
-        <v>-48600</v>
+        <v>-46900</v>
       </c>
       <c r="K35" s="3">
         <v>-1870200</v>
@@ -2652,25 +2652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>222310800</v>
+        <v>214791500</v>
       </c>
       <c r="E41" s="3">
-        <v>223864400</v>
+        <v>216292500</v>
       </c>
       <c r="F41" s="3">
-        <v>203216500</v>
+        <v>196343100</v>
       </c>
       <c r="G41" s="3">
-        <v>187665500</v>
+        <v>181318000</v>
       </c>
       <c r="H41" s="3">
-        <v>200065200</v>
+        <v>193298300</v>
       </c>
       <c r="I41" s="3">
-        <v>187692600</v>
+        <v>181344200</v>
       </c>
       <c r="J41" s="3">
-        <v>137620400</v>
+        <v>132965600</v>
       </c>
       <c r="K41" s="3">
         <v>160626300</v>
@@ -2720,25 +2720,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>560057300</v>
+        <v>541114300</v>
       </c>
       <c r="E42" s="3">
-        <v>549204400</v>
+        <v>530628400</v>
       </c>
       <c r="F42" s="3">
-        <v>570252000</v>
+        <v>550964100</v>
       </c>
       <c r="G42" s="3">
-        <v>617783700</v>
+        <v>596888100</v>
       </c>
       <c r="H42" s="3">
-        <v>634415300</v>
+        <v>612957200</v>
       </c>
       <c r="I42" s="3">
-        <v>665769300</v>
+        <v>643250700</v>
       </c>
       <c r="J42" s="3">
-        <v>745521000</v>
+        <v>720305000</v>
       </c>
       <c r="K42" s="3">
         <v>647419900</v>
@@ -3060,25 +3060,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1220600</v>
+        <v>1179300</v>
       </c>
       <c r="E47" s="3">
-        <v>1253300</v>
+        <v>1210900</v>
       </c>
       <c r="F47" s="3">
-        <v>1199100</v>
+        <v>1158500</v>
       </c>
       <c r="G47" s="3">
-        <v>1017300</v>
+        <v>982900</v>
       </c>
       <c r="H47" s="3">
-        <v>1039900</v>
+        <v>1004700</v>
       </c>
       <c r="I47" s="3">
-        <v>1071500</v>
+        <v>1035300</v>
       </c>
       <c r="J47" s="3">
-        <v>1034300</v>
+        <v>999300</v>
       </c>
       <c r="K47" s="3">
         <v>1084500</v>
@@ -3128,25 +3128,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6003400</v>
+        <v>5800400</v>
       </c>
       <c r="E48" s="3">
-        <v>6072300</v>
+        <v>5866900</v>
       </c>
       <c r="F48" s="3">
-        <v>6161500</v>
+        <v>5953100</v>
       </c>
       <c r="G48" s="3">
-        <v>6265400</v>
+        <v>6053500</v>
       </c>
       <c r="H48" s="3">
-        <v>6504700</v>
+        <v>6284700</v>
       </c>
       <c r="I48" s="3">
-        <v>5437700</v>
+        <v>5253800</v>
       </c>
       <c r="J48" s="3">
-        <v>5421900</v>
+        <v>5238500</v>
       </c>
       <c r="K48" s="3">
         <v>5755300</v>
@@ -3196,25 +3196,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7593200</v>
+        <v>7336400</v>
       </c>
       <c r="E49" s="3">
-        <v>7729800</v>
+        <v>7468400</v>
       </c>
       <c r="F49" s="3">
-        <v>7736600</v>
+        <v>7474900</v>
       </c>
       <c r="G49" s="3">
-        <v>7593200</v>
+        <v>7336400</v>
       </c>
       <c r="H49" s="3">
-        <v>7620300</v>
+        <v>7362600</v>
       </c>
       <c r="I49" s="3">
-        <v>7790800</v>
+        <v>7527300</v>
       </c>
       <c r="J49" s="3">
-        <v>7900300</v>
+        <v>7633100</v>
       </c>
       <c r="K49" s="3">
         <v>8205700</v>
@@ -3400,25 +3400,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6639100</v>
+        <v>6414600</v>
       </c>
       <c r="E52" s="3">
-        <v>6650400</v>
+        <v>6425500</v>
       </c>
       <c r="F52" s="3">
-        <v>6700100</v>
+        <v>6473500</v>
       </c>
       <c r="G52" s="3">
-        <v>6840100</v>
+        <v>6608700</v>
       </c>
       <c r="H52" s="3">
-        <v>6898800</v>
+        <v>6665500</v>
       </c>
       <c r="I52" s="3">
-        <v>6736200</v>
+        <v>6508400</v>
       </c>
       <c r="J52" s="3">
-        <v>6636800</v>
+        <v>6412400</v>
       </c>
       <c r="K52" s="3">
         <v>6988100</v>
@@ -3536,25 +3536,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1497252100</v>
+        <v>1446609900</v>
       </c>
       <c r="E54" s="3">
-        <v>1490845600</v>
+        <v>1440420100</v>
       </c>
       <c r="F54" s="3">
-        <v>1487167000</v>
+        <v>1436865900</v>
       </c>
       <c r="G54" s="3">
-        <v>1496349900</v>
+        <v>1445738300</v>
       </c>
       <c r="H54" s="3">
-        <v>1566954800</v>
+        <v>1513955100</v>
       </c>
       <c r="I54" s="3">
-        <v>1588977900</v>
+        <v>1535233300</v>
       </c>
       <c r="J54" s="3">
-        <v>1683717300</v>
+        <v>1626768300</v>
       </c>
       <c r="K54" s="3">
         <v>1514917600</v>
@@ -3665,7 +3665,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>1964600</v>
+        <v>1898200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -3792,25 +3792,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>896500</v>
+        <v>866200</v>
       </c>
       <c r="E59" s="3">
-        <v>983400</v>
+        <v>950200</v>
       </c>
       <c r="F59" s="3">
-        <v>870500</v>
+        <v>841100</v>
       </c>
       <c r="G59" s="3">
-        <v>648100</v>
+        <v>626200</v>
       </c>
       <c r="H59" s="3">
-        <v>776800</v>
+        <v>750500</v>
       </c>
       <c r="I59" s="3">
-        <v>866000</v>
+        <v>836700</v>
       </c>
       <c r="J59" s="3">
-        <v>736200</v>
+        <v>711300</v>
       </c>
       <c r="K59" s="3">
         <v>760000</v>
@@ -3928,25 +3928,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>235286400</v>
+        <v>227328200</v>
       </c>
       <c r="E61" s="3">
-        <v>229324700</v>
+        <v>221568200</v>
       </c>
       <c r="F61" s="3">
-        <v>224172600</v>
+        <v>216590400</v>
       </c>
       <c r="G61" s="3">
-        <v>222507200</v>
+        <v>214981300</v>
       </c>
       <c r="H61" s="3">
-        <v>235605900</v>
+        <v>227636900</v>
       </c>
       <c r="I61" s="3">
-        <v>235403800</v>
+        <v>227441600</v>
       </c>
       <c r="J61" s="3">
-        <v>225437200</v>
+        <v>217812200</v>
       </c>
       <c r="K61" s="3">
         <v>220428000</v>
@@ -3996,25 +3996,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3424600</v>
+        <v>3308700</v>
       </c>
       <c r="E62" s="3">
-        <v>3460700</v>
+        <v>3343600</v>
       </c>
       <c r="F62" s="3">
-        <v>3719300</v>
+        <v>3593500</v>
       </c>
       <c r="G62" s="3">
-        <v>14498800</v>
+        <v>14008400</v>
       </c>
       <c r="H62" s="3">
-        <v>3546500</v>
+        <v>3426500</v>
       </c>
       <c r="I62" s="3">
-        <v>3619900</v>
+        <v>3497500</v>
       </c>
       <c r="J62" s="3">
-        <v>3840100</v>
+        <v>3710200</v>
       </c>
       <c r="K62" s="3">
         <v>3697200</v>
@@ -4268,25 +4268,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1424649800</v>
+        <v>1376463300</v>
       </c>
       <c r="E66" s="3">
-        <v>1418993000</v>
+        <v>1370997900</v>
       </c>
       <c r="F66" s="3">
-        <v>1417258700</v>
+        <v>1369322200</v>
       </c>
       <c r="G66" s="3">
-        <v>1427916300</v>
+        <v>1379619300</v>
       </c>
       <c r="H66" s="3">
-        <v>1498540400</v>
+        <v>1447854700</v>
       </c>
       <c r="I66" s="3">
-        <v>1519912000</v>
+        <v>1468503400</v>
       </c>
       <c r="J66" s="3">
-        <v>1614023600</v>
+        <v>1559431800</v>
       </c>
       <c r="K66" s="3">
         <v>1444263600</v>
@@ -4634,25 +4634,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13754700</v>
+        <v>13289500</v>
       </c>
       <c r="E72" s="3">
-        <v>13323400</v>
+        <v>12872700</v>
       </c>
       <c r="F72" s="3">
-        <v>12562400</v>
+        <v>12137500</v>
       </c>
       <c r="G72" s="3">
-        <v>11306800</v>
+        <v>10924400</v>
       </c>
       <c r="H72" s="3">
-        <v>10834800</v>
+        <v>10468400</v>
       </c>
       <c r="I72" s="3">
-        <v>10697100</v>
+        <v>10335300</v>
       </c>
       <c r="J72" s="3">
-        <v>11053900</v>
+        <v>10680000</v>
       </c>
       <c r="K72" s="3">
         <v>11258500</v>
@@ -4906,25 +4906,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>72602300</v>
+        <v>70146600</v>
       </c>
       <c r="E76" s="3">
-        <v>71852500</v>
+        <v>69422200</v>
       </c>
       <c r="F76" s="3">
-        <v>69908200</v>
+        <v>67543700</v>
       </c>
       <c r="G76" s="3">
-        <v>68433600</v>
+        <v>66119000</v>
       </c>
       <c r="H76" s="3">
-        <v>68414400</v>
+        <v>66100400</v>
       </c>
       <c r="I76" s="3">
-        <v>69065900</v>
+        <v>66729900</v>
       </c>
       <c r="J76" s="3">
-        <v>69693700</v>
+        <v>67336400</v>
       </c>
       <c r="K76" s="3">
         <v>70654000</v>
@@ -5115,25 +5115,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>220200</v>
+        <v>211600</v>
       </c>
       <c r="E81" s="3">
-        <v>781300</v>
+        <v>754900</v>
       </c>
       <c r="F81" s="3">
-        <v>1025200</v>
+        <v>990500</v>
       </c>
       <c r="G81" s="3">
-        <v>94800</v>
+        <v>91600</v>
       </c>
       <c r="H81" s="3">
-        <v>205500</v>
+        <v>198500</v>
       </c>
       <c r="I81" s="3">
-        <v>-86900</v>
+        <v>-84000</v>
       </c>
       <c r="J81" s="3">
-        <v>-48600</v>
+        <v>-46900</v>
       </c>
       <c r="K81" s="3">
         <v>-1870200</v>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,169 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4525100</v>
+        <v>4592700</v>
       </c>
       <c r="E8" s="3">
-        <v>4309100</v>
+        <v>4429800</v>
       </c>
       <c r="F8" s="3">
-        <v>4618900</v>
+        <v>4305200</v>
       </c>
       <c r="G8" s="3">
-        <v>4206500</v>
+        <v>4099700</v>
       </c>
       <c r="H8" s="3">
-        <v>4354900</v>
+        <v>4394500</v>
       </c>
       <c r="I8" s="3">
+        <v>4002100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4143300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4898200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5964000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>6438300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7751700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8073600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7778900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7110400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6720900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7042600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6582500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5961100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6681500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>7024800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>7056900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>7657900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -882,8 +894,14 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +968,14 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1000,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1044,8 +1070,14 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1112,8 +1144,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,8 +1218,14 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1248,8 +1292,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1321,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1626500</v>
+        <v>1909700</v>
       </c>
       <c r="E17" s="3">
-        <v>1491300</v>
+        <v>1659600</v>
       </c>
       <c r="F17" s="3">
-        <v>1638500</v>
+        <v>1547500</v>
       </c>
       <c r="G17" s="3">
-        <v>1683300</v>
+        <v>1418800</v>
       </c>
       <c r="H17" s="3">
-        <v>1793500</v>
+        <v>1558900</v>
       </c>
       <c r="I17" s="3">
+        <v>1601500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1706300</v>
+      </c>
+      <c r="K17" s="3">
         <v>2354200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2969500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2912700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3733800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3942100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3931900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3275500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3102400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3343400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3438900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2729800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3263900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3657700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3624700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4049600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2898500</v>
+        <v>2683000</v>
       </c>
       <c r="E18" s="3">
-        <v>2817800</v>
+        <v>2770200</v>
       </c>
       <c r="F18" s="3">
-        <v>2980400</v>
+        <v>2757700</v>
       </c>
       <c r="G18" s="3">
-        <v>2523300</v>
+        <v>2680900</v>
       </c>
       <c r="H18" s="3">
-        <v>2561500</v>
+        <v>2835500</v>
       </c>
       <c r="I18" s="3">
+        <v>2400700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2437000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2544000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2994500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3525600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>4018000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>4131500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3847000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3835000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>3618500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>3699200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3143600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3231300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3417600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3367100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3432200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3608300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1433,76 +1497,84 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2294200</v>
+        <v>-962100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1546900</v>
+        <v>-2685000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1246900</v>
+        <v>-2182700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2332400</v>
+        <v>-1471700</v>
       </c>
       <c r="H20" s="3">
-        <v>-2035600</v>
+        <v>-1186300</v>
       </c>
       <c r="I20" s="3">
+        <v>-2219000</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-1936700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2371600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2769800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-5035000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1539,38 +1611,44 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>326500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1252700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1717300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>822400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-843700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1413700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1466400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1845200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-225400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1637,144 +1715,162 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>604400</v>
+        <v>1720800</v>
       </c>
       <c r="E23" s="3">
-        <v>1270900</v>
+        <v>85100</v>
       </c>
       <c r="F23" s="3">
-        <v>1733500</v>
+        <v>575000</v>
       </c>
       <c r="G23" s="3">
-        <v>190900</v>
+        <v>1209200</v>
       </c>
       <c r="H23" s="3">
-        <v>525800</v>
+        <v>1649200</v>
       </c>
       <c r="I23" s="3">
+        <v>181600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>500300</v>
+      </c>
+      <c r="K23" s="3">
         <v>172400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>224700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1509500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-841600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>350500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-378500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>560400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>780700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>474300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>1046800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>922300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1030600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>245500</v>
+        <v>447300</v>
       </c>
       <c r="E24" s="3">
-        <v>368700</v>
+        <v>-242900</v>
       </c>
       <c r="F24" s="3">
-        <v>602200</v>
+        <v>233500</v>
       </c>
       <c r="G24" s="3">
-        <v>-15300</v>
+        <v>350800</v>
       </c>
       <c r="H24" s="3">
-        <v>188700</v>
+        <v>572900</v>
       </c>
       <c r="I24" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>179600</v>
+      </c>
+      <c r="K24" s="3">
         <v>105800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>153800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>223000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>177600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2592800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>108900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>105300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>306800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>340400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>342600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>1143300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>318600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>400600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>355700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-616300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1841,144 +1937,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>358900</v>
+        <v>1273500</v>
       </c>
       <c r="E26" s="3">
-        <v>902200</v>
+        <v>328000</v>
       </c>
       <c r="F26" s="3">
-        <v>1131300</v>
+        <v>341500</v>
       </c>
       <c r="G26" s="3">
-        <v>206200</v>
+        <v>858300</v>
       </c>
       <c r="H26" s="3">
-        <v>337100</v>
+        <v>1076300</v>
       </c>
       <c r="I26" s="3">
+        <v>196200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>320700</v>
+      </c>
+      <c r="K26" s="3">
         <v>66500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>70900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1732400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>241600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-483800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>253600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>440300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>131800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>728200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>521700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>674900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>211600</v>
+        <v>1100200</v>
       </c>
       <c r="E27" s="3">
-        <v>754900</v>
+        <v>215900</v>
       </c>
       <c r="F27" s="3">
-        <v>990500</v>
+        <v>201400</v>
       </c>
       <c r="G27" s="3">
-        <v>91600</v>
+        <v>718200</v>
       </c>
       <c r="H27" s="3">
-        <v>198500</v>
+        <v>942400</v>
       </c>
       <c r="I27" s="3">
+        <v>87200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-84000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-46900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1870200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>117200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-502700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>233700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>310700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>47200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>725900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>178400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>670200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2045,8 +2159,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2077,11 +2197,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -2095,15 +2215,15 @@
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2113,8 +2233,14 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2307,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2381,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2294200</v>
+        <v>962100</v>
       </c>
       <c r="E32" s="3">
-        <v>1546900</v>
+        <v>2685000</v>
       </c>
       <c r="F32" s="3">
-        <v>1246900</v>
+        <v>2182700</v>
       </c>
       <c r="G32" s="3">
-        <v>2332400</v>
+        <v>1471700</v>
       </c>
       <c r="H32" s="3">
-        <v>2035600</v>
+        <v>1186300</v>
       </c>
       <c r="I32" s="3">
+        <v>2219000</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1936700</v>
+      </c>
+      <c r="K32" s="3">
         <v>2371600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2769800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>5035000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4859500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>5244400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3496500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>4213500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>3058100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>2918500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2669200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>4807700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>2370800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2444800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2401600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>6444200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>211600</v>
+        <v>1100200</v>
       </c>
       <c r="E33" s="3">
-        <v>754900</v>
+        <v>215900</v>
       </c>
       <c r="F33" s="3">
-        <v>990500</v>
+        <v>201400</v>
       </c>
       <c r="G33" s="3">
-        <v>91600</v>
+        <v>718200</v>
       </c>
       <c r="H33" s="3">
-        <v>198500</v>
+        <v>942400</v>
       </c>
       <c r="I33" s="3">
+        <v>87200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-84000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-46900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1870200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>117200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-502700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>233700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>310700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>47200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>725900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>178400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>670200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2603,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>211600</v>
+        <v>1100200</v>
       </c>
       <c r="E35" s="3">
-        <v>754900</v>
+        <v>215900</v>
       </c>
       <c r="F35" s="3">
-        <v>990500</v>
+        <v>201400</v>
       </c>
       <c r="G35" s="3">
-        <v>91600</v>
+        <v>718200</v>
       </c>
       <c r="H35" s="3">
-        <v>198500</v>
+        <v>942400</v>
       </c>
       <c r="I35" s="3">
+        <v>87200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-84000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-46900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1870200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>117200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-502700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>233700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>310700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>47200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>725900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>178400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>670200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2788,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,144 +2816,158 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>214791500</v>
+        <v>173752800</v>
       </c>
       <c r="E41" s="3">
-        <v>216292500</v>
+        <v>199298600</v>
       </c>
       <c r="F41" s="3">
-        <v>196343100</v>
+        <v>204354200</v>
       </c>
       <c r="G41" s="3">
-        <v>181318000</v>
+        <v>205782400</v>
       </c>
       <c r="H41" s="3">
-        <v>193298300</v>
+        <v>186802300</v>
       </c>
       <c r="I41" s="3">
+        <v>172507300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>183905500</v>
+      </c>
+      <c r="K41" s="3">
         <v>181344200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>132965600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>160626300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>205606000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>189379200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>224065000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>223249900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>222838000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>228478400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>248938600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>253182700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>229323500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>255268400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>210653100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>212886900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>541114300</v>
+        <v>526207000</v>
       </c>
       <c r="E42" s="3">
-        <v>530628400</v>
+        <v>527499200</v>
       </c>
       <c r="F42" s="3">
-        <v>550964100</v>
+        <v>514820200</v>
       </c>
       <c r="G42" s="3">
-        <v>596888100</v>
+        <v>504843900</v>
       </c>
       <c r="H42" s="3">
-        <v>612957200</v>
+        <v>524191400</v>
       </c>
       <c r="I42" s="3">
+        <v>567883900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>583172100</v>
+      </c>
+      <c r="K42" s="3">
         <v>643250700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>720305000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>647419900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>844378300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>764585900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>754124000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>709886700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>662362500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>684587600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>720950100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>857440500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>785621900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>805357700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>892835100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>929369900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,8 +3034,14 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2918,8 +3108,14 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2986,8 +3182,14 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3054,212 +3256,236 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1179300</v>
+        <v>1109500</v>
       </c>
       <c r="E47" s="3">
-        <v>1210900</v>
+        <v>1132300</v>
       </c>
       <c r="F47" s="3">
-        <v>1158500</v>
+        <v>1122000</v>
       </c>
       <c r="G47" s="3">
-        <v>982900</v>
+        <v>1152100</v>
       </c>
       <c r="H47" s="3">
-        <v>1004700</v>
+        <v>1102200</v>
       </c>
       <c r="I47" s="3">
+        <v>935100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>955900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1035300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>999300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>1084500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>1118400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1081100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>1101700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1039800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>940400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>934400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>986000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>971600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>1026600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>1063600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>1150300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>1205500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800400</v>
+        <v>5773800</v>
       </c>
       <c r="E48" s="3">
-        <v>5866900</v>
+        <v>5745800</v>
       </c>
       <c r="F48" s="3">
-        <v>5953100</v>
+        <v>5518500</v>
       </c>
       <c r="G48" s="3">
-        <v>6053500</v>
+        <v>5581800</v>
       </c>
       <c r="H48" s="3">
-        <v>6284700</v>
+        <v>5663800</v>
       </c>
       <c r="I48" s="3">
+        <v>5759300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5979300</v>
+      </c>
+      <c r="K48" s="3">
         <v>5253800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5238500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5755300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6297700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6274900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6506100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2863800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2775600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2788900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2693400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2987900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3110200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3081000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3324200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3291400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7336400</v>
+        <v>7163600</v>
       </c>
       <c r="E49" s="3">
-        <v>7468400</v>
+        <v>7082600</v>
       </c>
       <c r="F49" s="3">
-        <v>7474900</v>
+        <v>6979900</v>
       </c>
       <c r="G49" s="3">
-        <v>7336400</v>
+        <v>7105500</v>
       </c>
       <c r="H49" s="3">
-        <v>7362600</v>
+        <v>7111700</v>
       </c>
       <c r="I49" s="3">
+        <v>6979900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7004800</v>
+      </c>
+      <c r="K49" s="3">
         <v>7527300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7633100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8205700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>9371200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9067700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>10984700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>10812900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>10030400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9862200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>9608600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>9917300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>9843200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9911700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>10610100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>10543200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3552,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3626,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6414600</v>
+        <v>6647700</v>
       </c>
       <c r="E52" s="3">
-        <v>6425500</v>
+        <v>6453700</v>
       </c>
       <c r="F52" s="3">
-        <v>6473500</v>
+        <v>6102900</v>
       </c>
       <c r="G52" s="3">
-        <v>6608700</v>
+        <v>6113200</v>
       </c>
       <c r="H52" s="3">
-        <v>6665500</v>
+        <v>6158900</v>
       </c>
       <c r="I52" s="3">
+        <v>6287600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6341600</v>
+      </c>
+      <c r="K52" s="3">
         <v>6508400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6412400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6988100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>7394000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6532500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>8867400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>11721400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>15922900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10640700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>10177400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>7678900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>9295700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>9479700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>10552600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>10833100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3774,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1446609900</v>
+        <v>1393968200</v>
       </c>
       <c r="E54" s="3">
-        <v>1440420100</v>
+        <v>1374172300</v>
       </c>
       <c r="F54" s="3">
-        <v>1436865900</v>
+        <v>1376315600</v>
       </c>
       <c r="G54" s="3">
-        <v>1445738300</v>
+        <v>1370426600</v>
       </c>
       <c r="H54" s="3">
-        <v>1513955100</v>
+        <v>1367045100</v>
       </c>
       <c r="I54" s="3">
+        <v>1375486300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1440388300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1535233300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1626768300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1514917600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3880,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,28 +3908,30 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3">
+        <v>1686600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>1898200</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+      <c r="I57" s="3">
+        <v>1805900</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
@@ -3688,38 +3948,44 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2940700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2523100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2478200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2882300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2943000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2793800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3097800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3379400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3183400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3786,76 +4052,88 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>866200</v>
+        <v>734800</v>
       </c>
       <c r="E59" s="3">
-        <v>950200</v>
+        <v>622700</v>
       </c>
       <c r="F59" s="3">
-        <v>841100</v>
+        <v>824100</v>
       </c>
       <c r="G59" s="3">
-        <v>626200</v>
+        <v>904000</v>
       </c>
       <c r="H59" s="3">
-        <v>750500</v>
+        <v>800200</v>
       </c>
       <c r="I59" s="3">
+        <v>595800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>714100</v>
+      </c>
+      <c r="K59" s="3">
         <v>836700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>711300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>760000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>851400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2138700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1063400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1116700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>985800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1012400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1213300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1123100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1205000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1212900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1304100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1560000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3922,144 +4200,162 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>227328200</v>
+        <v>201375400</v>
       </c>
       <c r="E61" s="3">
-        <v>221568200</v>
+        <v>211192900</v>
       </c>
       <c r="F61" s="3">
-        <v>216590400</v>
+        <v>216281800</v>
       </c>
       <c r="G61" s="3">
-        <v>214981300</v>
+        <v>210801600</v>
       </c>
       <c r="H61" s="3">
-        <v>227636900</v>
+        <v>206065700</v>
       </c>
       <c r="I61" s="3">
+        <v>204534800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>216575500</v>
+      </c>
+      <c r="K61" s="3">
         <v>227441600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>217812200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>220428000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>255682400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>238475100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>267994300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>190280100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>179290500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>183304500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>188645200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>192592900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>192494200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>199071300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>218534100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>217392000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3308700</v>
+        <v>3961700</v>
       </c>
       <c r="E62" s="3">
-        <v>3343600</v>
+        <v>3522600</v>
       </c>
       <c r="F62" s="3">
-        <v>3593500</v>
+        <v>3148000</v>
       </c>
       <c r="G62" s="3">
-        <v>14008400</v>
+        <v>3181200</v>
       </c>
       <c r="H62" s="3">
-        <v>3426500</v>
+        <v>3418800</v>
       </c>
       <c r="I62" s="3">
+        <v>13327700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3260000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3497500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3710200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>3697200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3912600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3751500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>4158000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>5281600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9456700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>7174300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>9655800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>5071400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>6957500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>7417500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9514900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>14273500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4422,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4194,8 +4496,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4570,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1376463300</v>
+        <v>1324452800</v>
       </c>
       <c r="E66" s="3">
-        <v>1370997900</v>
+        <v>1305326400</v>
       </c>
       <c r="F66" s="3">
-        <v>1369322200</v>
+        <v>1309577600</v>
       </c>
       <c r="G66" s="3">
-        <v>1379619300</v>
+        <v>1304377700</v>
       </c>
       <c r="H66" s="3">
-        <v>1447854700</v>
+        <v>1302783500</v>
       </c>
       <c r="I66" s="3">
+        <v>1312580200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1377499800</v>
+      </c>
+      <c r="K66" s="3">
         <v>1468503400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1559431800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1444263600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4676,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4746,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4820,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4894,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4968,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13289500</v>
+        <v>14382200</v>
       </c>
       <c r="E72" s="3">
-        <v>12872700</v>
+        <v>13084800</v>
       </c>
       <c r="F72" s="3">
-        <v>12137500</v>
+        <v>12643700</v>
       </c>
       <c r="G72" s="3">
-        <v>10924400</v>
+        <v>12247200</v>
       </c>
       <c r="H72" s="3">
-        <v>10468400</v>
+        <v>11547700</v>
       </c>
       <c r="I72" s="3">
+        <v>10393500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9959700</v>
+      </c>
+      <c r="K72" s="3">
         <v>10335300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>10680000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>11258500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>14121700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>14850900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>19841400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>19771000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>19008600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>18649500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>18846100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>19583200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>22200800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>21747500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>22878700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>22287100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +5116,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5190,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5264,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70146600</v>
+        <v>69515400</v>
       </c>
       <c r="E76" s="3">
-        <v>69422200</v>
+        <v>68846000</v>
       </c>
       <c r="F76" s="3">
-        <v>67543700</v>
+        <v>66738000</v>
       </c>
       <c r="G76" s="3">
-        <v>66119000</v>
+        <v>66048800</v>
       </c>
       <c r="H76" s="3">
-        <v>66100400</v>
+        <v>64261600</v>
       </c>
       <c r="I76" s="3">
+        <v>62906100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>62888400</v>
+      </c>
+      <c r="K76" s="3">
         <v>66729900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>67336400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>70654000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>77200100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>74603800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>80850000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>79454200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>74489400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>73930500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>73143300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>76125900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>78925300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>79585000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>75781200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>75714300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5412,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>211600</v>
+        <v>1100200</v>
       </c>
       <c r="E81" s="3">
-        <v>754900</v>
+        <v>215900</v>
       </c>
       <c r="F81" s="3">
-        <v>990500</v>
+        <v>201400</v>
       </c>
       <c r="G81" s="3">
-        <v>91600</v>
+        <v>718200</v>
       </c>
       <c r="H81" s="3">
-        <v>198500</v>
+        <v>942400</v>
       </c>
       <c r="I81" s="3">
+        <v>87200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>188900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-84000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-46900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1870200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>117200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-502700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>233700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>310700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>47200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>725900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>178400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>670200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,8 +5597,10 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5238,41 +5634,47 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
         <v>705000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>692300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>936600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>348100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>732700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>366900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>544200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>814600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>2610600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5741,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5815,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5889,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5963,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,8 +6037,14 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5646,41 +6078,47 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>22428600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>49922900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>72411200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,8 +6143,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5740,41 +6180,47 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-153800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-154000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-109800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-105400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-71800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-170500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-139100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-340400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-340400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6287,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,8 +6361,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5944,41 +6402,47 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-923800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>5880900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>5028800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>1605600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1331800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-448800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>252400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>11937600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6467,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6060,19 +6526,25 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-439800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6611,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6685,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,8 +6759,14 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6310,41 +6800,47 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-132500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-332300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-793900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>911100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-371400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>7601500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-138500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-59900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6378,41 +6874,47 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q101" s="3">
         <v>1113100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>875000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>1412000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-693700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>430800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6446,37 +6948,43 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>23560700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>55083000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>84719700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,175 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4592700</v>
+        <v>5231400</v>
       </c>
       <c r="E8" s="3">
-        <v>4429800</v>
+        <v>4413500</v>
       </c>
       <c r="F8" s="3">
-        <v>4305200</v>
+        <v>4256900</v>
       </c>
       <c r="G8" s="3">
-        <v>4099700</v>
+        <v>4137200</v>
       </c>
       <c r="H8" s="3">
-        <v>4394500</v>
+        <v>3939700</v>
       </c>
       <c r="I8" s="3">
-        <v>4002100</v>
+        <v>4223000</v>
       </c>
       <c r="J8" s="3">
+        <v>3846000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4143300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4898200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5964000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6438300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7751700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8073600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7778900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7110400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6720900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7042600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6582500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5961100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6681500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7024800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7056900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7657900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -900,8 +906,11 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +983,11 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,8 +1014,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1150,8 +1166,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,8 +1243,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1298,8 +1320,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1909700</v>
+        <v>2101500</v>
       </c>
       <c r="E17" s="3">
-        <v>1659600</v>
+        <v>1835200</v>
       </c>
       <c r="F17" s="3">
-        <v>1547500</v>
+        <v>1594800</v>
       </c>
       <c r="G17" s="3">
-        <v>1418800</v>
+        <v>1487100</v>
       </c>
       <c r="H17" s="3">
-        <v>1558900</v>
+        <v>1363400</v>
       </c>
       <c r="I17" s="3">
-        <v>1601500</v>
+        <v>1498100</v>
       </c>
       <c r="J17" s="3">
+        <v>1539000</v>
+      </c>
+      <c r="K17" s="3">
         <v>1706300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2354200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2969500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2912700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3733800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3942100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3931900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3275500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3102400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3343400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3438900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2729800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3263900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3657700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3624700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4049600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2683000</v>
+        <v>3129800</v>
       </c>
       <c r="E18" s="3">
-        <v>2770200</v>
+        <v>2578300</v>
       </c>
       <c r="F18" s="3">
-        <v>2757700</v>
+        <v>2662100</v>
       </c>
       <c r="G18" s="3">
-        <v>2680900</v>
+        <v>2650100</v>
       </c>
       <c r="H18" s="3">
-        <v>2835500</v>
+        <v>2576300</v>
       </c>
       <c r="I18" s="3">
-        <v>2400700</v>
+        <v>2724900</v>
       </c>
       <c r="J18" s="3">
+        <v>2307000</v>
+      </c>
+      <c r="K18" s="3">
         <v>2437000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2544000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2994500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3525600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4018000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4131500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3847000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3835000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3618500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3699200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3143600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3231300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3417600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3367100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3432200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3608300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1499,82 +1531,86 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-962100</v>
+        <v>-1586900</v>
       </c>
       <c r="E20" s="3">
-        <v>-2685000</v>
+        <v>-924600</v>
       </c>
       <c r="F20" s="3">
-        <v>-2182700</v>
+        <v>-2580300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1471700</v>
+        <v>-2097500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1186300</v>
+        <v>-1414300</v>
       </c>
       <c r="I20" s="3">
-        <v>-2219000</v>
+        <v>-1140000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2132400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1936700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2371600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2769800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5035000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1617,38 +1653,41 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>326500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1252700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1717300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>822400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-843700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1413700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1466400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1845200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-225400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,156 +1760,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1720800</v>
+        <v>1543000</v>
       </c>
       <c r="E23" s="3">
-        <v>85100</v>
+        <v>1653700</v>
       </c>
       <c r="F23" s="3">
-        <v>575000</v>
+        <v>81800</v>
       </c>
       <c r="G23" s="3">
-        <v>1209200</v>
+        <v>552600</v>
       </c>
       <c r="H23" s="3">
-        <v>1649200</v>
+        <v>1162000</v>
       </c>
       <c r="I23" s="3">
-        <v>181600</v>
+        <v>1584900</v>
       </c>
       <c r="J23" s="3">
+        <v>174500</v>
+      </c>
+      <c r="K23" s="3">
         <v>500300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>172400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>224700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1509500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-841600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>350500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-378500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>560400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>780700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>474300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1046800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>922300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1030600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>447300</v>
+        <v>335100</v>
       </c>
       <c r="E24" s="3">
-        <v>-242900</v>
+        <v>429900</v>
       </c>
       <c r="F24" s="3">
-        <v>233500</v>
+        <v>-233400</v>
       </c>
       <c r="G24" s="3">
-        <v>350800</v>
+        <v>224400</v>
       </c>
       <c r="H24" s="3">
-        <v>572900</v>
+        <v>337100</v>
       </c>
       <c r="I24" s="3">
-        <v>-14500</v>
+        <v>550600</v>
       </c>
       <c r="J24" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="K24" s="3">
         <v>179600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>105800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>153800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>223000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>177600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2592800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>108900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>105300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>306800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>340400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>342600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1143300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>318600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>400600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>355700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-616300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1273500</v>
+        <v>1207900</v>
       </c>
       <c r="E26" s="3">
-        <v>328000</v>
+        <v>1223800</v>
       </c>
       <c r="F26" s="3">
-        <v>341500</v>
+        <v>315200</v>
       </c>
       <c r="G26" s="3">
-        <v>858300</v>
+        <v>328100</v>
       </c>
       <c r="H26" s="3">
-        <v>1076300</v>
+        <v>824800</v>
       </c>
       <c r="I26" s="3">
-        <v>196200</v>
+        <v>1034300</v>
       </c>
       <c r="J26" s="3">
+        <v>188500</v>
+      </c>
+      <c r="K26" s="3">
         <v>320700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>66500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>70900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1732400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>241600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-483800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>253600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>440300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>131800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>728200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>521700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>674900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1100200</v>
+        <v>1043300</v>
       </c>
       <c r="E27" s="3">
-        <v>215900</v>
+        <v>1057200</v>
       </c>
       <c r="F27" s="3">
-        <v>201400</v>
+        <v>207500</v>
       </c>
       <c r="G27" s="3">
-        <v>718200</v>
+        <v>193500</v>
       </c>
       <c r="H27" s="3">
-        <v>942400</v>
+        <v>690200</v>
       </c>
       <c r="I27" s="3">
-        <v>87200</v>
+        <v>905600</v>
       </c>
       <c r="J27" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K27" s="3">
         <v>188900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-84000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-46900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1870200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>117200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-502700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>233700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>310700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>47200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>725900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>178400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>670200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2203,8 +2263,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -2221,12 +2281,12 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2239,8 +2299,11 @@
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>962100</v>
+        <v>1586900</v>
       </c>
       <c r="E32" s="3">
-        <v>2685000</v>
+        <v>924600</v>
       </c>
       <c r="F32" s="3">
-        <v>2182700</v>
+        <v>2580300</v>
       </c>
       <c r="G32" s="3">
-        <v>1471700</v>
+        <v>2097500</v>
       </c>
       <c r="H32" s="3">
-        <v>1186300</v>
+        <v>1414300</v>
       </c>
       <c r="I32" s="3">
-        <v>2219000</v>
+        <v>1140000</v>
       </c>
       <c r="J32" s="3">
+        <v>2132400</v>
+      </c>
+      <c r="K32" s="3">
         <v>1936700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2371600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2769800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5035000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4859500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>5244400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3496500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4213500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3058100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2918500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2669200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4807700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2370800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2444800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2401600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6444200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1100200</v>
+        <v>1043300</v>
       </c>
       <c r="E33" s="3">
-        <v>215900</v>
+        <v>1057200</v>
       </c>
       <c r="F33" s="3">
-        <v>201400</v>
+        <v>207500</v>
       </c>
       <c r="G33" s="3">
-        <v>718200</v>
+        <v>193500</v>
       </c>
       <c r="H33" s="3">
-        <v>942400</v>
+        <v>690200</v>
       </c>
       <c r="I33" s="3">
-        <v>87200</v>
+        <v>905600</v>
       </c>
       <c r="J33" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K33" s="3">
         <v>188900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-84000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-46900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1870200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>117200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-502700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>233700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>310700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>47200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>725900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>178400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>670200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1100200</v>
+        <v>1043300</v>
       </c>
       <c r="E35" s="3">
-        <v>215900</v>
+        <v>1057200</v>
       </c>
       <c r="F35" s="3">
-        <v>201400</v>
+        <v>207500</v>
       </c>
       <c r="G35" s="3">
-        <v>718200</v>
+        <v>193500</v>
       </c>
       <c r="H35" s="3">
-        <v>942400</v>
+        <v>690200</v>
       </c>
       <c r="I35" s="3">
-        <v>87200</v>
+        <v>905600</v>
       </c>
       <c r="J35" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K35" s="3">
         <v>188900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-84000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-46900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1870200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>117200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-502700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>233700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>310700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>47200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>725900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>178400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>670200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,156 +2903,163 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>173752800</v>
+        <v>176609600</v>
       </c>
       <c r="E41" s="3">
-        <v>199298600</v>
+        <v>166972700</v>
       </c>
       <c r="F41" s="3">
-        <v>204354200</v>
+        <v>191521700</v>
       </c>
       <c r="G41" s="3">
-        <v>205782400</v>
+        <v>196380100</v>
       </c>
       <c r="H41" s="3">
-        <v>186802300</v>
+        <v>197752500</v>
       </c>
       <c r="I41" s="3">
-        <v>172507300</v>
+        <v>179513000</v>
       </c>
       <c r="J41" s="3">
+        <v>165775900</v>
+      </c>
+      <c r="K41" s="3">
         <v>183905500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>181344200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132965600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>160626300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>205606000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>189379200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>224065000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>223249900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>222838000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>228478400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>248938600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>253182700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>229323500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>255268400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>210653100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>212886900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>526207000</v>
+        <v>531551400</v>
       </c>
       <c r="E42" s="3">
-        <v>527499200</v>
+        <v>505673800</v>
       </c>
       <c r="F42" s="3">
-        <v>514820200</v>
+        <v>505687800</v>
       </c>
       <c r="G42" s="3">
-        <v>504843900</v>
+        <v>494731300</v>
       </c>
       <c r="H42" s="3">
-        <v>524191400</v>
+        <v>485144300</v>
       </c>
       <c r="I42" s="3">
-        <v>567883900</v>
+        <v>503736900</v>
       </c>
       <c r="J42" s="3">
+        <v>545724400</v>
+      </c>
+      <c r="K42" s="3">
         <v>583172100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>643250700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>720305000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>647419900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>844378300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>764585900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>754124000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>709886700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>662362500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>684587600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>720950100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>857440500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>785621900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>805357700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>892835100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>929369900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3040,8 +3132,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3114,8 +3209,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3188,8 +3286,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3262,230 +3363,242 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1109500</v>
+        <v>1181900</v>
       </c>
       <c r="E47" s="3">
-        <v>1132300</v>
+        <v>1066200</v>
       </c>
       <c r="F47" s="3">
-        <v>1122000</v>
+        <v>1088200</v>
       </c>
       <c r="G47" s="3">
-        <v>1152100</v>
+        <v>1078200</v>
       </c>
       <c r="H47" s="3">
-        <v>1102200</v>
+        <v>1107100</v>
       </c>
       <c r="I47" s="3">
-        <v>935100</v>
+        <v>1059200</v>
       </c>
       <c r="J47" s="3">
+        <v>898700</v>
+      </c>
+      <c r="K47" s="3">
         <v>955900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1035300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>999300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1084500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1118400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1081100</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1101700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1039800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>940400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>934400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>986000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>971600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1026600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1063600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1150300</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1205500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5773800</v>
+        <v>5580500</v>
       </c>
       <c r="E48" s="3">
-        <v>5745800</v>
+        <v>5548500</v>
       </c>
       <c r="F48" s="3">
-        <v>5518500</v>
+        <v>5521600</v>
       </c>
       <c r="G48" s="3">
-        <v>5581800</v>
+        <v>5303200</v>
       </c>
       <c r="H48" s="3">
-        <v>5663800</v>
+        <v>5364000</v>
       </c>
       <c r="I48" s="3">
-        <v>5759300</v>
+        <v>5442800</v>
       </c>
       <c r="J48" s="3">
+        <v>5534600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5979300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5253800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5238500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5755300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6297700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6274900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6506100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2863800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2775600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2788900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2693400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2987900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3110200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3081000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3324200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3291400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7163600</v>
+        <v>7136400</v>
       </c>
       <c r="E49" s="3">
-        <v>7082600</v>
+        <v>6884100</v>
       </c>
       <c r="F49" s="3">
-        <v>6979900</v>
+        <v>6806300</v>
       </c>
       <c r="G49" s="3">
-        <v>7105500</v>
+        <v>6707500</v>
       </c>
       <c r="H49" s="3">
-        <v>7111700</v>
+        <v>6828200</v>
       </c>
       <c r="I49" s="3">
-        <v>6979900</v>
+        <v>6834200</v>
       </c>
       <c r="J49" s="3">
+        <v>6707500</v>
+      </c>
+      <c r="K49" s="3">
         <v>7004800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7527300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7633100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8205700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9371200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9067700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>10984700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10812900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10030400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9862200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9608600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9917300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9843200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9911700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>10610100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10543200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6647700</v>
+        <v>6321500</v>
       </c>
       <c r="E52" s="3">
-        <v>6453700</v>
+        <v>6388300</v>
       </c>
       <c r="F52" s="3">
-        <v>6102900</v>
+        <v>6201800</v>
       </c>
       <c r="G52" s="3">
-        <v>6113200</v>
+        <v>5864700</v>
       </c>
       <c r="H52" s="3">
-        <v>6158900</v>
+        <v>5874700</v>
       </c>
       <c r="I52" s="3">
-        <v>6287600</v>
+        <v>5918600</v>
       </c>
       <c r="J52" s="3">
+        <v>6042200</v>
+      </c>
+      <c r="K52" s="3">
         <v>6341600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6508400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6412400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6988100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>7394000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6532500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8867400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>11721400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15922900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10640700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10177400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>7678900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9295700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9479700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10552600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10833100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1393968200</v>
+        <v>1383054700</v>
       </c>
       <c r="E54" s="3">
-        <v>1374172300</v>
+        <v>1339574000</v>
       </c>
       <c r="F54" s="3">
-        <v>1376315600</v>
+        <v>1320550600</v>
       </c>
       <c r="G54" s="3">
-        <v>1370426600</v>
+        <v>1322610200</v>
       </c>
       <c r="H54" s="3">
-        <v>1367045100</v>
+        <v>1316951000</v>
       </c>
       <c r="I54" s="3">
-        <v>1375486300</v>
+        <v>1313701500</v>
       </c>
       <c r="J54" s="3">
+        <v>1321813300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1440388300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1535233300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1626768300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1514917600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,19 +4039,20 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>1686600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1620800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -3930,11 +4060,11 @@
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>1805900</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1735500</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
@@ -3954,38 +4084,41 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R57" s="3">
         <v>2940700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2523100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2478200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2882300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2943000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2793800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3097800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3379400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3183400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4058,82 +4191,88 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>734800</v>
+        <v>688200</v>
       </c>
       <c r="E59" s="3">
-        <v>622700</v>
+        <v>706200</v>
       </c>
       <c r="F59" s="3">
-        <v>824100</v>
+        <v>598400</v>
       </c>
       <c r="G59" s="3">
-        <v>904000</v>
+        <v>791900</v>
       </c>
       <c r="H59" s="3">
-        <v>800200</v>
+        <v>868700</v>
       </c>
       <c r="I59" s="3">
-        <v>595800</v>
+        <v>769000</v>
       </c>
       <c r="J59" s="3">
+        <v>572500</v>
+      </c>
+      <c r="K59" s="3">
         <v>714100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>836700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>711300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>760000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>851400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2138700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1063400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1116700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>985800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1012400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1213300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1123100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1205000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1212900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1304100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1560000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4206,156 +4345,165 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>201375400</v>
+        <v>204014200</v>
       </c>
       <c r="E61" s="3">
-        <v>211192900</v>
+        <v>193517500</v>
       </c>
       <c r="F61" s="3">
-        <v>216281800</v>
+        <v>202951900</v>
       </c>
       <c r="G61" s="3">
-        <v>210801600</v>
+        <v>207842200</v>
       </c>
       <c r="H61" s="3">
-        <v>206065700</v>
+        <v>202575900</v>
       </c>
       <c r="I61" s="3">
-        <v>204534800</v>
+        <v>198024800</v>
       </c>
       <c r="J61" s="3">
+        <v>196553600</v>
+      </c>
+      <c r="K61" s="3">
         <v>216575500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>227441600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>217812200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>220428000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>255682400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>238475100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>267994300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>190280100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>179290500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>183304500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>188645200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>192592900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>192494200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>199071300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>218534100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>217392000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3961700</v>
+        <v>3412100</v>
       </c>
       <c r="E62" s="3">
-        <v>3522600</v>
+        <v>3807100</v>
       </c>
       <c r="F62" s="3">
-        <v>3148000</v>
+        <v>3385200</v>
       </c>
       <c r="G62" s="3">
-        <v>3181200</v>
+        <v>3025100</v>
       </c>
       <c r="H62" s="3">
-        <v>3418800</v>
+        <v>3057000</v>
       </c>
       <c r="I62" s="3">
-        <v>13327700</v>
+        <v>3285400</v>
       </c>
       <c r="J62" s="3">
+        <v>12807600</v>
+      </c>
+      <c r="K62" s="3">
         <v>3260000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3497500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3710200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3697200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3912600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3751500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>4158000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5281600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9456700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7174300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9655800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5071400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6957500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7417500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9514900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>14273500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1324452800</v>
+        <v>1316113200</v>
       </c>
       <c r="E66" s="3">
-        <v>1305326400</v>
+        <v>1272771200</v>
       </c>
       <c r="F66" s="3">
-        <v>1309577600</v>
+        <v>1254391100</v>
       </c>
       <c r="G66" s="3">
-        <v>1304377700</v>
+        <v>1258476400</v>
       </c>
       <c r="H66" s="3">
-        <v>1302783500</v>
+        <v>1253479500</v>
       </c>
       <c r="I66" s="3">
-        <v>1312580200</v>
+        <v>1251947500</v>
       </c>
       <c r="J66" s="3">
+        <v>1261361900</v>
+      </c>
+      <c r="K66" s="3">
         <v>1377499800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1468503400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1559431800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1444263600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14382200</v>
+        <v>14410400</v>
       </c>
       <c r="E72" s="3">
-        <v>13084800</v>
+        <v>13821000</v>
       </c>
       <c r="F72" s="3">
-        <v>12643700</v>
+        <v>12574200</v>
       </c>
       <c r="G72" s="3">
-        <v>12247200</v>
+        <v>12150300</v>
       </c>
       <c r="H72" s="3">
-        <v>11547700</v>
+        <v>11769300</v>
       </c>
       <c r="I72" s="3">
-        <v>10393500</v>
+        <v>11097100</v>
       </c>
       <c r="J72" s="3">
+        <v>9988000</v>
+      </c>
+      <c r="K72" s="3">
         <v>9959700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10335300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10680000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11258500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>14121700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14850900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>19841400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19771000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19008600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>18649500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18846100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19583200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>22200800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>21747500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>22878700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22287100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>69515400</v>
+        <v>66941500</v>
       </c>
       <c r="E76" s="3">
-        <v>68846000</v>
+        <v>66802900</v>
       </c>
       <c r="F76" s="3">
-        <v>66738000</v>
+        <v>66159500</v>
       </c>
       <c r="G76" s="3">
-        <v>66048800</v>
+        <v>64133800</v>
       </c>
       <c r="H76" s="3">
-        <v>64261600</v>
+        <v>63471500</v>
       </c>
       <c r="I76" s="3">
-        <v>62906100</v>
+        <v>61754000</v>
       </c>
       <c r="J76" s="3">
+        <v>60451400</v>
+      </c>
+      <c r="K76" s="3">
         <v>62888400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>66729900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67336400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>70654000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>77200100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>74603800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>80850000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>79454200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>74489400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>73930500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73143300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>76125900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>78925300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>79585000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>75781200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>75714300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1100200</v>
+        <v>1043300</v>
       </c>
       <c r="E81" s="3">
-        <v>215900</v>
+        <v>1057200</v>
       </c>
       <c r="F81" s="3">
-        <v>201400</v>
+        <v>207500</v>
       </c>
       <c r="G81" s="3">
-        <v>718200</v>
+        <v>193500</v>
       </c>
       <c r="H81" s="3">
-        <v>942400</v>
+        <v>690200</v>
       </c>
       <c r="I81" s="3">
-        <v>87200</v>
+        <v>905600</v>
       </c>
       <c r="J81" s="3">
+        <v>83800</v>
+      </c>
+      <c r="K81" s="3">
         <v>188900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-84000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-46900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1870200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>117200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-502700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>233700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>310700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>47200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>725900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>178400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>670200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,8 +5796,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5640,41 +5838,44 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R83" s="3">
         <v>705000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>692300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>936600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>348100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>732700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>366900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>544200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>814600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>2610600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,8 +6256,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6084,41 +6300,44 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>22428600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>49922900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>72411200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,8 +6364,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6186,41 +6406,44 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-153800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-154000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-109800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-105400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-71800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-170500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-340400</v>
       </c>
       <c r="Y91" s="3">
         <v>-340400</v>
       </c>
       <c r="Z91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,8 +6593,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6408,41 +6637,44 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-923800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>5880900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5028800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1605600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1331800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-448800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>252400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>11937600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,8 +6701,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6532,19 +6765,22 @@
         <v>0</v>
       </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-439800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
         <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,8 +7007,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6806,41 +7051,44 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-132500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-332300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-793900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>911100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-371400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>7601500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-138500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-59900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6880,41 +7128,44 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R101" s="3">
         <v>1113100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>875000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1412000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-693700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>430800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6954,37 +7205,40 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>23560700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>55083000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>84719700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,175 +665,181 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5231400</v>
+        <v>6544300</v>
       </c>
       <c r="E8" s="3">
-        <v>4413500</v>
+        <v>5354100</v>
       </c>
       <c r="F8" s="3">
-        <v>4256900</v>
+        <v>4517000</v>
       </c>
       <c r="G8" s="3">
-        <v>4137200</v>
+        <v>4356800</v>
       </c>
       <c r="H8" s="3">
-        <v>3939700</v>
+        <v>4234300</v>
       </c>
       <c r="I8" s="3">
-        <v>4223000</v>
+        <v>4032200</v>
       </c>
       <c r="J8" s="3">
+        <v>4322100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3846000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4143300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4898200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5964000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6438300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7751700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8073600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7778900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7110400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6720900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7042600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6582500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5961100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6681500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7024800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>7056900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>7657900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -909,8 +915,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,8 +1027,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1092,8 +1105,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1169,8 +1185,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1246,8 +1265,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1323,8 +1345,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2101500</v>
+        <v>3161400</v>
       </c>
       <c r="E17" s="3">
-        <v>1835200</v>
+        <v>2150800</v>
       </c>
       <c r="F17" s="3">
-        <v>1594800</v>
+        <v>1878300</v>
       </c>
       <c r="G17" s="3">
-        <v>1487100</v>
+        <v>1632300</v>
       </c>
       <c r="H17" s="3">
-        <v>1363400</v>
+        <v>1522000</v>
       </c>
       <c r="I17" s="3">
-        <v>1498100</v>
+        <v>1395400</v>
       </c>
       <c r="J17" s="3">
+        <v>1533200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1539000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1706300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2354200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2969500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2912700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3733800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3942100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3931900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3275500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3102400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3343400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3438900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2729800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3263900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3657700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3624700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4049600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3129800</v>
+        <v>3382900</v>
       </c>
       <c r="E18" s="3">
-        <v>2578300</v>
+        <v>3203300</v>
       </c>
       <c r="F18" s="3">
-        <v>2662100</v>
+        <v>2638800</v>
       </c>
       <c r="G18" s="3">
-        <v>2650100</v>
+        <v>2724500</v>
       </c>
       <c r="H18" s="3">
-        <v>2576300</v>
+        <v>2712300</v>
       </c>
       <c r="I18" s="3">
-        <v>2724900</v>
+        <v>2636700</v>
       </c>
       <c r="J18" s="3">
+        <v>2788800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2307000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2437000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2544000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2994500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3525600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>4018000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4131500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3847000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3835000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3618500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3699200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3143600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3231300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3417600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3367100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3432200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3608300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1532,85 +1564,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1586900</v>
+        <v>-1734300</v>
       </c>
       <c r="E20" s="3">
-        <v>-924600</v>
+        <v>-1624100</v>
       </c>
       <c r="F20" s="3">
-        <v>-2580300</v>
+        <v>-946300</v>
       </c>
       <c r="G20" s="3">
-        <v>-2097500</v>
+        <v>-2640800</v>
       </c>
       <c r="H20" s="3">
-        <v>-1414300</v>
+        <v>-2146700</v>
       </c>
       <c r="I20" s="3">
-        <v>-1140000</v>
+        <v>-1447500</v>
       </c>
       <c r="J20" s="3">
+        <v>-1166800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2132400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1936700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2371600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2769800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5035000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1656,38 +1692,41 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3">
         <v>326500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1252700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1717300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>822400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-843700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1413700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1466400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1845200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-225400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1763,162 +1802,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1543000</v>
+        <v>1648600</v>
       </c>
       <c r="E23" s="3">
-        <v>1653700</v>
+        <v>1579200</v>
       </c>
       <c r="F23" s="3">
-        <v>81800</v>
+        <v>1692500</v>
       </c>
       <c r="G23" s="3">
-        <v>552600</v>
+        <v>83700</v>
       </c>
       <c r="H23" s="3">
-        <v>1162000</v>
+        <v>565500</v>
       </c>
       <c r="I23" s="3">
-        <v>1584900</v>
+        <v>1189200</v>
       </c>
       <c r="J23" s="3">
+        <v>1622100</v>
+      </c>
+      <c r="K23" s="3">
         <v>174500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>172400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>224700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1509500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-841600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>350500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-378500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>560400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>780700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>474300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1046800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>922300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1030600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>335100</v>
+        <v>379700</v>
       </c>
       <c r="E24" s="3">
-        <v>429900</v>
+        <v>343000</v>
       </c>
       <c r="F24" s="3">
-        <v>-233400</v>
+        <v>440000</v>
       </c>
       <c r="G24" s="3">
-        <v>224400</v>
+        <v>-238900</v>
       </c>
       <c r="H24" s="3">
-        <v>337100</v>
+        <v>229700</v>
       </c>
       <c r="I24" s="3">
-        <v>550600</v>
+        <v>345000</v>
       </c>
       <c r="J24" s="3">
+        <v>563500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>179600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>105800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>153800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>223000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>177600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2592800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>108900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>105300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>306800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>340400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>342600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1143300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>318600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>355700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-616300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1207900</v>
+        <v>1268900</v>
       </c>
       <c r="E26" s="3">
-        <v>1223800</v>
+        <v>1236200</v>
       </c>
       <c r="F26" s="3">
-        <v>315200</v>
+        <v>1252500</v>
       </c>
       <c r="G26" s="3">
-        <v>328100</v>
+        <v>322600</v>
       </c>
       <c r="H26" s="3">
-        <v>824800</v>
+        <v>335800</v>
       </c>
       <c r="I26" s="3">
-        <v>1034300</v>
+        <v>844200</v>
       </c>
       <c r="J26" s="3">
+        <v>1058600</v>
+      </c>
+      <c r="K26" s="3">
         <v>188500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>320700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>66500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>70900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1732400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>241600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-483800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>253600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>440300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>131800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>728200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>521700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>674900</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1043300</v>
+        <v>1138200</v>
       </c>
       <c r="E27" s="3">
-        <v>1057200</v>
+        <v>1067800</v>
       </c>
       <c r="F27" s="3">
-        <v>207500</v>
+        <v>1082000</v>
       </c>
       <c r="G27" s="3">
-        <v>193500</v>
+        <v>212300</v>
       </c>
       <c r="H27" s="3">
-        <v>690200</v>
+        <v>198000</v>
       </c>
       <c r="I27" s="3">
-        <v>905600</v>
+        <v>706400</v>
       </c>
       <c r="J27" s="3">
+        <v>926900</v>
+      </c>
+      <c r="K27" s="3">
         <v>83800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>188900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-84000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-46900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1870200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>117200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-502700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>233700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>310700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>47200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>725900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>178400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>670200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2266,8 +2326,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
@@ -2284,12 +2344,12 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2302,8 +2362,11 @@
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1586900</v>
+        <v>1734300</v>
       </c>
       <c r="E32" s="3">
-        <v>924600</v>
+        <v>1624100</v>
       </c>
       <c r="F32" s="3">
-        <v>2580300</v>
+        <v>946300</v>
       </c>
       <c r="G32" s="3">
-        <v>2097500</v>
+        <v>2640800</v>
       </c>
       <c r="H32" s="3">
-        <v>1414300</v>
+        <v>2146700</v>
       </c>
       <c r="I32" s="3">
-        <v>1140000</v>
+        <v>1447500</v>
       </c>
       <c r="J32" s="3">
+        <v>1166800</v>
+      </c>
+      <c r="K32" s="3">
         <v>2132400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1936700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2371600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2769800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5035000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4859500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>5244400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3496500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4213500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3058100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2918500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2669200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4807700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2370800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2444800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2401600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>6444200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1043300</v>
+        <v>1138200</v>
       </c>
       <c r="E33" s="3">
-        <v>1057200</v>
+        <v>1067800</v>
       </c>
       <c r="F33" s="3">
-        <v>207500</v>
+        <v>1082000</v>
       </c>
       <c r="G33" s="3">
-        <v>193500</v>
+        <v>212300</v>
       </c>
       <c r="H33" s="3">
-        <v>690200</v>
+        <v>198000</v>
       </c>
       <c r="I33" s="3">
-        <v>905600</v>
+        <v>706400</v>
       </c>
       <c r="J33" s="3">
+        <v>926900</v>
+      </c>
+      <c r="K33" s="3">
         <v>83800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>188900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-84000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-46900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1870200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>117200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-502700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>233700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>310700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>47200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>725900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>178400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>670200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1043300</v>
+        <v>1138200</v>
       </c>
       <c r="E35" s="3">
-        <v>1057200</v>
+        <v>1067800</v>
       </c>
       <c r="F35" s="3">
-        <v>207500</v>
+        <v>1082000</v>
       </c>
       <c r="G35" s="3">
-        <v>193500</v>
+        <v>212300</v>
       </c>
       <c r="H35" s="3">
-        <v>690200</v>
+        <v>198000</v>
       </c>
       <c r="I35" s="3">
-        <v>905600</v>
+        <v>706400</v>
       </c>
       <c r="J35" s="3">
+        <v>926900</v>
+      </c>
+      <c r="K35" s="3">
         <v>83800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>188900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-84000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-46900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1870200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>117200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-502700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>233700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>310700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>47200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>725900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>178400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>670200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,162 +2989,169 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>176609600</v>
+        <v>185836600</v>
       </c>
       <c r="E41" s="3">
-        <v>166972700</v>
+        <v>180753100</v>
       </c>
       <c r="F41" s="3">
-        <v>191521700</v>
+        <v>170890100</v>
       </c>
       <c r="G41" s="3">
-        <v>196380100</v>
+        <v>196015000</v>
       </c>
       <c r="H41" s="3">
-        <v>197752500</v>
+        <v>200987400</v>
       </c>
       <c r="I41" s="3">
-        <v>179513000</v>
+        <v>202392000</v>
       </c>
       <c r="J41" s="3">
+        <v>183724600</v>
+      </c>
+      <c r="K41" s="3">
         <v>165775900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>183905500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>181344200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>132965600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>160626300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>205606000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>189379200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>224065000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>223249900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>222838000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>228478400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>248938600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>253182700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>229323500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>255268400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>210653100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>212886900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>531551400</v>
+        <v>619867500</v>
       </c>
       <c r="E42" s="3">
-        <v>505673800</v>
+        <v>544022100</v>
       </c>
       <c r="F42" s="3">
-        <v>505687800</v>
+        <v>517537400</v>
       </c>
       <c r="G42" s="3">
-        <v>494731300</v>
+        <v>517551700</v>
       </c>
       <c r="H42" s="3">
-        <v>485144300</v>
+        <v>506338200</v>
       </c>
       <c r="I42" s="3">
-        <v>503736900</v>
+        <v>496526300</v>
       </c>
       <c r="J42" s="3">
+        <v>515555000</v>
+      </c>
+      <c r="K42" s="3">
         <v>545724400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>583172100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>643250700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>720305000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>647419900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>844378300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>764585900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>754124000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>709886700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>662362500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>684587600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>720950100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>857440500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>785621900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>805357700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>892835100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>929369900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3135,8 +3227,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3212,8 +3307,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3289,8 +3387,11 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3366,239 +3467,251 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1181900</v>
+        <v>1269900</v>
       </c>
       <c r="E47" s="3">
-        <v>1066200</v>
+        <v>1209600</v>
       </c>
       <c r="F47" s="3">
-        <v>1088200</v>
+        <v>1091200</v>
       </c>
       <c r="G47" s="3">
-        <v>1078200</v>
+        <v>1113700</v>
       </c>
       <c r="H47" s="3">
-        <v>1107100</v>
+        <v>1103500</v>
       </c>
       <c r="I47" s="3">
-        <v>1059200</v>
+        <v>1133100</v>
       </c>
       <c r="J47" s="3">
+        <v>1084100</v>
+      </c>
+      <c r="K47" s="3">
         <v>898700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>955900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1035300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>999300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1084500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1118400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1081100</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1101700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1039800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>940400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>934400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>986000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>971600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>1026600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>1063600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>1150300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1205500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5580500</v>
+        <v>6078900</v>
       </c>
       <c r="E48" s="3">
-        <v>5548500</v>
+        <v>5711400</v>
       </c>
       <c r="F48" s="3">
-        <v>5521600</v>
+        <v>5678700</v>
       </c>
       <c r="G48" s="3">
-        <v>5303200</v>
+        <v>5651100</v>
       </c>
       <c r="H48" s="3">
-        <v>5364000</v>
+        <v>5427600</v>
       </c>
       <c r="I48" s="3">
-        <v>5442800</v>
+        <v>5489900</v>
       </c>
       <c r="J48" s="3">
+        <v>5570500</v>
+      </c>
+      <c r="K48" s="3">
         <v>5534600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5979300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5253800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5238500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5755300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6297700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6274900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6506100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2863800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2775600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2788900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2693400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2987900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3110200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3081000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3324200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3291400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7136400</v>
+        <v>7552900</v>
       </c>
       <c r="E49" s="3">
-        <v>6884100</v>
+        <v>7303800</v>
       </c>
       <c r="F49" s="3">
-        <v>6806300</v>
+        <v>7045600</v>
       </c>
       <c r="G49" s="3">
+        <v>6965900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6864900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6988400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>6994500</v>
+      </c>
+      <c r="K49" s="3">
         <v>6707500</v>
       </c>
-      <c r="H49" s="3">
-        <v>6828200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>6834200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>6707500</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7004800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7527300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7633100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8205700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9371200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9067700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>10984700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>10812900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>10030400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9862200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9608600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9917300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9843200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9911700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>10610100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>10543200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6321500</v>
+        <v>6368800</v>
       </c>
       <c r="E52" s="3">
-        <v>6388300</v>
+        <v>6469800</v>
       </c>
       <c r="F52" s="3">
-        <v>6201800</v>
+        <v>6538200</v>
       </c>
       <c r="G52" s="3">
-        <v>5864700</v>
+        <v>6347300</v>
       </c>
       <c r="H52" s="3">
-        <v>5874700</v>
+        <v>6002300</v>
       </c>
       <c r="I52" s="3">
-        <v>5918600</v>
+        <v>6012500</v>
       </c>
       <c r="J52" s="3">
+        <v>6057400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6042200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6341600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6508400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6412400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6988100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>7394000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6532500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8867400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>11721400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15922900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>10640700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>10177400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>7678900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9295700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>9479700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10552600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>10833100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1383054700</v>
+        <v>1529226800</v>
       </c>
       <c r="E54" s="3">
-        <v>1339574000</v>
+        <v>1415502500</v>
       </c>
       <c r="F54" s="3">
-        <v>1320550600</v>
+        <v>1371001800</v>
       </c>
       <c r="G54" s="3">
-        <v>1322610200</v>
+        <v>1351532100</v>
       </c>
       <c r="H54" s="3">
-        <v>1316951000</v>
+        <v>1353640000</v>
       </c>
       <c r="I54" s="3">
-        <v>1313701500</v>
+        <v>1347848000</v>
       </c>
       <c r="J54" s="3">
+        <v>1344522200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1321813300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1440388300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1535233300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1626768300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1514917600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,8 +4169,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4051,11 +4181,11 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>1620800</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1658800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -4063,12 +4193,12 @@
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1735500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4087,38 +4217,41 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S57" s="3">
         <v>2940700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2523100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2478200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2882300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2943000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2793800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3097800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3379400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3183400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4194,85 +4327,91 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>688200</v>
+        <v>562500</v>
       </c>
       <c r="E59" s="3">
-        <v>706200</v>
+        <v>704400</v>
       </c>
       <c r="F59" s="3">
-        <v>598400</v>
+        <v>722700</v>
       </c>
       <c r="G59" s="3">
-        <v>791900</v>
+        <v>612500</v>
       </c>
       <c r="H59" s="3">
-        <v>868700</v>
+        <v>810500</v>
       </c>
       <c r="I59" s="3">
-        <v>769000</v>
+        <v>889100</v>
       </c>
       <c r="J59" s="3">
+        <v>787000</v>
+      </c>
+      <c r="K59" s="3">
         <v>572500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>714100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>836700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>711300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>760000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>851400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2138700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1063400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1116700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>985800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1012400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1213300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1123100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1205000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1212900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1304100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1560000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4348,162 +4487,171 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>204014200</v>
+        <v>207924700</v>
       </c>
       <c r="E61" s="3">
-        <v>193517500</v>
+        <v>208800600</v>
       </c>
       <c r="F61" s="3">
-        <v>202951900</v>
+        <v>198057700</v>
       </c>
       <c r="G61" s="3">
-        <v>207842200</v>
+        <v>207713400</v>
       </c>
       <c r="H61" s="3">
-        <v>202575900</v>
+        <v>212718400</v>
       </c>
       <c r="I61" s="3">
-        <v>198024800</v>
+        <v>207328600</v>
       </c>
       <c r="J61" s="3">
+        <v>202670700</v>
+      </c>
+      <c r="K61" s="3">
         <v>196553600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>216575500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>227441600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>217812200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>220428000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>255682400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>238475100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>267994300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>190280100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>179290500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>183304500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>188645200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>192592900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>192494200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>199071300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>218534100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>217392000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3412100</v>
+        <v>3309400</v>
       </c>
       <c r="E62" s="3">
-        <v>3807100</v>
+        <v>3492200</v>
       </c>
       <c r="F62" s="3">
-        <v>3385200</v>
+        <v>3896400</v>
       </c>
       <c r="G62" s="3">
-        <v>3025100</v>
+        <v>3464600</v>
       </c>
       <c r="H62" s="3">
-        <v>3057000</v>
+        <v>3096100</v>
       </c>
       <c r="I62" s="3">
-        <v>3285400</v>
+        <v>3128800</v>
       </c>
       <c r="J62" s="3">
+        <v>3362500</v>
+      </c>
+      <c r="K62" s="3">
         <v>12807600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3260000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3497500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3710200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3697200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3912600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3751500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>4158000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5281600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9456700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7174300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>9655800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5071400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6957500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7417500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9514900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>14273500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1316113200</v>
+        <v>1458742600</v>
       </c>
       <c r="E66" s="3">
-        <v>1272771200</v>
+        <v>1346990500</v>
       </c>
       <c r="F66" s="3">
-        <v>1254391100</v>
+        <v>1302631700</v>
       </c>
       <c r="G66" s="3">
-        <v>1258476400</v>
+        <v>1283820300</v>
       </c>
       <c r="H66" s="3">
-        <v>1253479500</v>
+        <v>1288001500</v>
       </c>
       <c r="I66" s="3">
-        <v>1251947500</v>
+        <v>1282887300</v>
       </c>
       <c r="J66" s="3">
+        <v>1281319400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1261361900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1377499800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1468503400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1559431800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1444263600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14410400</v>
+        <v>16066400</v>
       </c>
       <c r="E72" s="3">
-        <v>13821000</v>
+        <v>14748500</v>
       </c>
       <c r="F72" s="3">
-        <v>12574200</v>
+        <v>14145200</v>
       </c>
       <c r="G72" s="3">
-        <v>12150300</v>
+        <v>12869200</v>
       </c>
       <c r="H72" s="3">
-        <v>11769300</v>
+        <v>12435400</v>
       </c>
       <c r="I72" s="3">
-        <v>11097100</v>
+        <v>12045400</v>
       </c>
       <c r="J72" s="3">
+        <v>11357400</v>
+      </c>
+      <c r="K72" s="3">
         <v>9988000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9959700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10335300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10680000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11258500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>14121700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>14850900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>19841400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>19771000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>19008600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>18649500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>18846100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19583200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>22200800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>21747500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>22878700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22287100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>66941500</v>
+        <v>70484200</v>
       </c>
       <c r="E76" s="3">
-        <v>66802900</v>
+        <v>68512000</v>
       </c>
       <c r="F76" s="3">
-        <v>66159500</v>
+        <v>68370100</v>
       </c>
       <c r="G76" s="3">
-        <v>64133800</v>
+        <v>67711700</v>
       </c>
       <c r="H76" s="3">
-        <v>63471500</v>
+        <v>65638500</v>
       </c>
       <c r="I76" s="3">
-        <v>61754000</v>
+        <v>64960600</v>
       </c>
       <c r="J76" s="3">
+        <v>63202800</v>
+      </c>
+      <c r="K76" s="3">
         <v>60451400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62888400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>66729900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>67336400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>70654000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>77200100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>74603800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>80850000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>79454200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74489400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>73930500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>73143300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>76125900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>78925300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>79585000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>75781200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>75714300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1043300</v>
+        <v>1138200</v>
       </c>
       <c r="E81" s="3">
-        <v>1057200</v>
+        <v>1067800</v>
       </c>
       <c r="F81" s="3">
-        <v>207500</v>
+        <v>1082000</v>
       </c>
       <c r="G81" s="3">
-        <v>193500</v>
+        <v>212300</v>
       </c>
       <c r="H81" s="3">
-        <v>690200</v>
+        <v>198000</v>
       </c>
       <c r="I81" s="3">
-        <v>905600</v>
+        <v>706400</v>
       </c>
       <c r="J81" s="3">
+        <v>926900</v>
+      </c>
+      <c r="K81" s="3">
         <v>83800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>188900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-84000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-46900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1870200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>117200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-502700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>233700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>310700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>47200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>725900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>178400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>670200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,31 +5994,32 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5841,41 +6039,44 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3">
         <v>705000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>692300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>936600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>348100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>732700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>366900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>544200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>814600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>2610600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,31 +6472,34 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -6303,41 +6519,44 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>22428600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>49922900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>72411200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,31 +6584,32 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -6409,41 +6629,44 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-153800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-154000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-109800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-105400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-71800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-170500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-340400</v>
       </c>
       <c r="Z91" s="3">
         <v>-340400</v>
       </c>
       <c r="AA91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,31 +6822,34 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -6640,41 +6869,44 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3">
         <v>-923800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>5880900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>5028800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1605600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1331800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-448800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>252400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>11937600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,8 +6934,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6768,19 +7001,22 @@
         <v>0</v>
       </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-439800</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,31 +7252,34 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -7054,64 +7299,67 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3">
         <v>-132500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-332300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-793900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>911100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-371400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>7601500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-138500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-59900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -7131,64 +7379,67 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S101" s="3">
         <v>1113100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>875000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1412000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-693700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>430800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7208,37 +7459,40 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>23560700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>55083000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>84719700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -764,25 +764,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6544300</v>
+        <v>6782800</v>
       </c>
       <c r="E8" s="3">
-        <v>5354100</v>
+        <v>5549200</v>
       </c>
       <c r="F8" s="3">
-        <v>4517000</v>
+        <v>4681700</v>
       </c>
       <c r="G8" s="3">
-        <v>4356800</v>
+        <v>4515500</v>
       </c>
       <c r="H8" s="3">
-        <v>4234300</v>
+        <v>4388600</v>
       </c>
       <c r="I8" s="3">
-        <v>4032200</v>
+        <v>4179100</v>
       </c>
       <c r="J8" s="3">
-        <v>4322100</v>
+        <v>4479600</v>
       </c>
       <c r="K8" s="3">
         <v>3846000</v>
@@ -1381,25 +1381,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3161400</v>
+        <v>3276600</v>
       </c>
       <c r="E17" s="3">
-        <v>2150800</v>
+        <v>2229200</v>
       </c>
       <c r="F17" s="3">
-        <v>1878300</v>
+        <v>1946700</v>
       </c>
       <c r="G17" s="3">
-        <v>1632300</v>
+        <v>1691700</v>
       </c>
       <c r="H17" s="3">
-        <v>1522000</v>
+        <v>1577500</v>
       </c>
       <c r="I17" s="3">
-        <v>1395400</v>
+        <v>1446300</v>
       </c>
       <c r="J17" s="3">
-        <v>1533200</v>
+        <v>1589100</v>
       </c>
       <c r="K17" s="3">
         <v>1539000</v>
@@ -1461,25 +1461,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3382900</v>
+        <v>3506200</v>
       </c>
       <c r="E18" s="3">
-        <v>3203300</v>
+        <v>3320000</v>
       </c>
       <c r="F18" s="3">
-        <v>2638800</v>
+        <v>2734900</v>
       </c>
       <c r="G18" s="3">
-        <v>2724500</v>
+        <v>2823800</v>
       </c>
       <c r="H18" s="3">
-        <v>2712300</v>
+        <v>2811100</v>
       </c>
       <c r="I18" s="3">
-        <v>2636700</v>
+        <v>2732800</v>
       </c>
       <c r="J18" s="3">
-        <v>2788800</v>
+        <v>2890500</v>
       </c>
       <c r="K18" s="3">
         <v>2307000</v>
@@ -1571,25 +1571,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1734300</v>
+        <v>-1797500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1624100</v>
+        <v>-1683300</v>
       </c>
       <c r="F20" s="3">
-        <v>-946300</v>
+        <v>-980800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2640800</v>
+        <v>-2737000</v>
       </c>
       <c r="H20" s="3">
-        <v>-2146700</v>
+        <v>-2225000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1447500</v>
+        <v>-1500200</v>
       </c>
       <c r="J20" s="3">
-        <v>-1166800</v>
+        <v>-1209300</v>
       </c>
       <c r="K20" s="3">
         <v>-2132400</v>
@@ -1811,25 +1811,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1648600</v>
+        <v>1708700</v>
       </c>
       <c r="E23" s="3">
-        <v>1579200</v>
+        <v>1636700</v>
       </c>
       <c r="F23" s="3">
-        <v>1692500</v>
+        <v>1754200</v>
       </c>
       <c r="G23" s="3">
-        <v>83700</v>
+        <v>86800</v>
       </c>
       <c r="H23" s="3">
-        <v>565500</v>
+        <v>586100</v>
       </c>
       <c r="I23" s="3">
-        <v>1189200</v>
+        <v>1232600</v>
       </c>
       <c r="J23" s="3">
-        <v>1622100</v>
+        <v>1681200</v>
       </c>
       <c r="K23" s="3">
         <v>174500</v>
@@ -1891,25 +1891,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>379700</v>
+        <v>393600</v>
       </c>
       <c r="E24" s="3">
-        <v>343000</v>
+        <v>355500</v>
       </c>
       <c r="F24" s="3">
-        <v>440000</v>
+        <v>456000</v>
       </c>
       <c r="G24" s="3">
-        <v>-238900</v>
+        <v>-247600</v>
       </c>
       <c r="H24" s="3">
-        <v>229700</v>
+        <v>238100</v>
       </c>
       <c r="I24" s="3">
-        <v>345000</v>
+        <v>357600</v>
       </c>
       <c r="J24" s="3">
-        <v>563500</v>
+        <v>584000</v>
       </c>
       <c r="K24" s="3">
         <v>-14000</v>
@@ -2051,25 +2051,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1268900</v>
+        <v>1315100</v>
       </c>
       <c r="E26" s="3">
-        <v>1236200</v>
+        <v>1281200</v>
       </c>
       <c r="F26" s="3">
-        <v>1252500</v>
+        <v>1298200</v>
       </c>
       <c r="G26" s="3">
-        <v>322600</v>
+        <v>334300</v>
       </c>
       <c r="H26" s="3">
-        <v>335800</v>
+        <v>348100</v>
       </c>
       <c r="I26" s="3">
-        <v>844200</v>
+        <v>875000</v>
       </c>
       <c r="J26" s="3">
-        <v>1058600</v>
+        <v>1097100</v>
       </c>
       <c r="K26" s="3">
         <v>188500</v>
@@ -2131,25 +2131,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1138200</v>
+        <v>1179700</v>
       </c>
       <c r="E27" s="3">
-        <v>1067800</v>
+        <v>1106700</v>
       </c>
       <c r="F27" s="3">
-        <v>1082000</v>
+        <v>1121500</v>
       </c>
       <c r="G27" s="3">
-        <v>212300</v>
+        <v>220100</v>
       </c>
       <c r="H27" s="3">
-        <v>198000</v>
+        <v>205300</v>
       </c>
       <c r="I27" s="3">
-        <v>706400</v>
+        <v>732100</v>
       </c>
       <c r="J27" s="3">
-        <v>926900</v>
+        <v>960700</v>
       </c>
       <c r="K27" s="3">
         <v>83800</v>
@@ -2531,25 +2531,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1734300</v>
+        <v>1797500</v>
       </c>
       <c r="E32" s="3">
-        <v>1624100</v>
+        <v>1683300</v>
       </c>
       <c r="F32" s="3">
-        <v>946300</v>
+        <v>980800</v>
       </c>
       <c r="G32" s="3">
-        <v>2640800</v>
+        <v>2737000</v>
       </c>
       <c r="H32" s="3">
-        <v>2146700</v>
+        <v>2225000</v>
       </c>
       <c r="I32" s="3">
-        <v>1447500</v>
+        <v>1500200</v>
       </c>
       <c r="J32" s="3">
-        <v>1166800</v>
+        <v>1209300</v>
       </c>
       <c r="K32" s="3">
         <v>2132400</v>
@@ -2611,25 +2611,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1138200</v>
+        <v>1179700</v>
       </c>
       <c r="E33" s="3">
-        <v>1067800</v>
+        <v>1106700</v>
       </c>
       <c r="F33" s="3">
-        <v>1082000</v>
+        <v>1121500</v>
       </c>
       <c r="G33" s="3">
-        <v>212300</v>
+        <v>220100</v>
       </c>
       <c r="H33" s="3">
-        <v>198000</v>
+        <v>205300</v>
       </c>
       <c r="I33" s="3">
-        <v>706400</v>
+        <v>732100</v>
       </c>
       <c r="J33" s="3">
-        <v>926900</v>
+        <v>960700</v>
       </c>
       <c r="K33" s="3">
         <v>83800</v>
@@ -2771,25 +2771,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1138200</v>
+        <v>1179700</v>
       </c>
       <c r="E35" s="3">
-        <v>1067800</v>
+        <v>1106700</v>
       </c>
       <c r="F35" s="3">
-        <v>1082000</v>
+        <v>1121500</v>
       </c>
       <c r="G35" s="3">
-        <v>212300</v>
+        <v>220100</v>
       </c>
       <c r="H35" s="3">
-        <v>198000</v>
+        <v>205300</v>
       </c>
       <c r="I35" s="3">
-        <v>706400</v>
+        <v>732100</v>
       </c>
       <c r="J35" s="3">
-        <v>926900</v>
+        <v>960700</v>
       </c>
       <c r="K35" s="3">
         <v>83800</v>
@@ -2996,25 +2996,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>185836600</v>
+        <v>192608900</v>
       </c>
       <c r="E41" s="3">
-        <v>180753100</v>
+        <v>187340100</v>
       </c>
       <c r="F41" s="3">
-        <v>170890100</v>
+        <v>177117700</v>
       </c>
       <c r="G41" s="3">
-        <v>196015000</v>
+        <v>203158200</v>
       </c>
       <c r="H41" s="3">
-        <v>200987400</v>
+        <v>208311700</v>
       </c>
       <c r="I41" s="3">
-        <v>202392000</v>
+        <v>209767500</v>
       </c>
       <c r="J41" s="3">
-        <v>183724600</v>
+        <v>190419900</v>
       </c>
       <c r="K41" s="3">
         <v>165775900</v>
@@ -3076,25 +3076,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>619867500</v>
+        <v>642456700</v>
       </c>
       <c r="E42" s="3">
-        <v>544022100</v>
+        <v>563847300</v>
       </c>
       <c r="F42" s="3">
-        <v>517537400</v>
+        <v>536397500</v>
       </c>
       <c r="G42" s="3">
-        <v>517551700</v>
+        <v>536412300</v>
       </c>
       <c r="H42" s="3">
-        <v>506338200</v>
+        <v>524790200</v>
       </c>
       <c r="I42" s="3">
-        <v>496526300</v>
+        <v>514620700</v>
       </c>
       <c r="J42" s="3">
-        <v>515555000</v>
+        <v>534342900</v>
       </c>
       <c r="K42" s="3">
         <v>545724400</v>
@@ -3476,25 +3476,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1269900</v>
+        <v>1316200</v>
       </c>
       <c r="E47" s="3">
-        <v>1209600</v>
+        <v>1253700</v>
       </c>
       <c r="F47" s="3">
-        <v>1091200</v>
+        <v>1131000</v>
       </c>
       <c r="G47" s="3">
-        <v>1113700</v>
+        <v>1154300</v>
       </c>
       <c r="H47" s="3">
-        <v>1103500</v>
+        <v>1143700</v>
       </c>
       <c r="I47" s="3">
-        <v>1133100</v>
+        <v>1174400</v>
       </c>
       <c r="J47" s="3">
-        <v>1084100</v>
+        <v>1123600</v>
       </c>
       <c r="K47" s="3">
         <v>898700</v>
@@ -3556,25 +3556,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6078900</v>
+        <v>6300400</v>
       </c>
       <c r="E48" s="3">
-        <v>5711400</v>
+        <v>5919500</v>
       </c>
       <c r="F48" s="3">
-        <v>5678700</v>
+        <v>5885700</v>
       </c>
       <c r="G48" s="3">
-        <v>5651100</v>
+        <v>5857100</v>
       </c>
       <c r="H48" s="3">
-        <v>5427600</v>
+        <v>5625400</v>
       </c>
       <c r="I48" s="3">
-        <v>5489900</v>
+        <v>5689900</v>
       </c>
       <c r="J48" s="3">
-        <v>5570500</v>
+        <v>5773500</v>
       </c>
       <c r="K48" s="3">
         <v>5534600</v>
@@ -3636,25 +3636,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7552900</v>
+        <v>7828100</v>
       </c>
       <c r="E49" s="3">
-        <v>7303800</v>
+        <v>7570000</v>
       </c>
       <c r="F49" s="3">
-        <v>7045600</v>
+        <v>7302300</v>
       </c>
       <c r="G49" s="3">
-        <v>6965900</v>
+        <v>7219800</v>
       </c>
       <c r="H49" s="3">
-        <v>6864900</v>
+        <v>7115100</v>
       </c>
       <c r="I49" s="3">
-        <v>6988400</v>
+        <v>7243100</v>
       </c>
       <c r="J49" s="3">
-        <v>6994500</v>
+        <v>7249400</v>
       </c>
       <c r="K49" s="3">
         <v>6707500</v>
@@ -3876,25 +3876,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6368800</v>
+        <v>6600900</v>
       </c>
       <c r="E52" s="3">
-        <v>6469800</v>
+        <v>6705600</v>
       </c>
       <c r="F52" s="3">
-        <v>6538200</v>
+        <v>6776500</v>
       </c>
       <c r="G52" s="3">
-        <v>6347300</v>
+        <v>6578600</v>
       </c>
       <c r="H52" s="3">
-        <v>6002300</v>
+        <v>6221000</v>
       </c>
       <c r="I52" s="3">
-        <v>6012500</v>
+        <v>6231600</v>
       </c>
       <c r="J52" s="3">
-        <v>6057400</v>
+        <v>6278200</v>
       </c>
       <c r="K52" s="3">
         <v>6042200</v>
@@ -4036,25 +4036,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1529226800</v>
+        <v>1584954900</v>
       </c>
       <c r="E54" s="3">
-        <v>1415502500</v>
+        <v>1467086300</v>
       </c>
       <c r="F54" s="3">
-        <v>1371001800</v>
+        <v>1420963800</v>
       </c>
       <c r="G54" s="3">
-        <v>1351532100</v>
+        <v>1400784600</v>
       </c>
       <c r="H54" s="3">
-        <v>1353640000</v>
+        <v>1402969400</v>
       </c>
       <c r="I54" s="3">
-        <v>1347848000</v>
+        <v>1396966300</v>
       </c>
       <c r="J54" s="3">
-        <v>1344522200</v>
+        <v>1393519300</v>
       </c>
       <c r="K54" s="3">
         <v>1321813300</v>
@@ -4185,7 +4185,7 @@
         <v>5</v>
       </c>
       <c r="G57" s="3">
-        <v>1658800</v>
+        <v>1719300</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -4336,25 +4336,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>562500</v>
+        <v>583000</v>
       </c>
       <c r="E59" s="3">
-        <v>704400</v>
+        <v>730000</v>
       </c>
       <c r="F59" s="3">
-        <v>722700</v>
+        <v>749100</v>
       </c>
       <c r="G59" s="3">
-        <v>612500</v>
+        <v>634800</v>
       </c>
       <c r="H59" s="3">
-        <v>810500</v>
+        <v>840100</v>
       </c>
       <c r="I59" s="3">
-        <v>889100</v>
+        <v>921500</v>
       </c>
       <c r="J59" s="3">
-        <v>787000</v>
+        <v>815700</v>
       </c>
       <c r="K59" s="3">
         <v>572500</v>
@@ -4496,25 +4496,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>207924700</v>
+        <v>215501900</v>
       </c>
       <c r="E61" s="3">
-        <v>208800600</v>
+        <v>216409700</v>
       </c>
       <c r="F61" s="3">
-        <v>198057700</v>
+        <v>205275300</v>
       </c>
       <c r="G61" s="3">
-        <v>207713400</v>
+        <v>215282900</v>
       </c>
       <c r="H61" s="3">
-        <v>212718400</v>
+        <v>220470300</v>
       </c>
       <c r="I61" s="3">
-        <v>207328600</v>
+        <v>214884000</v>
       </c>
       <c r="J61" s="3">
-        <v>202670700</v>
+        <v>210056400</v>
       </c>
       <c r="K61" s="3">
         <v>196553600</v>
@@ -4576,25 +4576,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3309400</v>
+        <v>3430000</v>
       </c>
       <c r="E62" s="3">
-        <v>3492200</v>
+        <v>3619400</v>
       </c>
       <c r="F62" s="3">
-        <v>3896400</v>
+        <v>4038400</v>
       </c>
       <c r="G62" s="3">
-        <v>3464600</v>
+        <v>3590900</v>
       </c>
       <c r="H62" s="3">
-        <v>3096100</v>
+        <v>3208900</v>
       </c>
       <c r="I62" s="3">
-        <v>3128800</v>
+        <v>3242800</v>
       </c>
       <c r="J62" s="3">
-        <v>3362500</v>
+        <v>3485100</v>
       </c>
       <c r="K62" s="3">
         <v>12807600</v>
@@ -4896,25 +4896,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1458742600</v>
+        <v>1511902100</v>
       </c>
       <c r="E66" s="3">
-        <v>1346990500</v>
+        <v>1396077600</v>
       </c>
       <c r="F66" s="3">
-        <v>1302631700</v>
+        <v>1350102200</v>
       </c>
       <c r="G66" s="3">
-        <v>1283820300</v>
+        <v>1330605300</v>
       </c>
       <c r="H66" s="3">
-        <v>1288001500</v>
+        <v>1334938900</v>
       </c>
       <c r="I66" s="3">
-        <v>1282887300</v>
+        <v>1329638300</v>
       </c>
       <c r="J66" s="3">
-        <v>1281319400</v>
+        <v>1328013200</v>
       </c>
       <c r="K66" s="3">
         <v>1261361900</v>
@@ -5326,25 +5326,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16066400</v>
+        <v>16651900</v>
       </c>
       <c r="E72" s="3">
-        <v>14748500</v>
+        <v>15286000</v>
       </c>
       <c r="F72" s="3">
-        <v>14145200</v>
+        <v>14660700</v>
       </c>
       <c r="G72" s="3">
-        <v>12869200</v>
+        <v>13338200</v>
       </c>
       <c r="H72" s="3">
-        <v>12435400</v>
+        <v>12888600</v>
       </c>
       <c r="I72" s="3">
-        <v>12045400</v>
+        <v>12484400</v>
       </c>
       <c r="J72" s="3">
-        <v>11357400</v>
+        <v>11771300</v>
       </c>
       <c r="K72" s="3">
         <v>9988000</v>
@@ -5646,25 +5646,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>70484200</v>
+        <v>73052800</v>
       </c>
       <c r="E76" s="3">
-        <v>68512000</v>
+        <v>71008700</v>
       </c>
       <c r="F76" s="3">
-        <v>68370100</v>
+        <v>70861700</v>
       </c>
       <c r="G76" s="3">
-        <v>67711700</v>
+        <v>70179300</v>
       </c>
       <c r="H76" s="3">
-        <v>65638500</v>
+        <v>68030500</v>
       </c>
       <c r="I76" s="3">
-        <v>64960600</v>
+        <v>67327900</v>
       </c>
       <c r="J76" s="3">
-        <v>63202800</v>
+        <v>65506100</v>
       </c>
       <c r="K76" s="3">
         <v>60451400</v>
@@ -5891,25 +5891,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1138200</v>
+        <v>1179700</v>
       </c>
       <c r="E81" s="3">
-        <v>1067800</v>
+        <v>1106700</v>
       </c>
       <c r="F81" s="3">
-        <v>1082000</v>
+        <v>1121500</v>
       </c>
       <c r="G81" s="3">
-        <v>212300</v>
+        <v>220100</v>
       </c>
       <c r="H81" s="3">
-        <v>198000</v>
+        <v>205300</v>
       </c>
       <c r="I81" s="3">
-        <v>706400</v>
+        <v>732100</v>
       </c>
       <c r="J81" s="3">
-        <v>926900</v>
+        <v>960700</v>
       </c>
       <c r="K81" s="3">
         <v>83800</v>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,181 +665,193 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6782800</v>
+        <v>10456700</v>
       </c>
       <c r="E8" s="3">
-        <v>5549200</v>
+        <v>8850000</v>
       </c>
       <c r="F8" s="3">
-        <v>4681700</v>
+        <v>6904000</v>
       </c>
       <c r="G8" s="3">
-        <v>4515500</v>
+        <v>5648300</v>
       </c>
       <c r="H8" s="3">
-        <v>4388600</v>
+        <v>4765300</v>
       </c>
       <c r="I8" s="3">
+        <v>4596200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4467000</v>
+      </c>
+      <c r="K8" s="3">
         <v>4179100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4479600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3846000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4143300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4898200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5964000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6438300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7751700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>8073600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7778900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7110400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6720900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>7042600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6582500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5961100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6681500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>7024800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>7056900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>7657900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -918,8 +930,14 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -998,8 +1016,14 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1028,8 +1052,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,8 +1134,14 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,8 +1220,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1268,8 +1306,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1348,8 +1392,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1425,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3276600</v>
+        <v>7170000</v>
       </c>
       <c r="E17" s="3">
-        <v>2229200</v>
+        <v>5203600</v>
       </c>
       <c r="F17" s="3">
-        <v>1946700</v>
+        <v>3335200</v>
       </c>
       <c r="G17" s="3">
-        <v>1691700</v>
+        <v>2269000</v>
       </c>
       <c r="H17" s="3">
-        <v>1577500</v>
+        <v>1981500</v>
       </c>
       <c r="I17" s="3">
+        <v>1722000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1605700</v>
+      </c>
+      <c r="K17" s="3">
         <v>1446300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1589100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1539000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1706300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2354200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2969500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2912700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3733800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3942100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3931900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3275500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3102400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3343400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3438900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2729800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>3263900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>3657700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>3624700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>4049600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3506200</v>
+        <v>3286700</v>
       </c>
       <c r="E18" s="3">
-        <v>3320000</v>
+        <v>3646400</v>
       </c>
       <c r="F18" s="3">
-        <v>2734900</v>
+        <v>3568800</v>
       </c>
       <c r="G18" s="3">
-        <v>2823800</v>
+        <v>3379300</v>
       </c>
       <c r="H18" s="3">
-        <v>2811100</v>
+        <v>2783800</v>
       </c>
       <c r="I18" s="3">
+        <v>2874200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2861300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2732800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>2890500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2307000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>2437000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>2544000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>2994500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>3525600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>4018000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>4131500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>3847000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3835000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3618500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3699200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3143600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>3231300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>3417600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>3367100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>3432200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>3608300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1565,88 +1629,96 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1797500</v>
+        <v>-1292300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1683300</v>
+        <v>-2812900</v>
       </c>
       <c r="F20" s="3">
-        <v>-980800</v>
+        <v>-1829700</v>
       </c>
       <c r="G20" s="3">
-        <v>-2737000</v>
+        <v>-1713300</v>
       </c>
       <c r="H20" s="3">
-        <v>-2225000</v>
+        <v>-998300</v>
       </c>
       <c r="I20" s="3">
+        <v>-2785900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-2264700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1500200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1209300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2132400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1936700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2371600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2769800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-5035000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1695,38 +1767,44 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>326500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1252700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1717300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>822400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-843700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1413700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1466400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1845200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-225400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1805,168 +1883,186 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1708700</v>
+        <v>1994400</v>
       </c>
       <c r="E23" s="3">
-        <v>1636700</v>
+        <v>833500</v>
       </c>
       <c r="F23" s="3">
-        <v>1754200</v>
+        <v>1739200</v>
       </c>
       <c r="G23" s="3">
-        <v>86800</v>
+        <v>1666000</v>
       </c>
       <c r="H23" s="3">
-        <v>586100</v>
+        <v>1785500</v>
       </c>
       <c r="I23" s="3">
+        <v>88300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>596600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1232600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1681200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>174500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>172400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>224700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1509500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-841600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>350500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-378500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>560400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>780700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>474300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>1046800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>922300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1030600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>393600</v>
+        <v>571800</v>
       </c>
       <c r="E24" s="3">
-        <v>355500</v>
+        <v>-1295500</v>
       </c>
       <c r="F24" s="3">
-        <v>456000</v>
+        <v>400600</v>
       </c>
       <c r="G24" s="3">
-        <v>-247600</v>
+        <v>361800</v>
       </c>
       <c r="H24" s="3">
-        <v>238100</v>
+        <v>464100</v>
       </c>
       <c r="I24" s="3">
+        <v>-252000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>242300</v>
+      </c>
+      <c r="K24" s="3">
         <v>357600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>584000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>179600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>105800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>153800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>223000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>177600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>2592800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>108900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>105300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>306800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>340400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>342600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>1143300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>318600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>400600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>355700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>-616300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2045,168 +2141,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1315100</v>
+        <v>1422600</v>
       </c>
       <c r="E26" s="3">
-        <v>1281200</v>
+        <v>2129000</v>
       </c>
       <c r="F26" s="3">
-        <v>1298200</v>
+        <v>1338600</v>
       </c>
       <c r="G26" s="3">
-        <v>334300</v>
+        <v>1304100</v>
       </c>
       <c r="H26" s="3">
-        <v>348100</v>
+        <v>1321400</v>
       </c>
       <c r="I26" s="3">
+        <v>340300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>354300</v>
+      </c>
+      <c r="K26" s="3">
         <v>875000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1097100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>188500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>320700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>66500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>70900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1732400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>241600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-483800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>253600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>440300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>131800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>728200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>521700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>674900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1179700</v>
+        <v>1247100</v>
       </c>
       <c r="E27" s="3">
-        <v>1106700</v>
+        <v>1964300</v>
       </c>
       <c r="F27" s="3">
-        <v>1121500</v>
+        <v>1200700</v>
       </c>
       <c r="G27" s="3">
-        <v>220100</v>
+        <v>1126400</v>
       </c>
       <c r="H27" s="3">
-        <v>205300</v>
+        <v>1141500</v>
       </c>
       <c r="I27" s="3">
+        <v>224000</v>
+      </c>
+      <c r="J27" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K27" s="3">
         <v>732100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>960700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>83800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>188900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-84000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-46900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1870200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>117200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-502700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>233700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>310700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>47200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>725900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>178400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>670200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2285,8 +2399,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2329,11 +2449,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2347,15 +2467,15 @@
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2365,8 +2485,14 @@
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2571,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2657,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1797500</v>
+        <v>1292300</v>
       </c>
       <c r="E32" s="3">
-        <v>1683300</v>
+        <v>2812900</v>
       </c>
       <c r="F32" s="3">
-        <v>980800</v>
+        <v>1829700</v>
       </c>
       <c r="G32" s="3">
-        <v>2737000</v>
+        <v>1713300</v>
       </c>
       <c r="H32" s="3">
-        <v>2225000</v>
+        <v>998300</v>
       </c>
       <c r="I32" s="3">
+        <v>2785900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>2264700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1500200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1209300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2132400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1936700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2371600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2769800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>5035000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>4859500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>5244400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>3496500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>4213500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>3058100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>2918500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>2669200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>4807700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>2370800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>2444800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>2401600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>6444200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1179700</v>
+        <v>1247100</v>
       </c>
       <c r="E33" s="3">
-        <v>1106700</v>
+        <v>1964300</v>
       </c>
       <c r="F33" s="3">
-        <v>1121500</v>
+        <v>1200700</v>
       </c>
       <c r="G33" s="3">
-        <v>220100</v>
+        <v>1126400</v>
       </c>
       <c r="H33" s="3">
-        <v>205300</v>
+        <v>1141500</v>
       </c>
       <c r="I33" s="3">
+        <v>224000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K33" s="3">
         <v>732100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>960700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>83800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>188900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-84000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-46900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1870200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>117200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-502700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>233700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>310700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>47200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>725900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>178400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>670200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2915,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1179700</v>
+        <v>1247100</v>
       </c>
       <c r="E35" s="3">
-        <v>1106700</v>
+        <v>1964300</v>
       </c>
       <c r="F35" s="3">
-        <v>1121500</v>
+        <v>1200700</v>
       </c>
       <c r="G35" s="3">
-        <v>220100</v>
+        <v>1126400</v>
       </c>
       <c r="H35" s="3">
-        <v>205300</v>
+        <v>1141500</v>
       </c>
       <c r="I35" s="3">
+        <v>224000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K35" s="3">
         <v>732100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>960700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>83800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>188900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-84000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-46900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1870200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>117200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-502700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>233700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>310700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>47200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>725900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>178400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>670200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3128,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,168 +3160,182 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>192608900</v>
+        <v>173140800</v>
       </c>
       <c r="E41" s="3">
-        <v>187340100</v>
+        <v>192653100</v>
       </c>
       <c r="F41" s="3">
-        <v>177117700</v>
+        <v>196049600</v>
       </c>
       <c r="G41" s="3">
-        <v>203158200</v>
+        <v>190686700</v>
       </c>
       <c r="H41" s="3">
-        <v>208311700</v>
+        <v>180281700</v>
       </c>
       <c r="I41" s="3">
+        <v>206787400</v>
+      </c>
+      <c r="J41" s="3">
+        <v>212033000</v>
+      </c>
+      <c r="K41" s="3">
         <v>209767500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>190419900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>165775900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>183905500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>181344200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>132965600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>160626300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>205606000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>189379200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>224065000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>223249900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>222838000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>228478400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>248938600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>253182700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>229323500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>255268400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>210653100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>212886900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>642456700</v>
+        <v>509506200</v>
       </c>
       <c r="E42" s="3">
-        <v>563847300</v>
+        <v>541901500</v>
       </c>
       <c r="F42" s="3">
-        <v>536397500</v>
+        <v>653933500</v>
       </c>
       <c r="G42" s="3">
-        <v>536412300</v>
+        <v>573919900</v>
       </c>
       <c r="H42" s="3">
-        <v>524790200</v>
+        <v>545979700</v>
       </c>
       <c r="I42" s="3">
+        <v>545994800</v>
+      </c>
+      <c r="J42" s="3">
+        <v>534165000</v>
+      </c>
+      <c r="K42" s="3">
         <v>514620700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>534342900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>545724400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>583172100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>643250700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>720305000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>647419900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>844378300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>764585900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>754124000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>709886700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>662362500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>684587600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>720950100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>857440500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>785621900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>805357700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>892835100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>929369900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3230,8 +3414,14 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3310,8 +3500,14 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3390,8 +3586,14 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3470,248 +3672,272 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1316200</v>
+        <v>1156600</v>
       </c>
       <c r="E47" s="3">
-        <v>1253700</v>
+        <v>1210400</v>
       </c>
       <c r="F47" s="3">
-        <v>1131000</v>
+        <v>1339700</v>
       </c>
       <c r="G47" s="3">
-        <v>1154300</v>
+        <v>1276100</v>
       </c>
       <c r="H47" s="3">
-        <v>1143700</v>
+        <v>1151200</v>
       </c>
       <c r="I47" s="3">
+        <v>1174900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>1164100</v>
+      </c>
+      <c r="K47" s="3">
         <v>1174400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1123600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>898700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>955900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>1035300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>999300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>1084500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>1118400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>1081100</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>1101700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>1039800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>940400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>934400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>986000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>971600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>1026600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>1063600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>1150300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>1205500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300400</v>
+        <v>6570200</v>
       </c>
       <c r="E48" s="3">
-        <v>5919500</v>
+        <v>6572300</v>
       </c>
       <c r="F48" s="3">
-        <v>5885700</v>
+        <v>6412900</v>
       </c>
       <c r="G48" s="3">
-        <v>5857100</v>
+        <v>6025300</v>
       </c>
       <c r="H48" s="3">
-        <v>5625400</v>
+        <v>5990800</v>
       </c>
       <c r="I48" s="3">
+        <v>5961700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5725900</v>
+      </c>
+      <c r="K48" s="3">
         <v>5689900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5773500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>5534600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>5979300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>5253800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5238500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5755300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6297700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6274900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>6506100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2863800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2775600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2788900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2693400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2987900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3110200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3081000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3324200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>3291400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7828100</v>
+        <v>7633100</v>
       </c>
       <c r="E49" s="3">
-        <v>7570000</v>
+        <v>7637400</v>
       </c>
       <c r="F49" s="3">
-        <v>7302300</v>
+        <v>7968000</v>
       </c>
       <c r="G49" s="3">
-        <v>7219800</v>
+        <v>7705200</v>
       </c>
       <c r="H49" s="3">
-        <v>7115100</v>
+        <v>7432800</v>
       </c>
       <c r="I49" s="3">
+        <v>7348800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7242200</v>
+      </c>
+      <c r="K49" s="3">
         <v>7243100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7249400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>6707500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7004800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>7527300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7633100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>8205700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>9371200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>9067700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>10984700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>10812900</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>10030400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>9862200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>9608600</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>9917300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>9843200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>9911700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>10610100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>10543200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +4016,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +4102,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6600900</v>
+        <v>7412300</v>
       </c>
       <c r="E52" s="3">
-        <v>6705600</v>
+        <v>7831200</v>
       </c>
       <c r="F52" s="3">
-        <v>6776500</v>
+        <v>6718800</v>
       </c>
       <c r="G52" s="3">
-        <v>6578600</v>
+        <v>6825400</v>
       </c>
       <c r="H52" s="3">
-        <v>6221000</v>
+        <v>6897500</v>
       </c>
       <c r="I52" s="3">
+        <v>6696200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>6332200</v>
+      </c>
+      <c r="K52" s="3">
         <v>6231600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>6278200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>6042200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>6341600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>6508400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>6412400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>6988100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>7394000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>6532500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>8867400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>11721400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>15922900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>10640700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>10177400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>7678900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>9295700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>9479700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>10552600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>10833100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4274,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1584954900</v>
+        <v>1407268200</v>
       </c>
       <c r="E54" s="3">
-        <v>1467086300</v>
+        <v>1439587000</v>
       </c>
       <c r="F54" s="3">
-        <v>1420963800</v>
+        <v>1613268400</v>
       </c>
       <c r="G54" s="3">
-        <v>1400784600</v>
+        <v>1493294200</v>
       </c>
       <c r="H54" s="3">
-        <v>1402969400</v>
+        <v>1446347800</v>
       </c>
       <c r="I54" s="3">
+        <v>1425808100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1428031900</v>
+      </c>
+      <c r="K54" s="3">
         <v>1396966300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1393519300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1321813300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1440388300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1535233300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1626768300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1514917600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4396,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,41 +4428,43 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3">
+        <v>3043300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="3">
-        <v>1719300</v>
+      <c r="G57" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
+      <c r="I57" s="3">
+        <v>1750000</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M57" s="3">
         <v>1735500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4220,38 +4480,44 @@
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U57" s="3">
         <v>2940700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2523100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2478200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2882300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2943000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2793800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3097800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>3379400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>3183400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4330,88 +4596,100 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>583000</v>
+        <v>551400</v>
       </c>
       <c r="E59" s="3">
-        <v>730000</v>
+        <v>417800</v>
       </c>
       <c r="F59" s="3">
-        <v>749100</v>
+        <v>593400</v>
       </c>
       <c r="G59" s="3">
-        <v>634800</v>
+        <v>743100</v>
       </c>
       <c r="H59" s="3">
-        <v>840100</v>
+        <v>762400</v>
       </c>
       <c r="I59" s="3">
+        <v>646100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>855100</v>
+      </c>
+      <c r="K59" s="3">
         <v>921500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>815700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>572500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>714100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>836700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>711300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>760000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>851400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2138700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1063400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1116700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>985800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1012400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1213300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1123100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>1205000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1212900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1304100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1560000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4490,168 +4768,186 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>215501900</v>
+        <v>225326200</v>
       </c>
       <c r="E61" s="3">
-        <v>216409700</v>
+        <v>201013100</v>
       </c>
       <c r="F61" s="3">
-        <v>205275300</v>
+        <v>219351600</v>
       </c>
       <c r="G61" s="3">
-        <v>215282900</v>
+        <v>220275600</v>
       </c>
       <c r="H61" s="3">
-        <v>220470300</v>
+        <v>208942300</v>
       </c>
       <c r="I61" s="3">
+        <v>219128700</v>
+      </c>
+      <c r="J61" s="3">
+        <v>224408700</v>
+      </c>
+      <c r="K61" s="3">
         <v>214884000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>210056400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>196553600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>216575500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>227441600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>217812200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>220428000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>255682400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>238475100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>267994300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>190280100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>179290500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>183304500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>188645200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>192592900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>192494200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>199071300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>218534100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>217392000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3430000</v>
+        <v>3639900</v>
       </c>
       <c r="E62" s="3">
-        <v>3619400</v>
+        <v>3561300</v>
       </c>
       <c r="F62" s="3">
-        <v>4038400</v>
+        <v>3491300</v>
       </c>
       <c r="G62" s="3">
-        <v>3590900</v>
+        <v>3684100</v>
       </c>
       <c r="H62" s="3">
-        <v>3208900</v>
+        <v>4110500</v>
       </c>
       <c r="I62" s="3">
+        <v>3655000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>3266200</v>
+      </c>
+      <c r="K62" s="3">
         <v>3242800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>3485100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>12807600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3260000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3497500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3710200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>3697200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>3912600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3751500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>4158000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>5281600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>9456700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>7174300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>9655800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>5071400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>6957500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>7417500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>9514900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>14273500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +5026,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4810,8 +5112,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5198,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1511902100</v>
+        <v>1330181500</v>
       </c>
       <c r="E66" s="3">
-        <v>1396077600</v>
+        <v>1363625700</v>
       </c>
       <c r="F66" s="3">
-        <v>1350102200</v>
+        <v>1538910600</v>
       </c>
       <c r="G66" s="3">
-        <v>1330605300</v>
+        <v>1421016900</v>
       </c>
       <c r="H66" s="3">
-        <v>1334938900</v>
+        <v>1374220200</v>
       </c>
       <c r="I66" s="3">
+        <v>1354375100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1358786100</v>
+      </c>
+      <c r="K66" s="3">
         <v>1329638300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1328013200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1261361900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1377499800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1468503400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1559431800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1444263600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5320,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5402,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5488,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5574,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5660,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16651900</v>
+        <v>20769100</v>
       </c>
       <c r="E72" s="3">
-        <v>15286000</v>
+        <v>19168800</v>
       </c>
       <c r="F72" s="3">
-        <v>14660700</v>
+        <v>16949300</v>
       </c>
       <c r="G72" s="3">
-        <v>13338200</v>
+        <v>15559100</v>
       </c>
       <c r="H72" s="3">
-        <v>12888600</v>
+        <v>14922600</v>
       </c>
       <c r="I72" s="3">
+        <v>13576500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>13118800</v>
+      </c>
+      <c r="K72" s="3">
         <v>12484400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11771300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9988000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>9959700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>10335300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>10680000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>11258500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>14121700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>14850900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>19841400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>19771000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>19008600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>18649500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>18846100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>19583200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>22200800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>21747500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>22878700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>22287100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5832,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5918,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +6004,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>73052800</v>
+        <v>77086700</v>
       </c>
       <c r="E76" s="3">
-        <v>71008700</v>
+        <v>75961300</v>
       </c>
       <c r="F76" s="3">
-        <v>70861700</v>
+        <v>74357800</v>
       </c>
       <c r="G76" s="3">
-        <v>70179300</v>
+        <v>72277200</v>
       </c>
       <c r="H76" s="3">
-        <v>68030500</v>
+        <v>72127500</v>
       </c>
       <c r="I76" s="3">
+        <v>71432900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>69245700</v>
+      </c>
+      <c r="K76" s="3">
         <v>67327900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>65506100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>60451400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>62888400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>66729900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>67336400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>70654000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>77200100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>74603800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>80850000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>79454200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>74489400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>73930500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>73143300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>76125900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>78925300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>79585000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>75781200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>75714300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +6176,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1179700</v>
+        <v>1247100</v>
       </c>
       <c r="E81" s="3">
-        <v>1106700</v>
+        <v>1964300</v>
       </c>
       <c r="F81" s="3">
-        <v>1121500</v>
+        <v>1200700</v>
       </c>
       <c r="G81" s="3">
-        <v>220100</v>
+        <v>1126400</v>
       </c>
       <c r="H81" s="3">
-        <v>205300</v>
+        <v>1141500</v>
       </c>
       <c r="I81" s="3">
+        <v>224000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>208900</v>
+      </c>
+      <c r="K81" s="3">
         <v>732100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>960700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>83800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>188900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-84000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-46900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1870200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>117200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-502700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>233700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>310700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>47200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>725900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>178400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>670200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,8 +6389,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6021,11 +6417,11 @@
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -6042,41 +6438,47 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
         <v>705000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>692300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>936600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>348100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>732700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>366900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>544200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>814600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>2610600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6557,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6643,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6729,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6815,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,8 +6901,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6501,11 +6933,11 @@
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -6522,41 +6954,47 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
+      <c r="R89" s="3">
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>22428600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>49922900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>72411200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,37 +7023,39 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="D91" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-301000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-249000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-331000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-181000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6632,41 +7072,47 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-153800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-154000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-109800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-105400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-71800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-170500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-139100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-340400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-340400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +7191,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,8 +7277,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6851,11 +7309,11 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6872,41 +7330,47 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
+      <c r="R94" s="3">
+        <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-923800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>5880900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>5028800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>1605600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1331800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-448800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>252400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>11937600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,8 +7399,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7004,19 +7470,25 @@
         <v>0</v>
       </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-439800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7567,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7653,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,8 +7739,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7281,11 +7771,11 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -7302,41 +7792,47 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-132500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-332300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-793900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>911100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-371400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>7601500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-138500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-59900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7361,11 +7857,11 @@
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -7382,41 +7878,47 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>5</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U101" s="3">
         <v>1113100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>875000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>1412000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-693700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>430800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7441,11 +7943,11 @@
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7462,37 +7964,43 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
+      <c r="R102" s="3">
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>23560700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>55083000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>84719700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,193 +665,199 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10456700</v>
+        <v>11555400</v>
       </c>
       <c r="E8" s="3">
-        <v>8850000</v>
+        <v>10526600</v>
       </c>
       <c r="F8" s="3">
-        <v>6904000</v>
+        <v>8909100</v>
       </c>
       <c r="G8" s="3">
-        <v>5648300</v>
+        <v>6950200</v>
       </c>
       <c r="H8" s="3">
-        <v>4765300</v>
+        <v>5686100</v>
       </c>
       <c r="I8" s="3">
-        <v>4596200</v>
+        <v>4797100</v>
       </c>
       <c r="J8" s="3">
+        <v>4626900</v>
+      </c>
+      <c r="K8" s="3">
         <v>4467000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4179100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4479600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3846000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4143300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4898200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5964000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6438300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7751700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8073600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7778900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7110400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6720900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7042600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6582500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5961100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6681500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>7024800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7056900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7657900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1022,8 +1031,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1054,8 +1066,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1140,8 +1153,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1242,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1312,8 +1331,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1398,8 +1420,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7170000</v>
+        <v>8075500</v>
       </c>
       <c r="E17" s="3">
-        <v>5203600</v>
+        <v>7217900</v>
       </c>
       <c r="F17" s="3">
-        <v>3335200</v>
+        <v>5238400</v>
       </c>
       <c r="G17" s="3">
-        <v>2269000</v>
+        <v>3357500</v>
       </c>
       <c r="H17" s="3">
-        <v>1981500</v>
+        <v>2284200</v>
       </c>
       <c r="I17" s="3">
-        <v>1722000</v>
+        <v>1994700</v>
       </c>
       <c r="J17" s="3">
+        <v>1733500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1605700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1446300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1589100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1539000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1706300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2354200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2969500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2912700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3733800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3942100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3931900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3275500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3102400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3343400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3438900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2729800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3263900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3657700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3624700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4049600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3286700</v>
+        <v>3480000</v>
       </c>
       <c r="E18" s="3">
-        <v>3646400</v>
+        <v>3308700</v>
       </c>
       <c r="F18" s="3">
-        <v>3568800</v>
+        <v>3670800</v>
       </c>
       <c r="G18" s="3">
-        <v>3379300</v>
+        <v>3592700</v>
       </c>
       <c r="H18" s="3">
-        <v>2783800</v>
+        <v>3401900</v>
       </c>
       <c r="I18" s="3">
-        <v>2874200</v>
+        <v>2802400</v>
       </c>
       <c r="J18" s="3">
+        <v>2893500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2861300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2732800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2890500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2307000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2437000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2544000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2994500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3525600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4018000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4131500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3847000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3835000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3618500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3699200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3143600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3231300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3417600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3367100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3432200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3608300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1631,94 +1663,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1292300</v>
+        <v>-1956800</v>
       </c>
       <c r="E20" s="3">
-        <v>-2812900</v>
+        <v>-1300900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1829700</v>
+        <v>-2831700</v>
       </c>
       <c r="G20" s="3">
-        <v>-1713300</v>
+        <v>-1841900</v>
       </c>
       <c r="H20" s="3">
-        <v>-998300</v>
+        <v>-1724800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2785900</v>
+        <v>-1005000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2804600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2264700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1500200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1209300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2132400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1936700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2371600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2769800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-5035000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1773,38 +1809,41 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>326500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1252700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1717300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>822400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-843700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1413700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1466400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1845200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-225400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1889,180 +1928,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1994400</v>
+        <v>1523200</v>
       </c>
       <c r="E23" s="3">
-        <v>833500</v>
+        <v>2007800</v>
       </c>
       <c r="F23" s="3">
-        <v>1739200</v>
+        <v>839100</v>
       </c>
       <c r="G23" s="3">
-        <v>1666000</v>
+        <v>1750800</v>
       </c>
       <c r="H23" s="3">
-        <v>1785500</v>
+        <v>1677100</v>
       </c>
       <c r="I23" s="3">
-        <v>88300</v>
+        <v>1797400</v>
       </c>
       <c r="J23" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K23" s="3">
         <v>596600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1232600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1681200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>174500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>172400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>224700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1509500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-841600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>350500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-378500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>560400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>780700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>474300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1046800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>922300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1030600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>571800</v>
+        <v>505200</v>
       </c>
       <c r="E24" s="3">
-        <v>-1295500</v>
+        <v>575700</v>
       </c>
       <c r="F24" s="3">
+        <v>-1304200</v>
+      </c>
+      <c r="G24" s="3">
+        <v>403300</v>
+      </c>
+      <c r="H24" s="3">
+        <v>364300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>467200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-253700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>242300</v>
+      </c>
+      <c r="L24" s="3">
+        <v>357600</v>
+      </c>
+      <c r="M24" s="3">
+        <v>584000</v>
+      </c>
+      <c r="N24" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="O24" s="3">
+        <v>179600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>105800</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>153800</v>
+      </c>
+      <c r="R24" s="3">
+        <v>223000</v>
+      </c>
+      <c r="S24" s="3">
+        <v>177600</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2592800</v>
+      </c>
+      <c r="U24" s="3">
+        <v>108900</v>
+      </c>
+      <c r="V24" s="3">
+        <v>105300</v>
+      </c>
+      <c r="W24" s="3">
+        <v>306800</v>
+      </c>
+      <c r="X24" s="3">
+        <v>340400</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>342600</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>1143300</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>318600</v>
+      </c>
+      <c r="AB24" s="3">
         <v>400600</v>
       </c>
-      <c r="G24" s="3">
-        <v>361800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>464100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>-252000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>242300</v>
-      </c>
-      <c r="K24" s="3">
-        <v>357600</v>
-      </c>
-      <c r="L24" s="3">
-        <v>584000</v>
-      </c>
-      <c r="M24" s="3">
-        <v>-14000</v>
-      </c>
-      <c r="N24" s="3">
-        <v>179600</v>
-      </c>
-      <c r="O24" s="3">
-        <v>105800</v>
-      </c>
-      <c r="P24" s="3">
-        <v>153800</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>223000</v>
-      </c>
-      <c r="R24" s="3">
-        <v>177600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>2592800</v>
-      </c>
-      <c r="T24" s="3">
-        <v>108900</v>
-      </c>
-      <c r="U24" s="3">
-        <v>105300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>306800</v>
-      </c>
-      <c r="W24" s="3">
-        <v>340400</v>
-      </c>
-      <c r="X24" s="3">
-        <v>342600</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>1143300</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>318600</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>400600</v>
-      </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>355700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-616300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1422600</v>
+        <v>1018000</v>
       </c>
       <c r="E26" s="3">
-        <v>2129000</v>
+        <v>1432100</v>
       </c>
       <c r="F26" s="3">
-        <v>1338600</v>
+        <v>2143300</v>
       </c>
       <c r="G26" s="3">
-        <v>1304100</v>
+        <v>1347500</v>
       </c>
       <c r="H26" s="3">
-        <v>1321400</v>
+        <v>1312800</v>
       </c>
       <c r="I26" s="3">
-        <v>340300</v>
+        <v>1330200</v>
       </c>
       <c r="J26" s="3">
+        <v>342600</v>
+      </c>
+      <c r="K26" s="3">
         <v>354300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>875000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1097100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>188500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>320700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>66500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>70900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1732400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>241600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-483800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>253600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>440300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>131800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>728200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>521700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>674900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1247100</v>
+        <v>828300</v>
       </c>
       <c r="E27" s="3">
-        <v>1964300</v>
+        <v>1255400</v>
       </c>
       <c r="F27" s="3">
-        <v>1200700</v>
+        <v>1977400</v>
       </c>
       <c r="G27" s="3">
-        <v>1126400</v>
+        <v>1208800</v>
       </c>
       <c r="H27" s="3">
-        <v>1141500</v>
+        <v>1134000</v>
       </c>
       <c r="I27" s="3">
-        <v>224000</v>
+        <v>1149100</v>
       </c>
       <c r="J27" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K27" s="3">
         <v>208900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>732100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>960700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>83800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>188900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-84000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1870200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>117200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-502700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>233700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>310700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>47200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>725900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>178400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>670200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2455,8 +2515,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2473,12 +2533,12 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2491,8 +2551,11 @@
       <c r="AD29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1292300</v>
+        <v>1956800</v>
       </c>
       <c r="E32" s="3">
-        <v>2812900</v>
+        <v>1300900</v>
       </c>
       <c r="F32" s="3">
-        <v>1829700</v>
+        <v>2831700</v>
       </c>
       <c r="G32" s="3">
-        <v>1713300</v>
+        <v>1841900</v>
       </c>
       <c r="H32" s="3">
-        <v>998300</v>
+        <v>1724800</v>
       </c>
       <c r="I32" s="3">
-        <v>2785900</v>
+        <v>1005000</v>
       </c>
       <c r="J32" s="3">
+        <v>2804600</v>
+      </c>
+      <c r="K32" s="3">
         <v>2264700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1500200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1209300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2132400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1936700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2371600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2769800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>5035000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4859500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>5244400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3496500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>4213500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3058100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2918500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2669200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>4807700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2370800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2444800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2401600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>6444200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1247100</v>
+        <v>828300</v>
       </c>
       <c r="E33" s="3">
-        <v>1964300</v>
+        <v>1255400</v>
       </c>
       <c r="F33" s="3">
-        <v>1200700</v>
+        <v>1977400</v>
       </c>
       <c r="G33" s="3">
-        <v>1126400</v>
+        <v>1208800</v>
       </c>
       <c r="H33" s="3">
-        <v>1141500</v>
+        <v>1134000</v>
       </c>
       <c r="I33" s="3">
-        <v>224000</v>
+        <v>1149100</v>
       </c>
       <c r="J33" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K33" s="3">
         <v>208900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>732100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>960700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>83800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>188900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-84000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1870200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>117200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-502700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>233700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>310700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>47200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>725900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>178400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>670200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1247100</v>
+        <v>828300</v>
       </c>
       <c r="E35" s="3">
-        <v>1964300</v>
+        <v>1255400</v>
       </c>
       <c r="F35" s="3">
-        <v>1200700</v>
+        <v>1977400</v>
       </c>
       <c r="G35" s="3">
-        <v>1126400</v>
+        <v>1208800</v>
       </c>
       <c r="H35" s="3">
-        <v>1141500</v>
+        <v>1134000</v>
       </c>
       <c r="I35" s="3">
-        <v>224000</v>
+        <v>1149100</v>
       </c>
       <c r="J35" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K35" s="3">
         <v>208900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>732100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>960700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>83800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>188900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-84000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1870200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>117200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-502700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>233700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>310700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>47200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>725900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>178400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>670200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,180 +3247,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>173140800</v>
+        <v>178427700</v>
       </c>
       <c r="E41" s="3">
-        <v>192653100</v>
+        <v>174298300</v>
       </c>
       <c r="F41" s="3">
-        <v>196049600</v>
+        <v>193941200</v>
       </c>
       <c r="G41" s="3">
-        <v>190686700</v>
+        <v>197360400</v>
       </c>
       <c r="H41" s="3">
-        <v>180281700</v>
+        <v>191961600</v>
       </c>
       <c r="I41" s="3">
-        <v>206787400</v>
+        <v>181487000</v>
       </c>
       <c r="J41" s="3">
+        <v>208170000</v>
+      </c>
+      <c r="K41" s="3">
         <v>212033000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>209767500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>190419900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>165775900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>183905500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>181344200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>132965600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>160626300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>205606000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>189379200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>224065000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>223249900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>222838000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>228478400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>248938600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>253182700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>229323500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>255268400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>210653100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>212886900</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>509506200</v>
+        <v>517653400</v>
       </c>
       <c r="E42" s="3">
-        <v>541901500</v>
+        <v>512912600</v>
       </c>
       <c r="F42" s="3">
-        <v>653933500</v>
+        <v>545524500</v>
       </c>
       <c r="G42" s="3">
-        <v>573919900</v>
+        <v>658305600</v>
       </c>
       <c r="H42" s="3">
-        <v>545979700</v>
+        <v>577757000</v>
       </c>
       <c r="I42" s="3">
-        <v>545994800</v>
+        <v>549630000</v>
       </c>
       <c r="J42" s="3">
+        <v>549645200</v>
+      </c>
+      <c r="K42" s="3">
         <v>534165000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>514620700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>534342900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>545724400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>583172100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>643250700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>720305000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>647419900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>844378300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>764585900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>754124000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>709886700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>662362500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>684587600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>720950100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>857440500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>785621900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>805357700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>892835100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>929369900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3420,8 +3512,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3506,8 +3601,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3592,8 +3690,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3678,266 +3779,278 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1156600</v>
+        <v>1109000</v>
       </c>
       <c r="E47" s="3">
-        <v>1210400</v>
+        <v>1164300</v>
       </c>
       <c r="F47" s="3">
-        <v>1339700</v>
+        <v>1218500</v>
       </c>
       <c r="G47" s="3">
-        <v>1276100</v>
+        <v>1348600</v>
       </c>
       <c r="H47" s="3">
-        <v>1151200</v>
+        <v>1284700</v>
       </c>
       <c r="I47" s="3">
-        <v>1174900</v>
+        <v>1158900</v>
       </c>
       <c r="J47" s="3">
+        <v>1182800</v>
+      </c>
+      <c r="K47" s="3">
         <v>1164100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1174400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1123600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>898700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>955900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>1035300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>999300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>1084500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1118400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1081100</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1101700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1039800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>940400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>934400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>986000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>971600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>1026600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1063600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1150300</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1205500</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6570200</v>
+        <v>6515400</v>
       </c>
       <c r="E48" s="3">
-        <v>6572300</v>
+        <v>6614100</v>
       </c>
       <c r="F48" s="3">
-        <v>6412900</v>
+        <v>6616300</v>
       </c>
       <c r="G48" s="3">
-        <v>6025300</v>
+        <v>6455800</v>
       </c>
       <c r="H48" s="3">
-        <v>5990800</v>
+        <v>6065500</v>
       </c>
       <c r="I48" s="3">
-        <v>5961700</v>
+        <v>6030800</v>
       </c>
       <c r="J48" s="3">
+        <v>6001600</v>
+      </c>
+      <c r="K48" s="3">
         <v>5725900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5689900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5773500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5534600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5979300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5253800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5238500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5755300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6297700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6274900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6506100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2863800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2775600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2788900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2693400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2987900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3110200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3081000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3324200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3291400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7741600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7684100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7688400</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8021300</v>
+      </c>
+      <c r="H49" s="3">
+        <v>7756700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>7482500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7397900</v>
+      </c>
+      <c r="K49" s="3">
+        <v>7242200</v>
+      </c>
+      <c r="L49" s="3">
+        <v>7243100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>7249400</v>
+      </c>
+      <c r="N49" s="3">
+        <v>6707500</v>
+      </c>
+      <c r="O49" s="3">
+        <v>7004800</v>
+      </c>
+      <c r="P49" s="3">
+        <v>7527300</v>
+      </c>
+      <c r="Q49" s="3">
         <v>7633100</v>
       </c>
-      <c r="E49" s="3">
-        <v>7637400</v>
-      </c>
-      <c r="F49" s="3">
-        <v>7968000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7705200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7432800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>7348800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>7242200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>7243100</v>
-      </c>
-      <c r="L49" s="3">
-        <v>7249400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>6707500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>7004800</v>
-      </c>
-      <c r="O49" s="3">
-        <v>7527300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>7633100</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8205700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9371200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9067700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>10984700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10812900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10030400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>9862200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9608600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9917300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9843200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>9911700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>10610100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>10543200</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7412300</v>
+        <v>7484600</v>
       </c>
       <c r="E52" s="3">
-        <v>7831200</v>
+        <v>7461900</v>
       </c>
       <c r="F52" s="3">
-        <v>6718800</v>
+        <v>7883600</v>
       </c>
       <c r="G52" s="3">
-        <v>6825400</v>
+        <v>6763700</v>
       </c>
       <c r="H52" s="3">
-        <v>6897500</v>
+        <v>6871000</v>
       </c>
       <c r="I52" s="3">
-        <v>6696200</v>
+        <v>6943700</v>
       </c>
       <c r="J52" s="3">
+        <v>6740900</v>
+      </c>
+      <c r="K52" s="3">
         <v>6332200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6231600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6278200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6042200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6341600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6508400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6412400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6988100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>7394000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>6532500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8867400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>11721400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15922900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10640700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10177400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>7678900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9295700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9479700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>10552600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10833100</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1407268200</v>
+        <v>1409647600</v>
       </c>
       <c r="E54" s="3">
-        <v>1439587000</v>
+        <v>1416676900</v>
       </c>
       <c r="F54" s="3">
-        <v>1613268400</v>
+        <v>1449211900</v>
       </c>
       <c r="G54" s="3">
-        <v>1493294200</v>
+        <v>1624054400</v>
       </c>
       <c r="H54" s="3">
-        <v>1446347800</v>
+        <v>1503278100</v>
       </c>
       <c r="I54" s="3">
-        <v>1425808100</v>
+        <v>1456017900</v>
       </c>
       <c r="J54" s="3">
+        <v>1435340800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1428031900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1396966300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1393519300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1321813300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1440388300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1535233300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1626768300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1514917600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,19 +4559,20 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="3">
-        <v>3043300</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3063700</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>5</v>
@@ -4450,11 +4580,11 @@
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I57" s="3">
-        <v>1750000</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
+      <c r="I57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1761700</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
@@ -4462,12 +4592,12 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3">
         <v>1735500</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4486,38 +4616,41 @@
       <c r="T57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V57" s="3">
         <v>2940700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2523100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2478200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2882300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2943000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2793800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3097800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3379400</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3183400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4602,94 +4735,100 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>551400</v>
+        <v>636400</v>
       </c>
       <c r="E59" s="3">
-        <v>417800</v>
+        <v>555100</v>
       </c>
       <c r="F59" s="3">
-        <v>593400</v>
+        <v>420600</v>
       </c>
       <c r="G59" s="3">
-        <v>743100</v>
+        <v>597300</v>
       </c>
       <c r="H59" s="3">
-        <v>762400</v>
+        <v>748000</v>
       </c>
       <c r="I59" s="3">
-        <v>646100</v>
+        <v>767500</v>
       </c>
       <c r="J59" s="3">
+        <v>650500</v>
+      </c>
+      <c r="K59" s="3">
         <v>855100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>921500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>815700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>572500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>714100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>836700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>711300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>760000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>851400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2138700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1063400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1116700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>985800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1012400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1213300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1123100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1205000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1212900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1304100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1560000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4774,180 +4913,189 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>225326200</v>
+        <v>218968700</v>
       </c>
       <c r="E61" s="3">
-        <v>201013100</v>
+        <v>226832700</v>
       </c>
       <c r="F61" s="3">
-        <v>219351600</v>
+        <v>202357000</v>
       </c>
       <c r="G61" s="3">
-        <v>220275600</v>
+        <v>220818200</v>
       </c>
       <c r="H61" s="3">
-        <v>208942300</v>
+        <v>221748300</v>
       </c>
       <c r="I61" s="3">
-        <v>219128700</v>
+        <v>210339300</v>
       </c>
       <c r="J61" s="3">
+        <v>220593800</v>
+      </c>
+      <c r="K61" s="3">
         <v>224408700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>214884000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>210056400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>196553600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>216575500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>227441600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>217812200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>220428000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>255682400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>238475100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>267994300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>190280100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>179290500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>183304500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>188645200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>192592900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>192494200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>199071300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>218534100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>217392000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3639900</v>
+        <v>3732600</v>
       </c>
       <c r="E62" s="3">
-        <v>3561300</v>
+        <v>3664300</v>
       </c>
       <c r="F62" s="3">
-        <v>3491300</v>
+        <v>3585100</v>
       </c>
       <c r="G62" s="3">
-        <v>3684100</v>
+        <v>3514700</v>
       </c>
       <c r="H62" s="3">
-        <v>4110500</v>
+        <v>3708700</v>
       </c>
       <c r="I62" s="3">
-        <v>3655000</v>
+        <v>4138000</v>
       </c>
       <c r="J62" s="3">
+        <v>3679400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3266200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3242800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3485100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>12807600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>3260000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3497500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3710200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3697200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3912600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3751500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>4158000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>5281600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9456700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7174300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>9655800</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>5071400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6957500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>7417500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>9514900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>14273500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1330181500</v>
+        <v>1332686300</v>
       </c>
       <c r="E66" s="3">
-        <v>1363625700</v>
+        <v>1339074900</v>
       </c>
       <c r="F66" s="3">
-        <v>1538910600</v>
+        <v>1372742700</v>
       </c>
       <c r="G66" s="3">
-        <v>1421016900</v>
+        <v>1549199500</v>
       </c>
       <c r="H66" s="3">
-        <v>1374220200</v>
+        <v>1430517700</v>
       </c>
       <c r="I66" s="3">
-        <v>1354375100</v>
+        <v>1383408100</v>
       </c>
       <c r="J66" s="3">
+        <v>1363430300</v>
+      </c>
+      <c r="K66" s="3">
         <v>1358786100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1329638300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1328013200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1261361900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1377499800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1468503400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1559431800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1444263600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20769100</v>
+        <v>20652100</v>
       </c>
       <c r="E72" s="3">
-        <v>19168800</v>
+        <v>20908000</v>
       </c>
       <c r="F72" s="3">
-        <v>16949300</v>
+        <v>19297000</v>
       </c>
       <c r="G72" s="3">
-        <v>15559100</v>
+        <v>17062600</v>
       </c>
       <c r="H72" s="3">
-        <v>14922600</v>
+        <v>15663100</v>
       </c>
       <c r="I72" s="3">
-        <v>13576500</v>
+        <v>15022400</v>
       </c>
       <c r="J72" s="3">
+        <v>13667200</v>
+      </c>
+      <c r="K72" s="3">
         <v>13118800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12484400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11771300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9988000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9959700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10335300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10680000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11258500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>14121700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14850900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>19841400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19771000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19008600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>18649500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18846100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>19583200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>22200800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>21747500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>22878700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22287100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>77086700</v>
+        <v>76961300</v>
       </c>
       <c r="E76" s="3">
-        <v>75961300</v>
+        <v>77602000</v>
       </c>
       <c r="F76" s="3">
-        <v>74357800</v>
+        <v>76469200</v>
       </c>
       <c r="G76" s="3">
-        <v>72277200</v>
+        <v>74854900</v>
       </c>
       <c r="H76" s="3">
-        <v>72127500</v>
+        <v>72760500</v>
       </c>
       <c r="I76" s="3">
-        <v>71432900</v>
+        <v>72609800</v>
       </c>
       <c r="J76" s="3">
+        <v>71910500</v>
+      </c>
+      <c r="K76" s="3">
         <v>69245700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>67327900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>65506100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60451400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>62888400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>66729900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>67336400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>70654000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>77200100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>74603800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>80850000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>79454200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>74489400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>73930500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>73143300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>76125900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>78925300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>79585000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>75781200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>75714300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1247100</v>
+        <v>828300</v>
       </c>
       <c r="E81" s="3">
-        <v>1964300</v>
+        <v>1255400</v>
       </c>
       <c r="F81" s="3">
-        <v>1200700</v>
+        <v>1977400</v>
       </c>
       <c r="G81" s="3">
-        <v>1126400</v>
+        <v>1208800</v>
       </c>
       <c r="H81" s="3">
-        <v>1141500</v>
+        <v>1134000</v>
       </c>
       <c r="I81" s="3">
-        <v>224000</v>
+        <v>1149100</v>
       </c>
       <c r="J81" s="3">
+        <v>225500</v>
+      </c>
+      <c r="K81" s="3">
         <v>208900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>732100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>960700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>83800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>188900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-84000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-46900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1870200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>117200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-502700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>233700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>310700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>47200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>725900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>178400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>670200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,31 +6588,32 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
@@ -6423,8 +6621,8 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6444,41 +6642,44 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
         <v>705000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>692300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>936600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>348100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>732700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>366900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>544200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>814600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>2610600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,31 +7120,34 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -6939,8 +7155,8 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -6960,41 +7176,44 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>22428600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>49922900</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>72411200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,40 +7244,41 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-178000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-154000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-183000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-301000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-249000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-331000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-181000</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -7078,41 +7298,44 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-153800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-154000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-109800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-105400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-71800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-170500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-340400</v>
       </c>
       <c r="AC91" s="3">
         <v>-340400</v>
       </c>
       <c r="AD91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,31 +7509,34 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -7315,8 +7544,8 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -7336,41 +7565,44 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-923800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>5880900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5028800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1605600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1331800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-448800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>252400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>11937600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,8 +7633,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7476,19 +7709,22 @@
         <v>0</v>
       </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-439800</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
         <v>0</v>
       </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,31 +7987,34 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -7777,8 +8022,8 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -7798,64 +8043,67 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-132500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-332300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-793900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>911100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-371400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>7601500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-138500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-59900</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -7863,8 +8111,8 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -7884,64 +8132,67 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V101" s="3">
         <v>1113100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>875000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>1412000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-693700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>430800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
@@ -7949,8 +8200,8 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -7970,37 +8221,40 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3">
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>23560700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>55083000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>84719700</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-18572000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="92">
   <si>
     <t>DB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,205 @@
     <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11555400</v>
+        <v>12397200</v>
       </c>
       <c r="E8" s="3">
-        <v>10526600</v>
+        <v>11565000</v>
       </c>
       <c r="F8" s="3">
-        <v>8909100</v>
+        <v>10535400</v>
       </c>
       <c r="G8" s="3">
-        <v>6950200</v>
+        <v>8916500</v>
       </c>
       <c r="H8" s="3">
-        <v>5686100</v>
+        <v>6955900</v>
       </c>
       <c r="I8" s="3">
-        <v>4797100</v>
+        <v>5690800</v>
       </c>
       <c r="J8" s="3">
+        <v>4801100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4626900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4467000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4179100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4479600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3846000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4143300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4898200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5964000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6438300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7751700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8073600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7778900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7110400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6720900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7042600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6582500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5961100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6681500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>7024800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>7056900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>7657900</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>7464300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +951,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1043,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,8 +1079,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1156,8 +1169,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1261,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1334,8 +1353,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1423,8 +1445,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8075500</v>
+        <v>9034800</v>
       </c>
       <c r="E17" s="3">
-        <v>7217900</v>
+        <v>8082200</v>
       </c>
       <c r="F17" s="3">
-        <v>5238400</v>
+        <v>7223900</v>
       </c>
       <c r="G17" s="3">
-        <v>3357500</v>
+        <v>5242700</v>
       </c>
       <c r="H17" s="3">
-        <v>2284200</v>
+        <v>3360200</v>
       </c>
       <c r="I17" s="3">
-        <v>1994700</v>
+        <v>2286100</v>
       </c>
       <c r="J17" s="3">
+        <v>1996400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1733500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1605700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1446300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1589100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1539000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1706300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2354200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2969500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2912700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3733800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3942100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3931900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3275500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3102400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3343400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3438900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2729800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>3263900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>3657700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3624700</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4049600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3710400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3480000</v>
+        <v>3362400</v>
       </c>
       <c r="E18" s="3">
-        <v>3308700</v>
+        <v>3482900</v>
       </c>
       <c r="F18" s="3">
-        <v>3670800</v>
+        <v>3311400</v>
       </c>
       <c r="G18" s="3">
-        <v>3592700</v>
+        <v>3673800</v>
       </c>
       <c r="H18" s="3">
-        <v>3401900</v>
+        <v>3595700</v>
       </c>
       <c r="I18" s="3">
-        <v>2802400</v>
+        <v>3404700</v>
       </c>
       <c r="J18" s="3">
+        <v>2804700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2893500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2861300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2732800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2890500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2307000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2437000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2544000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2994500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3525600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>4018000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4131500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3847000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3835000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3618500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3699200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3143600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3231300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3417600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>3367100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>3432200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>3608300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>3753800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1664,97 +1696,101 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1956800</v>
+        <v>-1493000</v>
       </c>
       <c r="E20" s="3">
-        <v>-1300900</v>
+        <v>-1958400</v>
       </c>
       <c r="F20" s="3">
-        <v>-2831700</v>
+        <v>-1302000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1841900</v>
+        <v>-2834000</v>
       </c>
       <c r="H20" s="3">
-        <v>-1724800</v>
+        <v>-1843400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1005000</v>
+        <v>-1726200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1005800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2804600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2264700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1500200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1209300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2132400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1936700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2371600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2769800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-5035000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4859500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-5244400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3496500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4213500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3058100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2918500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2669200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4807700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2370800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2444800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2401600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-6444200</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-3027300</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1812,38 +1848,41 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3">
         <v>326500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1252700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1717300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>822400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-843700</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1413700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1466400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1845200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-225400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1150300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1931,186 +1970,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1523200</v>
+        <v>1869500</v>
       </c>
       <c r="E23" s="3">
-        <v>2007800</v>
+        <v>1524400</v>
       </c>
       <c r="F23" s="3">
-        <v>839100</v>
+        <v>2009400</v>
       </c>
       <c r="G23" s="3">
-        <v>1750800</v>
+        <v>839800</v>
       </c>
       <c r="H23" s="3">
-        <v>1677100</v>
+        <v>1752300</v>
       </c>
       <c r="I23" s="3">
-        <v>1797400</v>
+        <v>1678500</v>
       </c>
       <c r="J23" s="3">
+        <v>1798900</v>
+      </c>
+      <c r="K23" s="3">
         <v>88900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>596600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1232600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1681200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>174500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>172400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>224700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1509500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-841600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1112900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>350500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-378500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>560400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>780700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>474300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1576400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1046800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>922300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1030600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-2835900</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>726600</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>505200</v>
+        <v>566400</v>
       </c>
       <c r="E24" s="3">
-        <v>575700</v>
+        <v>505600</v>
       </c>
       <c r="F24" s="3">
-        <v>-1304200</v>
+        <v>576100</v>
       </c>
       <c r="G24" s="3">
-        <v>403300</v>
+        <v>-1305300</v>
       </c>
       <c r="H24" s="3">
-        <v>364300</v>
+        <v>403600</v>
       </c>
       <c r="I24" s="3">
-        <v>467200</v>
+        <v>364600</v>
       </c>
       <c r="J24" s="3">
+        <v>467600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-253700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>242300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>357600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>584000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>179600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>105800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>153800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>223000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>177600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2592800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>108900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>105300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>306800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>340400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>342600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1143300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>318600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>400600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>355700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-616300</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>399100</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1018000</v>
+        <v>1303100</v>
       </c>
       <c r="E26" s="3">
-        <v>1432100</v>
+        <v>1018800</v>
       </c>
       <c r="F26" s="3">
-        <v>2143300</v>
+        <v>1433300</v>
       </c>
       <c r="G26" s="3">
-        <v>1347500</v>
+        <v>2145000</v>
       </c>
       <c r="H26" s="3">
-        <v>1312800</v>
+        <v>1348700</v>
       </c>
       <c r="I26" s="3">
-        <v>1330200</v>
+        <v>1313900</v>
       </c>
       <c r="J26" s="3">
+        <v>1331300</v>
+      </c>
+      <c r="K26" s="3">
         <v>342600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>354300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>875000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1097100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>188500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>320700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>66500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>70900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1732400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1019200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-3705700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>241600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-483800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>253600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>440300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>131800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2719700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>728200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>521700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>674900</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-2219700</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>327500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>828300</v>
+        <v>1118600</v>
       </c>
       <c r="E27" s="3">
-        <v>1255400</v>
+        <v>828900</v>
       </c>
       <c r="F27" s="3">
-        <v>1977400</v>
+        <v>1256400</v>
       </c>
       <c r="G27" s="3">
-        <v>1208800</v>
+        <v>1979000</v>
       </c>
       <c r="H27" s="3">
-        <v>1134000</v>
+        <v>1209800</v>
       </c>
       <c r="I27" s="3">
-        <v>1149100</v>
+        <v>1134900</v>
       </c>
       <c r="J27" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="K27" s="3">
         <v>225500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>208900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>732100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>960700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>83800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>188900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-46900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1870200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1153900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-3849200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>117200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-502700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>233700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>310700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>47200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2720800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>725900</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>178400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>670200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2518,8 +2578,8 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
@@ -2536,12 +2596,12 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-1612300</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>5</v>
       </c>
@@ -2554,8 +2614,11 @@
       <c r="AE29" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1956800</v>
+        <v>1493000</v>
       </c>
       <c r="E32" s="3">
-        <v>1300900</v>
+        <v>1958400</v>
       </c>
       <c r="F32" s="3">
-        <v>2831700</v>
+        <v>1302000</v>
       </c>
       <c r="G32" s="3">
-        <v>1841900</v>
+        <v>2834000</v>
       </c>
       <c r="H32" s="3">
-        <v>1724800</v>
+        <v>1843400</v>
       </c>
       <c r="I32" s="3">
-        <v>1005000</v>
+        <v>1726200</v>
       </c>
       <c r="J32" s="3">
+        <v>1005800</v>
+      </c>
+      <c r="K32" s="3">
         <v>2804600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2264700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1500200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1209300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2132400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1936700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2371600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2769800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>5035000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4859500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>5244400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3496500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4213500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3058100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2918500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2669200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4807700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2370800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2444800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2401600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>6444200</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>3027300</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>828300</v>
+        <v>1118600</v>
       </c>
       <c r="E33" s="3">
-        <v>1255400</v>
+        <v>828900</v>
       </c>
       <c r="F33" s="3">
-        <v>1977400</v>
+        <v>1256400</v>
       </c>
       <c r="G33" s="3">
-        <v>1208800</v>
+        <v>1979000</v>
       </c>
       <c r="H33" s="3">
-        <v>1134000</v>
+        <v>1209800</v>
       </c>
       <c r="I33" s="3">
-        <v>1149100</v>
+        <v>1134900</v>
       </c>
       <c r="J33" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="K33" s="3">
         <v>225500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>208900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>732100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>960700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>83800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>188900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-46900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1870200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1153900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-3849200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>117200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-502700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>233700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>310700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>47200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-4333100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>725900</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>178400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>670200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>828300</v>
+        <v>1118600</v>
       </c>
       <c r="E35" s="3">
-        <v>1255400</v>
+        <v>828900</v>
       </c>
       <c r="F35" s="3">
-        <v>1977400</v>
+        <v>1256400</v>
       </c>
       <c r="G35" s="3">
-        <v>1208800</v>
+        <v>1979000</v>
       </c>
       <c r="H35" s="3">
-        <v>1134000</v>
+        <v>1209800</v>
       </c>
       <c r="I35" s="3">
-        <v>1149100</v>
+        <v>1134900</v>
       </c>
       <c r="J35" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="K35" s="3">
         <v>225500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>208900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>732100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>960700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>83800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>188900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-46900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1870200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1153900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-3849200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>117200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-502700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>233700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>310700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>47200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-4333100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>725900</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>178400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>670200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,186 +3333,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>178427700</v>
+        <v>184100600</v>
       </c>
       <c r="E41" s="3">
-        <v>174298300</v>
+        <v>178575800</v>
       </c>
       <c r="F41" s="3">
-        <v>193941200</v>
+        <v>174443000</v>
       </c>
       <c r="G41" s="3">
-        <v>197360400</v>
+        <v>194102200</v>
       </c>
       <c r="H41" s="3">
-        <v>191961600</v>
+        <v>197524300</v>
       </c>
       <c r="I41" s="3">
-        <v>181487000</v>
+        <v>192121000</v>
       </c>
       <c r="J41" s="3">
+        <v>181637700</v>
+      </c>
+      <c r="K41" s="3">
         <v>208170000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>212033000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>209767500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>190419900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>165775900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>183905500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>181344200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>132965600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>160626300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>205606000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>189379200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>224065000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>223249900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>222838000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>228478400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>248938600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>253182700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>229323500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>255268400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>210653100</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>212886900</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>127064900</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>517653400</v>
+        <v>553006100</v>
       </c>
       <c r="E42" s="3">
-        <v>512912600</v>
+        <v>518083200</v>
       </c>
       <c r="F42" s="3">
-        <v>545524500</v>
+        <v>513338500</v>
       </c>
       <c r="G42" s="3">
-        <v>658305600</v>
+        <v>545977400</v>
       </c>
       <c r="H42" s="3">
-        <v>577757000</v>
+        <v>658852100</v>
       </c>
       <c r="I42" s="3">
-        <v>549630000</v>
+        <v>578236600</v>
       </c>
       <c r="J42" s="3">
+        <v>550086300</v>
+      </c>
+      <c r="K42" s="3">
         <v>549645200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>534165000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>514620700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>534342900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>545724400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>583172100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>643250700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>720305000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>647419900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>844378300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>764585900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>754124000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>709886700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>662362500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>684587600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>720950100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>857440500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>785621900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>805357700</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>892835100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>929369900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1053154100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3515,8 +3607,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3604,8 +3699,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3693,8 +3791,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3782,275 +3883,287 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1109000</v>
+        <v>1087200</v>
       </c>
       <c r="E47" s="3">
-        <v>1164300</v>
+        <v>1110000</v>
       </c>
       <c r="F47" s="3">
-        <v>1218500</v>
+        <v>1165300</v>
       </c>
       <c r="G47" s="3">
-        <v>1348600</v>
+        <v>1219500</v>
       </c>
       <c r="H47" s="3">
-        <v>1284700</v>
+        <v>1349700</v>
       </c>
       <c r="I47" s="3">
-        <v>1158900</v>
+        <v>1285700</v>
       </c>
       <c r="J47" s="3">
+        <v>1159900</v>
+      </c>
+      <c r="K47" s="3">
         <v>1182800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>1164100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>1174400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1123600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>898700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>955900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>1035300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>999300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>1084500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>1118400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>1081100</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>1101700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>1039800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>940400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>934400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>986000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>971600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>1026600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>1063600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>1150300</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>1205500</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>1089300</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6515400</v>
+        <v>6653200</v>
       </c>
       <c r="E48" s="3">
-        <v>6614100</v>
+        <v>6520900</v>
       </c>
       <c r="F48" s="3">
-        <v>6616300</v>
+        <v>6619600</v>
       </c>
       <c r="G48" s="3">
-        <v>6455800</v>
+        <v>6621800</v>
       </c>
       <c r="H48" s="3">
-        <v>6065500</v>
+        <v>6461200</v>
       </c>
       <c r="I48" s="3">
-        <v>6030800</v>
+        <v>6070600</v>
       </c>
       <c r="J48" s="3">
+        <v>6035900</v>
+      </c>
+      <c r="K48" s="3">
         <v>6001600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5725900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5689900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5773500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5534600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5979300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5253800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5238500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5755300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6297700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>6274900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6506100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2863800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2775600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2788900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2693400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2987900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3110200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3081000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3324200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3291400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3165800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7741600</v>
+        <v>7956300</v>
       </c>
       <c r="E49" s="3">
-        <v>7684100</v>
+        <v>7748000</v>
       </c>
       <c r="F49" s="3">
-        <v>7688400</v>
+        <v>7690500</v>
       </c>
       <c r="G49" s="3">
-        <v>8021300</v>
+        <v>7694800</v>
       </c>
       <c r="H49" s="3">
-        <v>7756700</v>
+        <v>8027900</v>
       </c>
       <c r="I49" s="3">
-        <v>7482500</v>
+        <v>7763200</v>
       </c>
       <c r="J49" s="3">
+        <v>7488700</v>
+      </c>
+      <c r="K49" s="3">
         <v>7397900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7242200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7243100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7249400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6707500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7004800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7527300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7633100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8205700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9371200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9067700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>10984700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>10812900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>10030400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>9862200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9608600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9917300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>9843200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>9911700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>10610100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>10543200</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>11221600</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7484600</v>
+        <v>7571100</v>
       </c>
       <c r="E52" s="3">
-        <v>7461900</v>
+        <v>7490800</v>
       </c>
       <c r="F52" s="3">
-        <v>7883600</v>
+        <v>7468100</v>
       </c>
       <c r="G52" s="3">
-        <v>6763700</v>
+        <v>7890100</v>
       </c>
       <c r="H52" s="3">
-        <v>6871000</v>
+        <v>6769300</v>
       </c>
       <c r="I52" s="3">
-        <v>6943700</v>
+        <v>6876700</v>
       </c>
       <c r="J52" s="3">
+        <v>6949400</v>
+      </c>
+      <c r="K52" s="3">
         <v>6740900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6332200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>6231600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>6278200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>6042200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>6341600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>6508400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>6412400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>6988100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>7394000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>6532500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8867400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>11721400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>15922900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>10640700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>10177400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>7678900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9295700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>9479700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>10552600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>10833100</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>13272300</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1409647600</v>
+        <v>1473725100</v>
       </c>
       <c r="E54" s="3">
-        <v>1416676900</v>
+        <v>1410817900</v>
       </c>
       <c r="F54" s="3">
-        <v>1449211900</v>
+        <v>1417853000</v>
       </c>
       <c r="G54" s="3">
-        <v>1624054400</v>
+        <v>1450415000</v>
       </c>
       <c r="H54" s="3">
-        <v>1503278100</v>
+        <v>1625402700</v>
       </c>
       <c r="I54" s="3">
-        <v>1456017900</v>
+        <v>1504526100</v>
       </c>
       <c r="J54" s="3">
+        <v>1457226600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1435340800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1428031900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1396966300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1393519300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1321813300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1440388300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1535233300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1626768300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1514917600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1838614400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1689423300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1719153500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1594711300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1528468100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1560214100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1622553000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1654634600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1707056200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1760103900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1836726200</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1866998800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1982507600</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,8 +4689,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4571,11 +4701,11 @@
       <c r="E57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F57" s="3">
-        <v>3063700</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
+      <c r="F57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" s="3">
+        <v>3066200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
@@ -4583,24 +4713,24 @@
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K57" s="3">
         <v>1761700</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O57" s="3">
         <v>1735500</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
@@ -4619,38 +4749,41 @@
       <c r="U57" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W57" s="3">
         <v>2940700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2523100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>2478200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2882300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2943000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2793800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3097800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3379400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>3183400</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>2699800</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4738,97 +4871,103 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>636400</v>
+        <v>709600</v>
       </c>
       <c r="E59" s="3">
-        <v>555100</v>
+        <v>636900</v>
       </c>
       <c r="F59" s="3">
-        <v>420600</v>
+        <v>555500</v>
       </c>
       <c r="G59" s="3">
-        <v>597300</v>
+        <v>421000</v>
       </c>
       <c r="H59" s="3">
-        <v>748000</v>
+        <v>597800</v>
       </c>
       <c r="I59" s="3">
-        <v>767500</v>
+        <v>748700</v>
       </c>
       <c r="J59" s="3">
+        <v>768200</v>
+      </c>
+      <c r="K59" s="3">
         <v>650500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>855100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>921500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>815700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>572500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>714100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>836700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>711300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>760000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>851400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2138700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1063400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1116700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>985800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1012400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1213300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1123100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1205000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1212900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>1304100</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>1560000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>1480200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4916,186 +5055,195 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>218968700</v>
+        <v>218370400</v>
       </c>
       <c r="E61" s="3">
-        <v>226832700</v>
+        <v>219150500</v>
       </c>
       <c r="F61" s="3">
-        <v>202357000</v>
+        <v>227021100</v>
       </c>
       <c r="G61" s="3">
-        <v>220818200</v>
+        <v>202525000</v>
       </c>
       <c r="H61" s="3">
-        <v>221748300</v>
+        <v>221001500</v>
       </c>
       <c r="I61" s="3">
-        <v>210339300</v>
+        <v>221932400</v>
       </c>
       <c r="J61" s="3">
+        <v>210513900</v>
+      </c>
+      <c r="K61" s="3">
         <v>220593800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>224408700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>214884000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>210056400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>196553600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>216575500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>227441600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>217812200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>220428000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>255682400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>238475100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>267994300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>190280100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>179290500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>183304500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>188645200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>192592900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>192494200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>199071300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>218534100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>217392000</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>206663300</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3732600</v>
+        <v>3716100</v>
       </c>
       <c r="E62" s="3">
-        <v>3664300</v>
+        <v>3735700</v>
       </c>
       <c r="F62" s="3">
-        <v>3585100</v>
+        <v>3667300</v>
       </c>
       <c r="G62" s="3">
-        <v>3514700</v>
+        <v>3588100</v>
       </c>
       <c r="H62" s="3">
-        <v>3708700</v>
+        <v>3517600</v>
       </c>
       <c r="I62" s="3">
-        <v>4138000</v>
+        <v>3711800</v>
       </c>
       <c r="J62" s="3">
+        <v>4141400</v>
+      </c>
+      <c r="K62" s="3">
         <v>3679400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3266200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3242800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3485100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>12807600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3260000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3497500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3710200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>3697200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>3912600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>3751500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>4158000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5281600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9456700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7174300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>9655800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5071400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6957500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7417500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>9514900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>14273500</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>12366100</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1332686300</v>
+        <v>1395478200</v>
       </c>
       <c r="E66" s="3">
-        <v>1339074900</v>
+        <v>1333792700</v>
       </c>
       <c r="F66" s="3">
-        <v>1372742700</v>
+        <v>1340186600</v>
       </c>
       <c r="G66" s="3">
-        <v>1549199500</v>
+        <v>1373882300</v>
       </c>
       <c r="H66" s="3">
-        <v>1430517700</v>
+        <v>1550485600</v>
       </c>
       <c r="I66" s="3">
-        <v>1383408100</v>
+        <v>1431705200</v>
       </c>
       <c r="J66" s="3">
+        <v>1384556600</v>
+      </c>
+      <c r="K66" s="3">
         <v>1363430300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1358786100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1329638300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1328013200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1261361900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1377499800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1468503400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1559431800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1444263600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1761414300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1614819600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1638303600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1515257000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1453978600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1486283500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1549409800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1578508700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1628130900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1680518900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1760945100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1791284500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1904516100</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>20652100</v>
+        <v>21886600</v>
       </c>
       <c r="E72" s="3">
-        <v>20908000</v>
+        <v>20669300</v>
       </c>
       <c r="F72" s="3">
-        <v>19297000</v>
+        <v>20925300</v>
       </c>
       <c r="G72" s="3">
-        <v>17062600</v>
+        <v>19313000</v>
       </c>
       <c r="H72" s="3">
-        <v>15663100</v>
+        <v>17076800</v>
       </c>
       <c r="I72" s="3">
-        <v>15022400</v>
+        <v>15676100</v>
       </c>
       <c r="J72" s="3">
+        <v>15034800</v>
+      </c>
+      <c r="K72" s="3">
         <v>13667200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>13118800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12484400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11771300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9988000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9959700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>10335300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>10680000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11258500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>14121700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>14850900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>19841400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>19771000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>19008600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>18649500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>18846100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>19583200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>22200800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>21747500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>22878700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>22287100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>24485700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>76961300</v>
+        <v>78246900</v>
       </c>
       <c r="E76" s="3">
-        <v>77602000</v>
+        <v>77025200</v>
       </c>
       <c r="F76" s="3">
-        <v>76469200</v>
+        <v>77666500</v>
       </c>
       <c r="G76" s="3">
-        <v>74854900</v>
+        <v>76532600</v>
       </c>
       <c r="H76" s="3">
-        <v>72760500</v>
+        <v>74917100</v>
       </c>
       <c r="I76" s="3">
-        <v>72609800</v>
+        <v>72820900</v>
       </c>
       <c r="J76" s="3">
+        <v>72670000</v>
+      </c>
+      <c r="K76" s="3">
         <v>71910500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>69245700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>67327900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>65506100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>60451400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>62888400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>66729900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>67336400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>70654000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>77200100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>74603800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>80850000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>79454200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>74489400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>73930500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>73143300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>76125900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>78925300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>79585000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>75781200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>75714300</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>77991500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>828300</v>
+        <v>1118600</v>
       </c>
       <c r="E81" s="3">
-        <v>1255400</v>
+        <v>828900</v>
       </c>
       <c r="F81" s="3">
-        <v>1977400</v>
+        <v>1256400</v>
       </c>
       <c r="G81" s="3">
-        <v>1208800</v>
+        <v>1979000</v>
       </c>
       <c r="H81" s="3">
-        <v>1134000</v>
+        <v>1209800</v>
       </c>
       <c r="I81" s="3">
-        <v>1149100</v>
+        <v>1134900</v>
       </c>
       <c r="J81" s="3">
+        <v>1150100</v>
+      </c>
+      <c r="K81" s="3">
         <v>225500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>208900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>732100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>960700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>83800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>188900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-84000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-46900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1870200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1153900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-3849200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>117200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-502700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>233700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>310700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>47200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-4333100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>725900</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>178400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>670200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-2217300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>300500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,34 +6786,35 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
@@ -6624,8 +6822,8 @@
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6645,41 +6843,44 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3">
         <v>705000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>692300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>936600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>348100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>732700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>366900</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>544200</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>814600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>2610600</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>423700</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,34 +7336,37 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
@@ -7158,8 +7374,8 @@
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -7179,41 +7395,44 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3">
         <v>-14742500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-7702300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-25258400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-12785100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>22428600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-24901400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>49922900</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3185700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>72411200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-24445800</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,8 +7464,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7269,19 +7489,19 @@
         <v>-331000</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-181000</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -7301,41 +7521,44 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-153800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-154000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-109800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-105400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-71800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-170500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-139100</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-340400</v>
       </c>
       <c r="AD91" s="3">
         <v>-340400</v>
       </c>
       <c r="AE91" s="3">
+        <v>-340400</v>
+      </c>
+      <c r="AF91" s="3">
         <v>-208900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,34 +7738,37 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
@@ -7547,8 +7776,8 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -7568,41 +7797,44 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3">
         <v>-923800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1684700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>5880900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>5028800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1605600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1331800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-448800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>252400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>11937600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>5980600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,8 +7866,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7712,19 +7945,22 @@
         <v>0</v>
       </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-439800</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
         <v>0</v>
       </c>
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,34 +8232,37 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
@@ -8025,8 +8270,8 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -8046,67 +8291,70 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3">
         <v>-132500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-332300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-2414500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-793900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>911100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-371400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>7601500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-138500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-59900</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-217200</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
@@ -8114,8 +8362,8 @@
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -8135,67 +8383,70 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-      <c r="U101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V101" s="3">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W101" s="3">
         <v>1113100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>875000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1412000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1481200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1384500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-2435800</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-1992700</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-693700</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>430800</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>110300</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
@@ -8203,8 +8454,8 @@
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -8224,37 +8475,40 @@
       <c r="T102" s="3">
         <v>0</v>
       </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3">
         <v>-14811100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-8844200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-20380000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10031300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>23560700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-26376900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>55083000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-3765600</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>84719700</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-18572000</v>
       </c>
     </row>
